--- a/param-model/_all_param_value_source.xlsx
+++ b/param-model/_all_param_value_source.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="117">
   <si>
     <t>PARAMETER</t>
   </si>
@@ -365,6 +365,12 @@
   <si>
     <t>Ferguson NM, Cummings DAT, Cauchemez S, et al. Strategies for containing an emerging influenza pandemic in Southeast Asia. Nature 2005; 437: 209–14.
  Lau LLH, Cowling BJ, Fang VJ, et al. Viral Shedding and Clinical Illness in Naturally Acquired Influenza Virus Infections. The Journal of Infectious Diseases 2010; 201: 1509–16.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Lau LLH, Cowling BJ, Fang VJ, et al. Viral Shedding and Clinical Illness in Naturally Acquired Influenza Virus Infections. The Journal of Infectious Diseases 2010; 201: 1509–16."</t>
+  </si>
+  <si>
+    <t>Lau 2010 has 1E-4 VL reduction; Here I assume asymptomatic make 1E2 more effective contacts</t>
   </si>
 </sst>
 </file>
@@ -1152,8 +1158,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:H64"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="D1" zoomScale="145" zoomScaleNormal="145" zoomScalePageLayoutView="145" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A23" zoomScale="145" zoomScaleNormal="145" zoomScalePageLayoutView="145" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1416,7 +1422,7 @@
       </c>
       <c r="H14" s="10"/>
     </row>
-    <row r="15" spans="2:8" ht="30">
+    <row r="15" spans="2:8" ht="42">
       <c r="B15" s="5" t="s">
         <v>12</v>
       </c>
@@ -1427,13 +1433,15 @@
         <v>94</v>
       </c>
       <c r="E15" s="5">
-        <v>0.8</v>
+        <v>0.01</v>
       </c>
       <c r="F15" s="5"/>
       <c r="G15" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="H15" s="10"/>
+        <v>115</v>
+      </c>
+      <c r="H15" s="8" t="s">
+        <v>116</v>
+      </c>
     </row>
     <row r="16" spans="2:8" ht="28">
       <c r="B16" s="5" t="s">

--- a/param-model/_all_param_value_source.xlsx
+++ b/param-model/_all_param_value_source.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27526"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27629"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="300" yWindow="0" windowWidth="25280" windowHeight="17560" tabRatio="500"/>
+    <workbookView xWindow="12780" yWindow="-440" windowWidth="25560" windowHeight="28360" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="119">
   <si>
     <t>PARAMETER</t>
   </si>
@@ -73,9 +73,6 @@
   </si>
   <si>
     <t>COMMENT</t>
-  </si>
-  <si>
-    <t>based on mean generation interval Tg=2.6 days</t>
   </si>
   <si>
     <t>dol_distrib</t>
@@ -371,6 +368,17 @@
   </si>
   <si>
     <t>Lau 2010 has 1E-4 VL reduction; Here I assume asymptomatic make 1E2 more effective contacts</t>
+  </si>
+  <si>
+    <t>Ferguson NM, Cummings DAT, Cauchemez S, et al. Strategies for containing an emerging influenza pandemic in Southeast Asia. Nature 2005; 437: 209–14.
+ Lau LLH, Cowling BJ, Fang VJ, et al. Viral Shedding and Clinical Illness in Naturally Acquired Influenza Virus Infections. The Journal of Infectious Diseases 2010; 201: 1509–16.
+Cori A, Valleron A-J, Carrat F, Tomba GS, Thomas G, Boelle PY. Estimating influenza latency and infectious period durations using viral excretion data. Epidemics 2012; 4: 132–8.</t>
+  </si>
+  <si>
+    <t>Cori has mean ~ 1.6 days</t>
+  </si>
+  <si>
+    <t>Ferguson based on mean generation interval Tg=2.6 days; Cori has mean ~ 1day</t>
   </si>
 </sst>
 </file>
@@ -477,8 +485,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="111">
+  <cellStyleXfs count="113">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -601,9 +611,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -614,19 +621,7 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -634,8 +629,23 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="111">
+  <cellStyles count="113">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -691,6 +701,7 @@
     <cellStyle name="Followed Hyperlink" xfId="106" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="108" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="110" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="112" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -746,59 +757,10 @@
     <cellStyle name="Hyperlink" xfId="105" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="107" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="109" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="111" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="8">
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="3">
     <dxf>
       <font>
         <color rgb="FF9C6500"/>
@@ -1158,8 +1120,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:H64"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A23" zoomScale="145" zoomScaleNormal="145" zoomScalePageLayoutView="145" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="D1" zoomScale="145" zoomScaleNormal="145" zoomScalePageLayoutView="145" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1171,955 +1133,957 @@
     <col min="5" max="5" width="13.1640625" style="1" customWidth="1"/>
     <col min="6" max="6" width="10.83203125" style="1"/>
     <col min="7" max="7" width="36.33203125" style="2" customWidth="1"/>
-    <col min="8" max="8" width="31.1640625" customWidth="1"/>
+    <col min="8" max="8" width="31.1640625" style="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:8" s="14" customFormat="1" ht="18">
-      <c r="B3" s="13" t="s">
+    <row r="3" spans="2:8" s="9" customFormat="1" ht="18">
+      <c r="B3" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="D3" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="13" t="s">
+      <c r="E3" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="13" t="s">
+      <c r="F3" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="G3" s="13" t="s">
+      <c r="G3" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="13" t="s">
+      <c r="H3" s="8" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="4" spans="2:8">
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="E4" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="F4" s="4"/>
+      <c r="G4" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H4" s="7"/>
+    </row>
+    <row r="5" spans="2:8" ht="99">
+      <c r="B5" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="4">
+        <v>1.25</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" ht="66">
+      <c r="B6" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="4">
+        <v>0.25</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="H6" s="7"/>
+    </row>
+    <row r="7" spans="2:8" ht="99">
+      <c r="B7" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" s="4">
+        <v>2</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" ht="66">
+      <c r="B8" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" s="4">
+        <v>1</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="H8" s="7"/>
+    </row>
+    <row r="9" spans="2:8">
+      <c r="B9" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="F4" s="5"/>
-      <c r="G4" s="7" t="s">
+      <c r="D9" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F9" s="4"/>
+      <c r="G9" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H9" s="7"/>
+    </row>
+    <row r="10" spans="2:8">
+      <c r="B10" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="H4" s="8"/>
-    </row>
-    <row r="5" spans="2:8" ht="66">
-      <c r="B5" s="5" t="s">
+      <c r="D10" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F10" s="4"/>
+      <c r="G10" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="H10" s="10"/>
+    </row>
+    <row r="11" spans="2:8">
+      <c r="B11" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E5" s="5">
+      <c r="C11" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F11" s="4"/>
+      <c r="G11" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="H11" s="10"/>
+    </row>
+    <row r="12" spans="2:8" ht="22">
+      <c r="B12" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E12" s="4">
+        <v>12</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="H12" s="10" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" ht="22">
+      <c r="B13" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E13" s="4">
+        <v>21</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="H13" s="10"/>
+    </row>
+    <row r="14" spans="2:8" ht="30">
+      <c r="B14" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F14" s="4"/>
+      <c r="G14" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="H14" s="10"/>
+    </row>
+    <row r="15" spans="2:8" ht="42">
+      <c r="B15" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="E15" s="4">
+        <v>0.01</v>
+      </c>
+      <c r="F15" s="4"/>
+      <c r="G15" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="H15" s="7" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8" ht="28">
+      <c r="B16" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E16" s="4">
+        <v>0.6</v>
+      </c>
+      <c r="F16" s="4"/>
+      <c r="G16" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H16" s="7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" ht="30">
+      <c r="B17" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="E17" s="4">
         <v>1</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="F17" s="4"/>
+      <c r="G17" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H17" s="10"/>
+    </row>
+    <row r="18" spans="2:8" ht="56">
+      <c r="B18" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="E18" s="4">
+        <v>0.12</v>
+      </c>
+      <c r="F18" s="4"/>
+      <c r="G18" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H18" s="7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" ht="56">
+      <c r="B19" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="E19" s="4">
+        <v>30</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="G19" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H19" s="7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" ht="56">
+      <c r="B20" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E20" s="4">
+        <v>60</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="G20" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H20" s="7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" ht="56">
+      <c r="B21" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="E21" s="4">
+        <v>0.43</v>
+      </c>
+      <c r="F21" s="4"/>
+      <c r="G21" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H21" s="7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" ht="30">
+      <c r="B22" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E22" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="F22" s="4"/>
+      <c r="G22" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H22" s="7"/>
+    </row>
+    <row r="23" spans="2:8" ht="30">
+      <c r="B23" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="E23" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="F23" s="4"/>
+      <c r="G23" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H23" s="10"/>
+    </row>
+    <row r="24" spans="2:8" ht="30">
+      <c r="B24" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="E24" s="4">
+        <v>120</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="G24" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H24" s="10"/>
+    </row>
+    <row r="25" spans="2:8" ht="30">
+      <c r="B25" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="E25" s="4">
+        <v>2</v>
+      </c>
+      <c r="F25" s="4"/>
+      <c r="G25" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H25" s="10"/>
+    </row>
+    <row r="26" spans="2:8">
+      <c r="B26" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="E26" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="F26" s="4"/>
+      <c r="G26" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H26" s="10"/>
+    </row>
+    <row r="27" spans="2:8">
+      <c r="B27" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="E27" s="4">
+        <v>2</v>
+      </c>
+      <c r="F27" s="4"/>
+      <c r="G27" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H27" s="10"/>
+    </row>
+    <row r="28" spans="2:8">
+      <c r="B28" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="E28" s="4">
+        <v>20</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="G28" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H28" s="10"/>
+    </row>
+    <row r="29" spans="2:8">
+      <c r="B29" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="G29" s="6"/>
+      <c r="H29" s="10" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="30" spans="2:8">
+      <c r="B30" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F30" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="G30" s="6"/>
+      <c r="H30" s="10" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="31" spans="2:8" ht="30">
+      <c r="B31" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="E31" s="4">
+        <v>1</v>
+      </c>
+      <c r="F31" s="4"/>
+      <c r="G31" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H31" s="10"/>
+    </row>
+    <row r="32" spans="2:8" ht="30">
+      <c r="B32" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="E32" s="4">
+        <v>1</v>
+      </c>
+      <c r="F32" s="4"/>
+      <c r="G32" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H32" s="10"/>
+    </row>
+    <row r="33" spans="2:8" ht="30">
+      <c r="B33" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="E33" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="F33" s="4"/>
+      <c r="G33" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H33" s="10"/>
+    </row>
+    <row r="34" spans="2:8" ht="30">
+      <c r="B34" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="E34" s="4">
+        <v>1.75</v>
+      </c>
+      <c r="F34" s="4"/>
+      <c r="G34" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H34" s="10"/>
+    </row>
+    <row r="35" spans="2:8" ht="30">
+      <c r="B35" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="E35" s="4">
+        <v>1</v>
+      </c>
+      <c r="F35" s="4"/>
+      <c r="G35" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H35" s="10"/>
+    </row>
+    <row r="36" spans="2:8">
+      <c r="B36" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="E36" s="4">
+        <v>1.9</v>
+      </c>
+      <c r="F36" s="4"/>
+      <c r="G36" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H36" s="10"/>
+    </row>
+    <row r="37" spans="2:8" ht="45">
+      <c r="B37" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="E37" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="F37" s="4"/>
+      <c r="G37" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H37" s="10"/>
+    </row>
+    <row r="38" spans="2:8" ht="30">
+      <c r="B38" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="E38" s="4">
+        <v>0.98</v>
+      </c>
+      <c r="F38" s="4"/>
+      <c r="G38" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H38" s="10"/>
+    </row>
+    <row r="39" spans="2:8" ht="30">
+      <c r="B39" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="D39" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="E39" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="F39" s="4"/>
+      <c r="G39" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H39" s="10"/>
+    </row>
+    <row r="40" spans="2:8" ht="30">
+      <c r="B40" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="D40" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="E40" s="4">
+        <v>0</v>
+      </c>
+      <c r="F40" s="4"/>
+      <c r="G40" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H40" s="11" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="41" spans="2:8" ht="45">
+      <c r="B41" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="D41" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="E41" s="4">
+        <v>1</v>
+      </c>
+      <c r="F41" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="G5" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="H5" s="8"/>
-    </row>
-    <row r="6" spans="2:8" ht="66">
-      <c r="B6" s="5" t="s">
+      <c r="G41" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="H41" s="10"/>
+    </row>
+    <row r="42" spans="2:8" ht="45">
+      <c r="B42" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="E42" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="F42" s="4"/>
+      <c r="G42" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H42" s="10"/>
+    </row>
+    <row r="43" spans="2:8" ht="30">
+      <c r="B43" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="D43" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="E43" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="F43" s="4"/>
+      <c r="G43" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="H43" s="12"/>
+    </row>
+    <row r="44" spans="2:8" ht="30">
+      <c r="B44" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="D44" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="E44" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="F44" s="4"/>
+      <c r="G44" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="H44" s="12"/>
+    </row>
+    <row r="45" spans="2:8" ht="30">
+      <c r="B45" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="D45" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="E45" s="4">
         <v>12</v>
       </c>
-      <c r="C6" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E6" s="5">
-        <v>0.25</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="H6" s="8"/>
-    </row>
-    <row r="7" spans="2:8" ht="66">
-      <c r="B7" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E7" s="5">
-        <v>3</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="H7" s="9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="2:8" ht="66">
-      <c r="B8" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E8" s="5">
-        <v>1</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="H8" s="8"/>
-    </row>
-    <row r="9" spans="2:8">
-      <c r="B9" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="F9" s="5"/>
-      <c r="G9" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="H9" s="8"/>
-    </row>
-    <row r="10" spans="2:8">
-      <c r="B10" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="F10" s="5"/>
-      <c r="G10" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="H10" s="10"/>
-    </row>
-    <row r="11" spans="2:8">
-      <c r="B11" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="F11" s="5"/>
-      <c r="G11" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="H11" s="10"/>
-    </row>
-    <row r="12" spans="2:8" ht="22">
-      <c r="B12" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="E12" s="5">
-        <v>12</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="H12" s="10" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="13" spans="2:8" ht="22">
-      <c r="B13" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="E13" s="5">
-        <v>21</v>
-      </c>
-      <c r="F13" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="H13" s="10"/>
-    </row>
-    <row r="14" spans="2:8" ht="30">
-      <c r="B14" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="F14" s="5"/>
-      <c r="G14" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="H14" s="10"/>
-    </row>
-    <row r="15" spans="2:8" ht="42">
-      <c r="B15" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="D15" s="6" t="s">
+      <c r="F45" s="4"/>
+      <c r="G45" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="H45" s="12"/>
+    </row>
+    <row r="46" spans="2:8" ht="30">
+      <c r="B46" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="E15" s="5">
-        <v>0.01</v>
-      </c>
-      <c r="F15" s="5"/>
-      <c r="G15" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="H15" s="8" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="16" spans="2:8" ht="28">
-      <c r="B16" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="E16" s="5">
-        <v>0.6</v>
-      </c>
-      <c r="F16" s="5"/>
-      <c r="G16" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="H16" s="9" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="17" spans="2:8" ht="30">
-      <c r="B17" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="E17" s="5">
-        <v>1</v>
-      </c>
-      <c r="F17" s="5"/>
-      <c r="G17" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="H17" s="10"/>
-    </row>
-    <row r="18" spans="2:8" ht="56">
-      <c r="B18" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="E18" s="5">
-        <v>0.12</v>
-      </c>
-      <c r="F18" s="5"/>
-      <c r="G18" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="H18" s="9" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="19" spans="2:8" ht="56">
-      <c r="B19" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="D19" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="E19" s="5">
-        <v>30</v>
-      </c>
-      <c r="F19" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="H19" s="9" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="20" spans="2:8" ht="56">
-      <c r="B20" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="D20" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="E20" s="5">
-        <v>60</v>
-      </c>
-      <c r="F20" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="H20" s="9" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="21" spans="2:8" ht="56">
-      <c r="B21" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="D21" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="E21" s="5">
-        <v>0.43</v>
-      </c>
-      <c r="F21" s="5"/>
-      <c r="G21" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="H21" s="9" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="22" spans="2:8" ht="30">
-      <c r="B22" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="D22" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="E22" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="F22" s="5"/>
-      <c r="G22" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="H22" s="9"/>
-    </row>
-    <row r="23" spans="2:8" ht="30">
-      <c r="B23" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="D23" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="E23" s="5">
-        <v>0.2</v>
-      </c>
-      <c r="F23" s="5"/>
-      <c r="G23" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="H23" s="10"/>
-    </row>
-    <row r="24" spans="2:8" ht="30">
-      <c r="B24" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="D24" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="E24" s="5">
-        <v>120</v>
-      </c>
-      <c r="F24" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="H24" s="10"/>
-    </row>
-    <row r="25" spans="2:8" ht="30">
-      <c r="B25" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="D25" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="E25" s="5">
-        <v>2</v>
-      </c>
-      <c r="F25" s="5"/>
-      <c r="G25" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="H25" s="10"/>
-    </row>
-    <row r="26" spans="2:8">
-      <c r="B26" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="C26" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="D26" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="E26" s="5">
-        <v>0.4</v>
-      </c>
-      <c r="F26" s="5"/>
-      <c r="G26" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="H26" s="10"/>
-    </row>
-    <row r="27" spans="2:8">
-      <c r="B27" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="C27" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="D27" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="E27" s="5">
-        <v>2</v>
-      </c>
-      <c r="F27" s="5"/>
-      <c r="G27" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="H27" s="10"/>
-    </row>
-    <row r="28" spans="2:8">
-      <c r="B28" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="C28" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="D28" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="E28" s="5">
-        <v>20</v>
-      </c>
-      <c r="F28" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="H28" s="10"/>
-    </row>
-    <row r="29" spans="2:8">
-      <c r="B29" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="C29" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="D29" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="E29" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="F29" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="G29" s="7"/>
-      <c r="H29" s="10" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="30" spans="2:8">
-      <c r="B30" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="C30" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="D30" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="E30" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="F30" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="G30" s="7"/>
-      <c r="H30" s="10" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="31" spans="2:8" ht="30">
-      <c r="B31" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="C31" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="D31" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="E31" s="5">
-        <v>1</v>
-      </c>
-      <c r="F31" s="5"/>
-      <c r="G31" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="H31" s="10"/>
-    </row>
-    <row r="32" spans="2:8" ht="30">
-      <c r="B32" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="C32" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="D32" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="E32" s="5">
-        <v>1</v>
-      </c>
-      <c r="F32" s="5"/>
-      <c r="G32" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="H32" s="10"/>
-    </row>
-    <row r="33" spans="2:8" ht="30">
-      <c r="B33" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="C33" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="D33" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="E33" s="5">
-        <v>0.8</v>
-      </c>
-      <c r="F33" s="5"/>
-      <c r="G33" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="H33" s="10"/>
-    </row>
-    <row r="34" spans="2:8" ht="30">
-      <c r="B34" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="C34" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="D34" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="E34" s="5">
-        <v>1.75</v>
-      </c>
-      <c r="F34" s="5"/>
-      <c r="G34" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="H34" s="10"/>
-    </row>
-    <row r="35" spans="2:8" ht="30">
-      <c r="B35" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="C35" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="D35" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="E35" s="5">
-        <v>1</v>
-      </c>
-      <c r="F35" s="5"/>
-      <c r="G35" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="H35" s="10"/>
-    </row>
-    <row r="36" spans="2:8">
-      <c r="B36" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="C36" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="D36" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="E36" s="5">
-        <v>1.9</v>
-      </c>
-      <c r="F36" s="5"/>
-      <c r="G36" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="H36" s="10"/>
-    </row>
-    <row r="37" spans="2:8" ht="45">
-      <c r="B37" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="C37" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="D37" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="E37" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="F37" s="5"/>
-      <c r="G37" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="H37" s="10"/>
-    </row>
-    <row r="38" spans="2:8" ht="30">
-      <c r="B38" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="C38" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="D38" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="E38" s="5">
-        <v>0.98</v>
-      </c>
-      <c r="F38" s="5"/>
-      <c r="G38" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="H38" s="10"/>
-    </row>
-    <row r="39" spans="2:8" ht="30">
-      <c r="B39" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="C39" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="D39" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="E39" s="5">
-        <v>0.4</v>
-      </c>
-      <c r="F39" s="5"/>
-      <c r="G39" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="H39" s="10"/>
-    </row>
-    <row r="40" spans="2:8" ht="30">
-      <c r="B40" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="C40" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="D40" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="E40" s="5">
+      <c r="C46" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="D46" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="E46" s="4">
         <v>0</v>
       </c>
-      <c r="F40" s="5"/>
-      <c r="G40" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="H40" s="11" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="41" spans="2:8" ht="45">
-      <c r="B41" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="C41" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="D41" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="E41" s="5">
-        <v>1</v>
-      </c>
-      <c r="F41" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="G41" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="H41" s="10"/>
-    </row>
-    <row r="42" spans="2:8" ht="45">
-      <c r="B42" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="C42" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="D42" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="E42" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="F42" s="5"/>
-      <c r="G42" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="H42" s="10"/>
-    </row>
-    <row r="43" spans="2:8" ht="30">
-      <c r="B43" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="C43" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="D43" s="6" t="s">
+      <c r="F46" s="4"/>
+      <c r="G46" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="E43" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="F43" s="5"/>
-      <c r="G43" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="H43" s="12"/>
-    </row>
-    <row r="44" spans="2:8" ht="30">
-      <c r="B44" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="C44" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="D44" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="E44" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="F44" s="5"/>
-      <c r="G44" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="H44" s="12"/>
-    </row>
-    <row r="45" spans="2:8" ht="30">
-      <c r="B45" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="C45" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="D45" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="E45" s="5">
-        <v>12</v>
-      </c>
-      <c r="F45" s="5"/>
-      <c r="G45" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="H45" s="12"/>
-    </row>
-    <row r="46" spans="2:8" ht="30">
-      <c r="B46" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="C46" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="D46" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="E46" s="5">
-        <v>0</v>
-      </c>
-      <c r="F46" s="5"/>
-      <c r="G46" s="7" t="s">
-        <v>103</v>
-      </c>
       <c r="H46" s="12"/>
     </row>
     <row r="47" spans="2:8">
-      <c r="H47" s="4"/>
+      <c r="H47" s="13"/>
     </row>
     <row r="48" spans="2:8">
-      <c r="H48" s="4"/>
+      <c r="H48" s="13"/>
     </row>
     <row r="49" spans="8:8">
-      <c r="H49" s="4"/>
+      <c r="H49" s="13"/>
     </row>
     <row r="50" spans="8:8">
-      <c r="H50" s="4"/>
+      <c r="H50" s="13"/>
     </row>
     <row r="51" spans="8:8">
-      <c r="H51" s="4"/>
+      <c r="H51" s="13"/>
     </row>
     <row r="52" spans="8:8">
-      <c r="H52" s="4"/>
+      <c r="H52" s="13"/>
     </row>
     <row r="53" spans="8:8">
-      <c r="H53" s="4"/>
+      <c r="H53" s="13"/>
     </row>
     <row r="54" spans="8:8">
-      <c r="H54" s="4"/>
+      <c r="H54" s="13"/>
     </row>
     <row r="55" spans="8:8">
-      <c r="H55" s="4"/>
+      <c r="H55" s="13"/>
     </row>
     <row r="56" spans="8:8">
-      <c r="H56" s="4"/>
+      <c r="H56" s="13"/>
     </row>
     <row r="57" spans="8:8">
-      <c r="H57" s="4"/>
+      <c r="H57" s="13"/>
     </row>
     <row r="58" spans="8:8">
-      <c r="H58" s="4"/>
+      <c r="H58" s="13"/>
     </row>
     <row r="59" spans="8:8">
-      <c r="H59" s="4"/>
+      <c r="H59" s="13"/>
     </row>
     <row r="60" spans="8:8">
-      <c r="H60" s="4"/>
+      <c r="H60" s="13"/>
     </row>
     <row r="61" spans="8:8">
-      <c r="H61" s="4"/>
+      <c r="H61" s="13"/>
     </row>
     <row r="62" spans="8:8">
-      <c r="H62" s="4"/>
+      <c r="H62" s="13"/>
     </row>
     <row r="63" spans="8:8">
-      <c r="H63" s="4"/>
+      <c r="H63" s="13"/>
     </row>
     <row r="64" spans="8:8">
-      <c r="H64" s="4"/>
+      <c r="H64" s="13"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="G4:G58">
-    <cfRule type="expression" dxfId="6" priority="2">
+    <cfRule type="expression" dxfId="2" priority="2">
       <formula>G4="Arbitrary"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G14">
-    <cfRule type="expression" dxfId="5" priority="1">
+    <cfRule type="expression" dxfId="1" priority="1">
       <formula>G14="Arbitrary"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/param-model/_all_param_value_source.xlsx
+++ b/param-model/_all_param_value_source.xlsx
@@ -600,7 +600,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -643,6 +643,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="113">
@@ -1120,8 +1123,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:H64"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="D1" zoomScale="145" zoomScaleNormal="145" zoomScalePageLayoutView="145" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A3" zoomScale="145" zoomScaleNormal="145" zoomScalePageLayoutView="145" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1232,8 +1235,8 @@
       <c r="D7" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E7" s="4">
-        <v>2</v>
+      <c r="E7" s="15">
+        <v>1.5</v>
       </c>
       <c r="F7" s="4" t="s">
         <v>9</v>

--- a/param-model/_all_param_value_source.xlsx
+++ b/param-model/_all_param_value_source.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27629"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="12780" yWindow="-440" windowWidth="25560" windowHeight="28360" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="123">
   <si>
     <t>PARAMETER</t>
   </si>
@@ -362,12 +362,6 @@
   <si>
     <t>Ferguson NM, Cummings DAT, Cauchemez S, et al. Strategies for containing an emerging influenza pandemic in Southeast Asia. Nature 2005; 437: 209–14.
  Lau LLH, Cowling BJ, Fang VJ, et al. Viral Shedding and Clinical Illness in Naturally Acquired Influenza Virus Infections. The Journal of Infectious Diseases 2010; 201: 1509–16.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Lau LLH, Cowling BJ, Fang VJ, et al. Viral Shedding and Clinical Illness in Naturally Acquired Influenza Virus Infections. The Journal of Infectious Diseases 2010; 201: 1509–16."</t>
-  </si>
-  <si>
-    <t>Lau 2010 has 1E-4 VL reduction; Here I assume asymptomatic make 1E2 more effective contacts</t>
   </si>
   <si>
     <t>Ferguson NM, Cummings DAT, Cauchemez S, et al. Strategies for containing an emerging influenza pandemic in Southeast Asia. Nature 2005; 437: 209–14.
@@ -379,6 +373,25 @@
   </si>
   <si>
     <t>Ferguson based on mean generation interval Tg=2.6 days; Cori has mean ~ 1day</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Lau LLH, Cowling BJ, Fang VJ, et al. Viral Shedding and Clinical Illness in Naturally Acquired Influenza Virus Infections. The Journal of Infectious Diseases 2010; 201: 1509–16.
+Longini IM Jr., Halloran ME, Nizam A, Yang Y. Containing pandemic influenza with antiviral agents. American Journal of Epidemiology 2004; 159: 623–33.</t>
+  </si>
+  <si>
+    <t>Lau 2010 has 1E-4 VL reduction; Longini assumed 0.5 and this value was used in many modelling papers.</t>
+  </si>
+  <si>
+    <t>mult_proba_symptomatic</t>
+  </si>
+  <si>
+    <t>Determine (indirectly) overall asymptomatic fraction</t>
+  </si>
+  <si>
+    <t>Leung NHL, Xu C, Ip DKM, Cowling BJ. The Fraction of Influenza Virus Infections That Are Asymptomatic. A systematic review and meta-analysis. Epidemiology 2015; 26: 862–72.</t>
+  </si>
+  <si>
+    <t>estimates from outbreak investigations: 4-28%</t>
   </si>
 </sst>
 </file>
@@ -423,20 +436,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="10"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="14"/>
       <color theme="0"/>
@@ -447,6 +446,20 @@
       <b/>
       <sz val="14"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="8"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
@@ -485,8 +498,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="113">
+  <cellStyleXfs count="115">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -620,23 +635,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -647,8 +650,20 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="113">
+  <cellStyles count="115">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -705,6 +720,7 @@
     <cellStyle name="Followed Hyperlink" xfId="108" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="110" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="112" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="114" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -761,19 +777,10 @@
     <cellStyle name="Hyperlink" xfId="107" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="109" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="111" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="113" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <font>
         <color rgb="FF9C6500"/>
@@ -1121,10 +1128,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:H64"/>
+  <dimension ref="B1:H63"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A3" zoomScale="145" zoomScaleNormal="145" zoomScalePageLayoutView="145" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="145" zoomScaleNormal="145" zoomScalePageLayoutView="145" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1136,72 +1144,116 @@
     <col min="5" max="5" width="13.1640625" style="1" customWidth="1"/>
     <col min="6" max="6" width="10.83203125" style="1"/>
     <col min="7" max="7" width="36.33203125" style="2" customWidth="1"/>
-    <col min="8" max="8" width="31.1640625" style="14" customWidth="1"/>
+    <col min="8" max="8" width="31.1640625" style="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:8" s="9" customFormat="1" ht="18">
-      <c r="B3" s="8" t="s">
+    <row r="1" spans="2:8" s="8" customFormat="1" ht="18">
+      <c r="B1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="F1" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="G3" s="8" t="s">
+      <c r="G1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="8" t="s">
+      <c r="H1" s="7" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="2:8">
+    <row r="2" spans="2:8">
+      <c r="B2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" s="4"/>
+      <c r="G2" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H2" s="12"/>
+    </row>
+    <row r="3" spans="2:8" ht="99">
+      <c r="B3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="4">
+        <v>1.25</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="H3" s="12" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" ht="66">
       <c r="B4" s="4" t="s">
         <v>12</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="F4" s="4"/>
+        <v>7</v>
+      </c>
+      <c r="E4" s="4">
+        <v>0.25</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>10</v>
+      </c>
       <c r="G4" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="H4" s="7"/>
+        <v>113</v>
+      </c>
+      <c r="H4" s="12"/>
     </row>
     <row r="5" spans="2:8" ht="99">
       <c r="B5" s="4" t="s">
         <v>12</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E5" s="4">
-        <v>1.25</v>
+        <v>15</v>
+      </c>
+      <c r="E5" s="11">
+        <v>1.5</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>9</v>
       </c>
       <c r="G5" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="H5" s="12" t="s">
         <v>116</v>
-      </c>
-      <c r="H5" s="7" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="6" spans="2:8" ht="66">
@@ -1209,13 +1261,13 @@
         <v>12</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="E6" s="4">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>10</v>
@@ -1223,266 +1275,266 @@
       <c r="G6" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="H6" s="7"/>
-    </row>
-    <row r="7" spans="2:8" ht="99">
+      <c r="H6" s="12"/>
+    </row>
+    <row r="7" spans="2:8">
       <c r="B7" s="4" t="s">
         <v>12</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E7" s="15">
-        <v>1.5</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>9</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7" s="4"/>
       <c r="G7" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="H7" s="7" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="8" spans="2:8" ht="66">
+        <v>23</v>
+      </c>
+      <c r="H7" s="12"/>
+    </row>
+    <row r="8" spans="2:8">
       <c r="B8" s="4" t="s">
         <v>12</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E8" s="4">
-        <v>1</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>10</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F8" s="4"/>
       <c r="G8" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="H8" s="7"/>
+        <v>27</v>
+      </c>
+      <c r="H8" s="13"/>
     </row>
     <row r="9" spans="2:8">
       <c r="B9" s="4" t="s">
         <v>12</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="F9" s="4"/>
       <c r="G9" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="H9" s="7"/>
-    </row>
-    <row r="10" spans="2:8">
+        <v>27</v>
+      </c>
+      <c r="H9" s="13"/>
+    </row>
+    <row r="10" spans="2:8" ht="22">
       <c r="B10" s="4" t="s">
         <v>12</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="F10" s="4"/>
+        <v>31</v>
+      </c>
+      <c r="E10" s="4">
+        <v>12</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>9</v>
+      </c>
       <c r="G10" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="H10" s="10"/>
-    </row>
-    <row r="11" spans="2:8">
+        <v>111</v>
+      </c>
+      <c r="H10" s="13" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" ht="22">
       <c r="B11" s="4" t="s">
         <v>12</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="F11" s="4"/>
+        <v>32</v>
+      </c>
+      <c r="E11" s="4">
+        <v>21</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>10</v>
+      </c>
       <c r="G11" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="H11" s="10"/>
-    </row>
-    <row r="12" spans="2:8" ht="22">
+        <v>111</v>
+      </c>
+      <c r="H11" s="13"/>
+    </row>
+    <row r="12" spans="2:8" ht="30">
       <c r="B12" s="4" t="s">
         <v>12</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>30</v>
+        <v>109</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="E12" s="4">
-        <v>12</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>9</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F12" s="4"/>
       <c r="G12" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="H12" s="10" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="13" spans="2:8" ht="22">
+      <c r="H12" s="13"/>
+    </row>
+    <row r="13" spans="2:8" ht="33">
       <c r="B13" s="4" t="s">
         <v>12</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>33</v>
+        <v>119</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="E13" s="4">
-        <v>21</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>10</v>
-      </c>
+        <v>120</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F13" s="4"/>
       <c r="G13" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="H13" s="10"/>
-    </row>
-    <row r="14" spans="2:8" ht="30">
+        <v>121</v>
+      </c>
+      <c r="H13" s="13" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" ht="66">
       <c r="B14" s="4" t="s">
         <v>12</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>109</v>
+        <v>91</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>20</v>
+        <v>93</v>
+      </c>
+      <c r="E14" s="4">
+        <v>0.1</v>
       </c>
       <c r="F14" s="4"/>
       <c r="G14" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="H14" s="10"/>
-    </row>
-    <row r="15" spans="2:8" ht="42">
+        <v>117</v>
+      </c>
+      <c r="H14" s="12" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" ht="22">
       <c r="B15" s="4" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>91</v>
+        <v>35</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>93</v>
+        <v>36</v>
       </c>
       <c r="E15" s="4">
-        <v>0.01</v>
+        <v>0.6</v>
       </c>
       <c r="F15" s="4"/>
       <c r="G15" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="H15" s="7" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="16" spans="2:8" ht="28">
+        <v>23</v>
+      </c>
+      <c r="H15" s="12" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8" ht="30">
       <c r="B16" s="4" t="s">
         <v>34</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E16" s="4">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="F16" s="4"/>
       <c r="G16" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="H16" s="7" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="17" spans="2:8" ht="30">
+      <c r="H16" s="13"/>
+    </row>
+    <row r="17" spans="2:8" ht="33">
       <c r="B17" s="4" t="s">
         <v>34</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E17" s="4">
-        <v>1</v>
+        <v>0.12</v>
       </c>
       <c r="F17" s="4"/>
       <c r="G17" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="H17" s="10"/>
-    </row>
-    <row r="18" spans="2:8" ht="56">
+      <c r="H17" s="12" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" ht="33">
       <c r="B18" s="4" t="s">
         <v>34</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="E18" s="4">
-        <v>0.12</v>
-      </c>
-      <c r="F18" s="4"/>
+        <v>30</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>54</v>
+      </c>
       <c r="G18" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="H18" s="7" t="s">
+      <c r="H18" s="12" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="19" spans="2:8" ht="56">
+    <row r="19" spans="2:8" ht="33">
       <c r="B19" s="4" t="s">
         <v>34</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="E19" s="4">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="F19" s="4" t="s">
         <v>54</v>
@@ -1490,200 +1542,198 @@
       <c r="G19" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="H19" s="7" t="s">
+      <c r="H19" s="12" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="20" spans="2:8" ht="56">
+    <row r="20" spans="2:8" ht="33">
       <c r="B20" s="4" t="s">
         <v>34</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E20" s="4">
-        <v>60</v>
-      </c>
-      <c r="F20" s="4" t="s">
-        <v>54</v>
-      </c>
+        <v>0.43</v>
+      </c>
+      <c r="F20" s="4"/>
       <c r="G20" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="H20" s="7" t="s">
+      <c r="H20" s="12" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="21" spans="2:8" ht="56">
+    <row r="21" spans="2:8" ht="30">
       <c r="B21" s="4" t="s">
         <v>34</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E21" s="4">
-        <v>0.43</v>
+        <v>0.1</v>
       </c>
       <c r="F21" s="4"/>
       <c r="G21" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="H21" s="7" t="s">
-        <v>42</v>
-      </c>
+      <c r="H21" s="12"/>
     </row>
     <row r="22" spans="2:8" ht="30">
       <c r="B22" s="4" t="s">
         <v>34</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E22" s="4">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="F22" s="4"/>
       <c r="G22" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="H22" s="7"/>
+      <c r="H22" s="13"/>
     </row>
     <row r="23" spans="2:8" ht="30">
       <c r="B23" s="4" t="s">
         <v>34</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="E23" s="4">
-        <v>0.2</v>
-      </c>
-      <c r="F23" s="4"/>
+        <v>120</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>54</v>
+      </c>
       <c r="G23" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="H23" s="10"/>
+      <c r="H23" s="13"/>
     </row>
     <row r="24" spans="2:8" ht="30">
       <c r="B24" s="4" t="s">
         <v>34</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="E24" s="4">
-        <v>120</v>
-      </c>
-      <c r="F24" s="4" t="s">
-        <v>54</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="F24" s="4"/>
       <c r="G24" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="H24" s="10"/>
-    </row>
-    <row r="25" spans="2:8" ht="30">
+      <c r="H24" s="13"/>
+    </row>
+    <row r="25" spans="2:8">
       <c r="B25" s="4" t="s">
         <v>34</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="E25" s="4">
-        <v>2</v>
+        <v>0.4</v>
       </c>
       <c r="F25" s="4"/>
       <c r="G25" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="H25" s="10"/>
+      <c r="H25" s="13"/>
     </row>
     <row r="26" spans="2:8">
       <c r="B26" s="4" t="s">
         <v>34</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E26" s="4">
-        <v>0.4</v>
+        <v>2</v>
       </c>
       <c r="F26" s="4"/>
       <c r="G26" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="H26" s="10"/>
+      <c r="H26" s="13"/>
     </row>
     <row r="27" spans="2:8">
       <c r="B27" s="4" t="s">
         <v>34</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D27" s="5" t="s">
         <v>62</v>
       </c>
       <c r="E27" s="4">
-        <v>2</v>
-      </c>
-      <c r="F27" s="4"/>
+        <v>20</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>54</v>
+      </c>
       <c r="G27" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="H27" s="10"/>
+      <c r="H27" s="13"/>
     </row>
     <row r="28" spans="2:8">
       <c r="B28" s="4" t="s">
-        <v>34</v>
+        <v>92</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="E28" s="4">
-        <v>20</v>
+        <v>64</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>26</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="G28" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="H28" s="10"/>
+        <v>65</v>
+      </c>
+      <c r="G28" s="6"/>
+      <c r="H28" s="13" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="29" spans="2:8">
       <c r="B29" s="4" t="s">
         <v>92</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="E29" s="4" t="s">
         <v>26</v>
@@ -1692,40 +1742,38 @@
         <v>65</v>
       </c>
       <c r="G29" s="6"/>
-      <c r="H29" s="10" t="s">
+      <c r="H29" s="13" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="30" spans="2:8">
+    <row r="30" spans="2:8" ht="30">
       <c r="B30" s="4" t="s">
         <v>92</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="E30" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="F30" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="G30" s="6"/>
-      <c r="H30" s="10" t="s">
-        <v>68</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="E30" s="4">
+        <v>1</v>
+      </c>
+      <c r="F30" s="4"/>
+      <c r="G30" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H30" s="13"/>
     </row>
     <row r="31" spans="2:8" ht="30">
       <c r="B31" s="4" t="s">
         <v>92</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E31" s="4">
         <v>1</v>
@@ -1734,230 +1782,230 @@
       <c r="G31" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="H31" s="10"/>
+      <c r="H31" s="13"/>
     </row>
     <row r="32" spans="2:8" ht="30">
       <c r="B32" s="4" t="s">
         <v>92</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E32" s="4">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="F32" s="4"/>
       <c r="G32" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="H32" s="10"/>
+      <c r="H32" s="13"/>
     </row>
     <row r="33" spans="2:8" ht="30">
       <c r="B33" s="4" t="s">
         <v>92</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E33" s="4">
-        <v>0.8</v>
+        <v>1.75</v>
       </c>
       <c r="F33" s="4"/>
       <c r="G33" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="H33" s="10"/>
+      <c r="H33" s="13"/>
     </row>
     <row r="34" spans="2:8" ht="30">
       <c r="B34" s="4" t="s">
         <v>92</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E34" s="4">
-        <v>1.75</v>
+        <v>1</v>
       </c>
       <c r="F34" s="4"/>
       <c r="G34" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="H34" s="10"/>
-    </row>
-    <row r="35" spans="2:8" ht="30">
+      <c r="H34" s="13"/>
+    </row>
+    <row r="35" spans="2:8">
       <c r="B35" s="4" t="s">
         <v>92</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E35" s="4">
-        <v>1</v>
+        <v>1.9</v>
       </c>
       <c r="F35" s="4"/>
       <c r="G35" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="H35" s="10"/>
-    </row>
-    <row r="36" spans="2:8">
+      <c r="H35" s="13"/>
+    </row>
+    <row r="36" spans="2:8" ht="45">
       <c r="B36" s="4" t="s">
         <v>92</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E36" s="4">
-        <v>1.9</v>
+        <v>0.1</v>
       </c>
       <c r="F36" s="4"/>
       <c r="G36" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="H36" s="10"/>
-    </row>
-    <row r="37" spans="2:8" ht="45">
+      <c r="H36" s="13"/>
+    </row>
+    <row r="37" spans="2:8" ht="30">
       <c r="B37" s="4" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="E37" s="4">
-        <v>0.1</v>
+        <v>0.98</v>
       </c>
       <c r="F37" s="4"/>
       <c r="G37" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="H37" s="10"/>
+      <c r="H37" s="13"/>
     </row>
     <row r="38" spans="2:8" ht="30">
       <c r="B38" s="4" t="s">
         <v>83</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E38" s="4">
-        <v>0.98</v>
+        <v>0.4</v>
       </c>
       <c r="F38" s="4"/>
       <c r="G38" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="H38" s="10"/>
+      <c r="H38" s="13"/>
     </row>
     <row r="39" spans="2:8" ht="30">
       <c r="B39" s="4" t="s">
         <v>83</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E39" s="4">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="F39" s="4"/>
       <c r="G39" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="H39" s="10"/>
-    </row>
-    <row r="40" spans="2:8" ht="30">
+      <c r="H39" s="14" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="40" spans="2:8" ht="45">
       <c r="B40" s="4" t="s">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="E40" s="4">
-        <v>0</v>
-      </c>
-      <c r="F40" s="4"/>
+        <v>1</v>
+      </c>
+      <c r="F40" s="4" t="s">
+        <v>9</v>
+      </c>
       <c r="G40" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="H40" s="11" t="s">
-        <v>90</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="H40" s="13"/>
     </row>
     <row r="41" spans="2:8" ht="45">
       <c r="B41" s="4" t="s">
         <v>94</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="E41" s="4">
-        <v>1</v>
-      </c>
-      <c r="F41" s="4" t="s">
-        <v>9</v>
-      </c>
+        <v>0.1</v>
+      </c>
+      <c r="F41" s="4"/>
       <c r="G41" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="H41" s="10"/>
-    </row>
-    <row r="42" spans="2:8" ht="45">
+        <v>23</v>
+      </c>
+      <c r="H41" s="13"/>
+    </row>
+    <row r="42" spans="2:8" ht="30">
       <c r="B42" s="4" t="s">
         <v>94</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E42" s="4">
         <v>0.1</v>
       </c>
       <c r="F42" s="4"/>
       <c r="G42" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="H42" s="10"/>
+        <v>102</v>
+      </c>
+      <c r="H42" s="13"/>
     </row>
     <row r="43" spans="2:8" ht="30">
       <c r="B43" s="4" t="s">
         <v>94</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="E43" s="4">
         <v>0.1</v>
@@ -1966,128 +2014,109 @@
       <c r="G43" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="H43" s="12"/>
+      <c r="H43" s="13"/>
     </row>
     <row r="44" spans="2:8" ht="30">
       <c r="B44" s="4" t="s">
         <v>94</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E44" s="4">
-        <v>0.1</v>
+        <v>12</v>
       </c>
       <c r="F44" s="4"/>
       <c r="G44" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="H44" s="12"/>
+      <c r="H44" s="13"/>
     </row>
     <row r="45" spans="2:8" ht="30">
       <c r="B45" s="4" t="s">
         <v>94</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E45" s="4">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="F45" s="4"/>
       <c r="G45" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="H45" s="12"/>
-    </row>
-    <row r="46" spans="2:8" ht="30">
-      <c r="B46" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="C46" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="D46" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="E46" s="4">
-        <v>0</v>
-      </c>
-      <c r="F46" s="4"/>
-      <c r="G46" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="H46" s="12"/>
+      <c r="H45" s="13"/>
+    </row>
+    <row r="46" spans="2:8">
+      <c r="H46" s="15"/>
     </row>
     <row r="47" spans="2:8">
-      <c r="H47" s="13"/>
+      <c r="H47" s="15"/>
     </row>
     <row r="48" spans="2:8">
-      <c r="H48" s="13"/>
+      <c r="H48" s="15"/>
     </row>
     <row r="49" spans="8:8">
-      <c r="H49" s="13"/>
+      <c r="H49" s="9"/>
     </row>
     <row r="50" spans="8:8">
-      <c r="H50" s="13"/>
+      <c r="H50" s="9"/>
     </row>
     <row r="51" spans="8:8">
-      <c r="H51" s="13"/>
+      <c r="H51" s="9"/>
     </row>
     <row r="52" spans="8:8">
-      <c r="H52" s="13"/>
+      <c r="H52" s="9"/>
     </row>
     <row r="53" spans="8:8">
-      <c r="H53" s="13"/>
+      <c r="H53" s="9"/>
     </row>
     <row r="54" spans="8:8">
-      <c r="H54" s="13"/>
+      <c r="H54" s="9"/>
     </row>
     <row r="55" spans="8:8">
-      <c r="H55" s="13"/>
+      <c r="H55" s="9"/>
     </row>
     <row r="56" spans="8:8">
-      <c r="H56" s="13"/>
+      <c r="H56" s="9"/>
     </row>
     <row r="57" spans="8:8">
-      <c r="H57" s="13"/>
+      <c r="H57" s="9"/>
     </row>
     <row r="58" spans="8:8">
-      <c r="H58" s="13"/>
+      <c r="H58" s="9"/>
     </row>
     <row r="59" spans="8:8">
-      <c r="H59" s="13"/>
+      <c r="H59" s="9"/>
     </row>
     <row r="60" spans="8:8">
-      <c r="H60" s="13"/>
+      <c r="H60" s="9"/>
     </row>
     <row r="61" spans="8:8">
-      <c r="H61" s="13"/>
+      <c r="H61" s="9"/>
     </row>
     <row r="62" spans="8:8">
-      <c r="H62" s="13"/>
+      <c r="H62" s="9"/>
     </row>
     <row r="63" spans="8:8">
-      <c r="H63" s="13"/>
-    </row>
-    <row r="64" spans="8:8">
-      <c r="H64" s="13"/>
+      <c r="H63" s="9"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="G4:G58">
-    <cfRule type="expression" dxfId="2" priority="2">
-      <formula>G4="Arbitrary"</formula>
+  <conditionalFormatting sqref="G2:G57">
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>G2="Arbitrary"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G14">
-    <cfRule type="expression" dxfId="1" priority="1">
-      <formula>G14="Arbitrary"</formula>
+  <conditionalFormatting sqref="G12:G13">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>G12="Arbitrary"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/param-model/_all_param_value_source.xlsx
+++ b/param-model/_all_param_value_source.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27629"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
+    <workbookView xWindow="-20" yWindow="-440" windowWidth="28820" windowHeight="18000" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="126">
   <si>
     <t>PARAMETER</t>
   </si>
@@ -163,9 +163,6 @@
   </si>
   <si>
     <t>Age when Frailty index change conexity</t>
-  </si>
-  <si>
-    <t>Frailty index value when change conexity</t>
   </si>
   <si>
     <t>frailty_sd</t>
@@ -392,6 +389,20 @@
   </si>
   <si>
     <t>estimates from outbreak investigations: 4-28%</t>
+  </si>
+  <si>
+    <t>Stehlé J, Voirin N, Barrat A, et al. High-Resolution Measurements of Face-to-Face Contact Patterns in a Primary School. PLoS ONE 2011; 6: e23176.
+Génois M, Vestergaard CL, Fournet J, Panisson A, Bonmarin I, Barrat A. Data on face-to-face contacts in an office building suggest a low-cost vaccination strategy based on community linkers. Network Science 2015; 3: 326–47.</t>
+  </si>
+  <si>
+    <t>Fournet J, Barrat A. Contact Patterns among High School Students. PLoS ONE 2014; 9: e107878.
+Génois M, Vestergaard CL, Fournet J, Panisson A, Bonmarin I, Barrat A. Data on face-to-face contacts in an office building suggest a low-cost vaccination strategy based on community linkers. Network Science 2015; 3: 326–47.</t>
+  </si>
+  <si>
+    <t>Frailty index value when change convexity</t>
+  </si>
+  <si>
+    <t>scenario-based</t>
   </si>
 </sst>
 </file>
@@ -464,7 +475,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -474,6 +485,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -498,7 +515,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="115">
+  <cellStyleXfs count="117">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -614,8 +631,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -662,8 +681,11 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="115">
+  <cellStyles count="117">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -721,6 +743,7 @@
     <cellStyle name="Followed Hyperlink" xfId="110" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="112" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="114" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="116" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -778,9 +801,20 @@
     <cellStyle name="Hyperlink" xfId="109" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="111" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="113" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="115" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="3">
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C6500"/>
@@ -1131,8 +1165,8 @@
   <dimension ref="B1:H63"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="145" zoomScaleNormal="145" zoomScalePageLayoutView="145" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D3" sqref="D3"/>
+      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1206,10 +1240,10 @@
         <v>9</v>
       </c>
       <c r="G3" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="H3" s="12" t="s">
         <v>114</v>
-      </c>
-      <c r="H3" s="12" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="4" spans="2:8" ht="66">
@@ -1229,7 +1263,7 @@
         <v>10</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H4" s="12"/>
     </row>
@@ -1250,10 +1284,10 @@
         <v>9</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H5" s="12" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="6" spans="2:8" ht="66">
@@ -1273,7 +1307,7 @@
         <v>10</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H6" s="12"/>
     </row>
@@ -1351,10 +1385,10 @@
         <v>9</v>
       </c>
       <c r="G10" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="H10" s="13" t="s">
         <v>111</v>
-      </c>
-      <c r="H10" s="13" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="11" spans="2:8" ht="22">
@@ -1374,7 +1408,7 @@
         <v>10</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H11" s="13"/>
     </row>
@@ -1383,17 +1417,17 @@
         <v>12</v>
       </c>
       <c r="C12" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="D12" s="5" t="s">
         <v>109</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>110</v>
       </c>
       <c r="E12" s="4" t="s">
         <v>20</v>
       </c>
       <c r="F12" s="4"/>
       <c r="G12" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H12" s="13"/>
     </row>
@@ -1402,20 +1436,20 @@
         <v>12</v>
       </c>
       <c r="C13" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="D13" s="5" t="s">
         <v>119</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>120</v>
       </c>
       <c r="E13" s="4" t="s">
         <v>26</v>
       </c>
       <c r="F13" s="4"/>
       <c r="G13" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="H13" s="13" t="s">
         <v>121</v>
-      </c>
-      <c r="H13" s="13" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="14" spans="2:8" ht="66">
@@ -1423,20 +1457,20 @@
         <v>12</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E14" s="4">
         <v>0.1</v>
       </c>
       <c r="F14" s="4"/>
       <c r="G14" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="H14" s="12" t="s">
         <v>117</v>
-      </c>
-      <c r="H14" s="12" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="15" spans="2:8" ht="22">
@@ -1514,7 +1548,7 @@
         <v>30</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G18" s="6" t="s">
         <v>23</v>
@@ -1537,7 +1571,7 @@
         <v>60</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G19" s="6" t="s">
         <v>23</v>
@@ -1554,7 +1588,7 @@
         <v>46</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>48</v>
+        <v>124</v>
       </c>
       <c r="E20" s="4">
         <v>0.43</v>
@@ -1572,10 +1606,10 @@
         <v>34</v>
       </c>
       <c r="C21" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D21" s="5" t="s">
         <v>49</v>
-      </c>
-      <c r="D21" s="5" t="s">
-        <v>50</v>
       </c>
       <c r="E21" s="4">
         <v>0.1</v>
@@ -1591,17 +1625,17 @@
         <v>34</v>
       </c>
       <c r="C22" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D22" s="5" t="s">
         <v>51</v>
-      </c>
-      <c r="D22" s="5" t="s">
-        <v>52</v>
       </c>
       <c r="E22" s="4">
         <v>0.2</v>
       </c>
       <c r="F22" s="4"/>
       <c r="G22" s="6" t="s">
-        <v>23</v>
+        <v>125</v>
       </c>
       <c r="H22" s="13"/>
     </row>
@@ -1610,16 +1644,16 @@
         <v>34</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E23" s="4">
         <v>120</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G23" s="6" t="s">
         <v>23</v>
@@ -1631,10 +1665,10 @@
         <v>34</v>
       </c>
       <c r="C24" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D24" s="5" t="s">
         <v>55</v>
-      </c>
-      <c r="D24" s="5" t="s">
-        <v>56</v>
       </c>
       <c r="E24" s="4">
         <v>2</v>
@@ -1650,17 +1684,17 @@
         <v>34</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E25" s="4">
         <v>0.4</v>
       </c>
       <c r="F25" s="4"/>
       <c r="G25" s="6" t="s">
-        <v>23</v>
+        <v>125</v>
       </c>
       <c r="H25" s="13"/>
     </row>
@@ -1669,10 +1703,10 @@
         <v>34</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E26" s="4">
         <v>2</v>
@@ -1688,16 +1722,16 @@
         <v>34</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E27" s="4">
         <v>20</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G27" s="6" t="s">
         <v>23</v>
@@ -1706,96 +1740,96 @@
     </row>
     <row r="28" spans="2:8">
       <c r="B28" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C28" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D28" s="5" t="s">
         <v>63</v>
-      </c>
-      <c r="D28" s="5" t="s">
-        <v>64</v>
       </c>
       <c r="E28" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="F28" s="4" t="s">
-        <v>65</v>
+      <c r="F28" s="16" t="s">
+        <v>64</v>
       </c>
       <c r="G28" s="6"/>
       <c r="H28" s="13" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="29" spans="2:8">
       <c r="B29" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C29" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="D29" s="5" t="s">
         <v>66</v>
-      </c>
-      <c r="D29" s="5" t="s">
-        <v>67</v>
       </c>
       <c r="E29" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="F29" s="4" t="s">
-        <v>65</v>
+      <c r="F29" s="16" t="s">
+        <v>64</v>
       </c>
       <c r="G29" s="6"/>
       <c r="H29" s="13" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="30" spans="2:8" ht="77">
+      <c r="B30" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="C30" s="4" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="30" spans="2:8" ht="30">
-      <c r="B30" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="C30" s="4" t="s">
+      <c r="D30" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="D30" s="5" t="s">
-        <v>70</v>
-      </c>
       <c r="E30" s="4">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="F30" s="4"/>
       <c r="G30" s="6" t="s">
-        <v>23</v>
+        <v>122</v>
       </c>
       <c r="H30" s="13"/>
     </row>
-    <row r="31" spans="2:8" ht="30">
+    <row r="31" spans="2:8" ht="66">
       <c r="B31" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C31" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="D31" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="D31" s="5" t="s">
-        <v>72</v>
-      </c>
       <c r="E31" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F31" s="4"/>
       <c r="G31" s="6" t="s">
-        <v>23</v>
+        <v>123</v>
       </c>
       <c r="H31" s="13"/>
     </row>
     <row r="32" spans="2:8" ht="30">
       <c r="B32" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C32" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="D32" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="D32" s="5" t="s">
-        <v>74</v>
-      </c>
       <c r="E32" s="4">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="F32" s="4"/>
       <c r="G32" s="6" t="s">
@@ -1805,13 +1839,13 @@
     </row>
     <row r="33" spans="2:8" ht="30">
       <c r="B33" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C33" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="D33" s="5" t="s">
         <v>75</v>
-      </c>
-      <c r="D33" s="5" t="s">
-        <v>76</v>
       </c>
       <c r="E33" s="4">
         <v>1.75</v>
@@ -1824,13 +1858,13 @@
     </row>
     <row r="34" spans="2:8" ht="30">
       <c r="B34" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C34" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="D34" s="5" t="s">
         <v>77</v>
-      </c>
-      <c r="D34" s="5" t="s">
-        <v>78</v>
       </c>
       <c r="E34" s="4">
         <v>1</v>
@@ -1843,16 +1877,16 @@
     </row>
     <row r="35" spans="2:8">
       <c r="B35" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C35" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="D35" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="D35" s="5" t="s">
-        <v>80</v>
-      </c>
       <c r="E35" s="4">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="F35" s="4"/>
       <c r="G35" s="6" t="s">
@@ -1862,13 +1896,13 @@
     </row>
     <row r="36" spans="2:8" ht="45">
       <c r="B36" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C36" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="D36" s="5" t="s">
         <v>81</v>
-      </c>
-      <c r="D36" s="5" t="s">
-        <v>82</v>
       </c>
       <c r="E36" s="4">
         <v>0.1</v>
@@ -1881,13 +1915,13 @@
     </row>
     <row r="37" spans="2:8" ht="30">
       <c r="B37" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C37" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="C37" s="4" t="s">
+      <c r="D37" s="5" t="s">
         <v>84</v>
-      </c>
-      <c r="D37" s="5" t="s">
-        <v>85</v>
       </c>
       <c r="E37" s="4">
         <v>0.98</v>
@@ -1900,13 +1934,13 @@
     </row>
     <row r="38" spans="2:8" ht="30">
       <c r="B38" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C38" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="D38" s="5" t="s">
         <v>86</v>
-      </c>
-      <c r="D38" s="5" t="s">
-        <v>87</v>
       </c>
       <c r="E38" s="4">
         <v>0.4</v>
@@ -1919,13 +1953,13 @@
     </row>
     <row r="39" spans="2:8" ht="30">
       <c r="B39" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C39" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="D39" s="5" t="s">
         <v>88</v>
-      </c>
-      <c r="D39" s="5" t="s">
-        <v>89</v>
       </c>
       <c r="E39" s="4">
         <v>0</v>
@@ -1935,18 +1969,18 @@
         <v>23</v>
       </c>
       <c r="H39" s="14" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="40" spans="2:8" ht="45">
       <c r="B40" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="C40" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="C40" s="4" t="s">
+      <c r="D40" s="5" t="s">
         <v>95</v>
-      </c>
-      <c r="D40" s="5" t="s">
-        <v>96</v>
       </c>
       <c r="E40" s="4">
         <v>1</v>
@@ -1955,19 +1989,19 @@
         <v>9</v>
       </c>
       <c r="G40" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H40" s="13"/>
     </row>
     <row r="41" spans="2:8" ht="45">
       <c r="B41" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C41" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="D41" s="5" t="s">
         <v>98</v>
-      </c>
-      <c r="D41" s="5" t="s">
-        <v>99</v>
       </c>
       <c r="E41" s="4">
         <v>0.1</v>
@@ -1980,77 +2014,77 @@
     </row>
     <row r="42" spans="2:8" ht="30">
       <c r="B42" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C42" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="D42" s="5" t="s">
         <v>100</v>
-      </c>
-      <c r="D42" s="5" t="s">
-        <v>101</v>
       </c>
       <c r="E42" s="4">
         <v>0.1</v>
       </c>
       <c r="F42" s="4"/>
       <c r="G42" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H42" s="13"/>
     </row>
     <row r="43" spans="2:8" ht="30">
       <c r="B43" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E43" s="4">
         <v>0.1</v>
       </c>
       <c r="F43" s="4"/>
       <c r="G43" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H43" s="13"/>
     </row>
     <row r="44" spans="2:8" ht="30">
       <c r="B44" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E44" s="4">
         <v>12</v>
       </c>
       <c r="F44" s="4"/>
       <c r="G44" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H44" s="13"/>
     </row>
     <row r="45" spans="2:8" ht="30">
       <c r="B45" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E45" s="4">
         <v>0</v>
       </c>
       <c r="F45" s="4"/>
       <c r="G45" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H45" s="13"/>
     </row>
@@ -2110,12 +2144,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="G2:G57">
-    <cfRule type="expression" dxfId="1" priority="2">
+    <cfRule type="expression" dxfId="2" priority="2">
       <formula>G2="Arbitrary"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G12:G13">
-    <cfRule type="expression" dxfId="0" priority="1">
+    <cfRule type="expression" dxfId="1" priority="1">
       <formula>G12="Arbitrary"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/param-model/_all_param_value_source.xlsx
+++ b/param-model/_all_param_value_source.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27629"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-20" yWindow="-440" windowWidth="28820" windowHeight="18000" tabRatio="500"/>
+    <workbookView xWindow="-20" yWindow="-440" windowWidth="28020" windowHeight="28460" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -804,17 +804,7 @@
     <cellStyle name="Hyperlink" xfId="115" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <font>
         <color rgb="FF9C6500"/>
@@ -1165,8 +1155,8 @@
   <dimension ref="B1:H63"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="145" zoomScaleNormal="145" zoomScalePageLayoutView="145" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E32" sqref="E32"/>
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E40" sqref="E40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1848,7 +1838,7 @@
         <v>75</v>
       </c>
       <c r="E33" s="4">
-        <v>1.75</v>
+        <v>1</v>
       </c>
       <c r="F33" s="4"/>
       <c r="G33" s="6" t="s">
@@ -1886,7 +1876,7 @@
         <v>79</v>
       </c>
       <c r="E35" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F35" s="4"/>
       <c r="G35" s="6" t="s">
@@ -1962,7 +1952,7 @@
         <v>88</v>
       </c>
       <c r="E39" s="4">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="F39" s="4"/>
       <c r="G39" s="6" t="s">
@@ -2144,12 +2134,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="G2:G57">
-    <cfRule type="expression" dxfId="2" priority="2">
+    <cfRule type="expression" dxfId="1" priority="2">
       <formula>G2="Arbitrary"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G12:G13">
-    <cfRule type="expression" dxfId="1" priority="1">
+    <cfRule type="expression" dxfId="0" priority="1">
       <formula>G12="Arbitrary"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/param-model/_all_param_value_source.xlsx
+++ b/param-model/_all_param_value_source.xlsx
@@ -288,9 +288,6 @@
     <t>Probability to change 'other' social place during a time slice.</t>
   </si>
   <si>
-    <t>CHANGE AND TEST WHEN &gt;0</t>
-  </si>
-  <si>
     <t>asymptom_infectiousness_ratio</t>
   </si>
   <si>
@@ -403,6 +400,9 @@
   </si>
   <si>
     <t>scenario-based</t>
+  </si>
+  <si>
+    <t>Inspired by Jefferson et al 2014</t>
   </si>
 </sst>
 </file>
@@ -1154,9 +1154,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:H63"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="145" zoomScaleNormal="145" zoomScalePageLayoutView="145" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E40" sqref="E40"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="145" zoomScaleNormal="145" zoomScalePageLayoutView="145" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H42" sqref="H42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1230,10 +1230,10 @@
         <v>9</v>
       </c>
       <c r="G3" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="H3" s="12" t="s">
         <v>113</v>
-      </c>
-      <c r="H3" s="12" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="4" spans="2:8" ht="66">
@@ -1253,7 +1253,7 @@
         <v>10</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H4" s="12"/>
     </row>
@@ -1274,10 +1274,10 @@
         <v>9</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H5" s="12" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="6" spans="2:8" ht="66">
@@ -1297,7 +1297,7 @@
         <v>10</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H6" s="12"/>
     </row>
@@ -1375,10 +1375,10 @@
         <v>9</v>
       </c>
       <c r="G10" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="H10" s="13" t="s">
         <v>110</v>
-      </c>
-      <c r="H10" s="13" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="11" spans="2:8" ht="22">
@@ -1398,7 +1398,7 @@
         <v>10</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H11" s="13"/>
     </row>
@@ -1407,17 +1407,17 @@
         <v>12</v>
       </c>
       <c r="C12" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="D12" s="5" t="s">
         <v>108</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>109</v>
       </c>
       <c r="E12" s="4" t="s">
         <v>20</v>
       </c>
       <c r="F12" s="4"/>
       <c r="G12" s="6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H12" s="13"/>
     </row>
@@ -1426,20 +1426,20 @@
         <v>12</v>
       </c>
       <c r="C13" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="D13" s="5" t="s">
         <v>118</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>119</v>
       </c>
       <c r="E13" s="4" t="s">
         <v>26</v>
       </c>
       <c r="F13" s="4"/>
       <c r="G13" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="H13" s="13" t="s">
         <v>120</v>
-      </c>
-      <c r="H13" s="13" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="14" spans="2:8" ht="66">
@@ -1447,20 +1447,20 @@
         <v>12</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E14" s="4">
         <v>0.1</v>
       </c>
       <c r="F14" s="4"/>
       <c r="G14" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="H14" s="12" t="s">
         <v>116</v>
-      </c>
-      <c r="H14" s="12" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="15" spans="2:8" ht="22">
@@ -1578,7 +1578,7 @@
         <v>46</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E20" s="4">
         <v>0.43</v>
@@ -1625,7 +1625,7 @@
       </c>
       <c r="F22" s="4"/>
       <c r="G22" s="6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H22" s="13"/>
     </row>
@@ -1684,7 +1684,7 @@
       </c>
       <c r="F25" s="4"/>
       <c r="G25" s="6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H25" s="13"/>
     </row>
@@ -1730,7 +1730,7 @@
     </row>
     <row r="28" spans="2:8">
       <c r="B28" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>62</v>
@@ -1751,7 +1751,7 @@
     </row>
     <row r="29" spans="2:8">
       <c r="B29" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>65</v>
@@ -1772,7 +1772,7 @@
     </row>
     <row r="30" spans="2:8" ht="77">
       <c r="B30" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>68</v>
@@ -1785,13 +1785,13 @@
       </c>
       <c r="F30" s="4"/>
       <c r="G30" s="6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H30" s="13"/>
     </row>
     <row r="31" spans="2:8" ht="66">
       <c r="B31" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>70</v>
@@ -1804,13 +1804,13 @@
       </c>
       <c r="F31" s="4"/>
       <c r="G31" s="6" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H31" s="13"/>
     </row>
     <row r="32" spans="2:8" ht="30">
       <c r="B32" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C32" s="4" t="s">
         <v>72</v>
@@ -1829,7 +1829,7 @@
     </row>
     <row r="33" spans="2:8" ht="30">
       <c r="B33" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C33" s="4" t="s">
         <v>74</v>
@@ -1848,7 +1848,7 @@
     </row>
     <row r="34" spans="2:8" ht="30">
       <c r="B34" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C34" s="4" t="s">
         <v>76</v>
@@ -1867,7 +1867,7 @@
     </row>
     <row r="35" spans="2:8">
       <c r="B35" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C35" s="4" t="s">
         <v>78</v>
@@ -1886,7 +1886,7 @@
     </row>
     <row r="36" spans="2:8" ht="45">
       <c r="B36" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C36" s="4" t="s">
         <v>80</v>
@@ -1958,19 +1958,17 @@
       <c r="G39" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="H39" s="14" t="s">
-        <v>89</v>
-      </c>
+      <c r="H39" s="14"/>
     </row>
     <row r="40" spans="2:8" ht="45">
       <c r="B40" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="C40" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="C40" s="4" t="s">
+      <c r="D40" s="5" t="s">
         <v>94</v>
-      </c>
-      <c r="D40" s="5" t="s">
-        <v>95</v>
       </c>
       <c r="E40" s="4">
         <v>1</v>
@@ -1979,19 +1977,19 @@
         <v>9</v>
       </c>
       <c r="G40" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H40" s="13"/>
     </row>
     <row r="41" spans="2:8" ht="45">
       <c r="B41" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C41" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="D41" s="5" t="s">
         <v>97</v>
-      </c>
-      <c r="D41" s="5" t="s">
-        <v>98</v>
       </c>
       <c r="E41" s="4">
         <v>0.1</v>
@@ -2000,81 +1998,83 @@
       <c r="G41" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="H41" s="13"/>
+      <c r="H41" s="13" t="s">
+        <v>125</v>
+      </c>
     </row>
     <row r="42" spans="2:8" ht="30">
       <c r="B42" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C42" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="D42" s="5" t="s">
         <v>99</v>
-      </c>
-      <c r="D42" s="5" t="s">
-        <v>100</v>
       </c>
       <c r="E42" s="4">
         <v>0.1</v>
       </c>
       <c r="F42" s="4"/>
       <c r="G42" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H42" s="13"/>
     </row>
     <row r="43" spans="2:8" ht="30">
       <c r="B43" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E43" s="4">
         <v>0.1</v>
       </c>
       <c r="F43" s="4"/>
       <c r="G43" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H43" s="13"/>
     </row>
     <row r="44" spans="2:8" ht="30">
       <c r="B44" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E44" s="4">
         <v>12</v>
       </c>
       <c r="F44" s="4"/>
       <c r="G44" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H44" s="13"/>
     </row>
     <row r="45" spans="2:8" ht="30">
       <c r="B45" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E45" s="4">
         <v>0</v>
       </c>
       <c r="F45" s="4"/>
       <c r="G45" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H45" s="13"/>
     </row>

--- a/param-model/_all_param_value_source.xlsx
+++ b/param-model/_all_param_value_source.xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27629"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-20" yWindow="-440" windowWidth="28020" windowHeight="28460" tabRatio="500"/>
+    <workbookView xWindow="16860" yWindow="2160" windowWidth="24840" windowHeight="21940" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="SUMMARY" sheetId="1" r:id="rId1"/>
+    <sheet name="other-papers" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="141">
   <si>
     <t>PARAMETER</t>
   </si>
@@ -403,12 +404,62 @@
   </si>
   <si>
     <t>Inspired by Jefferson et al 2014</t>
+  </si>
+  <si>
+    <t>Hospitalization prop</t>
+  </si>
+  <si>
+    <t>Case fatality ratio</t>
+  </si>
+  <si>
+    <t>Vax coverage</t>
+  </si>
+  <si>
+    <t>Vax effectiveness</t>
+  </si>
+  <si>
+    <t>Biggerstaff 2015</t>
+  </si>
+  <si>
+    <t>Low</t>
+  </si>
+  <si>
+    <t>High</t>
+  </si>
+  <si>
+    <t>comment</t>
+  </si>
+  <si>
+    <t>Vax start (days)</t>
+  </si>
+  <si>
+    <t>Vax admin rate (10^6/week)</t>
+  </si>
+  <si>
+    <t>Greer 2015</t>
+  </si>
+  <si>
+    <t>Final size prop</t>
+  </si>
+  <si>
+    <t>for &gt; 60 yrs-old: 0.43 - 0.60
+for &lt;60yrs: 0.62-0.80</t>
+  </si>
+  <si>
+    <t>for &gt;65 yrs-old: 0.3
+for &lt;65yrs: 0.7</t>
+  </si>
+  <si>
+    <t>age dependent</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="0.0000"/>
+  </numFmts>
   <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -515,7 +566,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="117">
+  <cellStyleXfs count="127">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -633,8 +684,18 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -684,8 +745,20 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="117">
+  <cellStyles count="127">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -744,6 +817,11 @@
     <cellStyle name="Followed Hyperlink" xfId="112" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="114" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="116" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="118" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="120" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="122" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="124" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="126" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -802,6 +880,11 @@
     <cellStyle name="Hyperlink" xfId="111" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="113" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="115" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="117" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="119" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="121" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="123" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="125" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="2">
@@ -1154,8 +1237,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:H63"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="145" zoomScaleNormal="145" zoomScalePageLayoutView="145" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
+    <sheetView showGridLines="0" zoomScale="145" zoomScaleNormal="145" zoomScalePageLayoutView="145" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="H42" sqref="H42"/>
     </sheetView>
   </sheetViews>
@@ -2151,4 +2234,249 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A3:E17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" zoomScalePageLayoutView="205" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="14.5" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.33203125" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="10.83203125" style="19"/>
+    <col min="5" max="5" width="32" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:5" s="17" customFormat="1">
+      <c r="A3" s="19"/>
+      <c r="B3" s="19"/>
+      <c r="C3" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="D3" s="19" t="s">
+        <v>132</v>
+      </c>
+      <c r="E3" s="17" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="C4" s="20">
+        <v>0.2</v>
+      </c>
+      <c r="D4" s="20">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="C5" s="20">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="D5" s="20">
+        <v>4.2000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="C6" s="20">
+        <v>8.0000000000000004E-4</v>
+      </c>
+      <c r="D6" s="20">
+        <v>5.3E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="C7" s="20">
+        <v>0.8</v>
+      </c>
+      <c r="D7" s="20">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="C8" s="20">
+        <v>10</v>
+      </c>
+      <c r="D8" s="20">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="30">
+      <c r="A9" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="C9" s="20">
+        <v>0.43</v>
+      </c>
+      <c r="D9" s="20">
+        <v>0.8</v>
+      </c>
+      <c r="E9" s="18" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="C10" s="19">
+        <v>-112</v>
+      </c>
+      <c r="D10" s="19">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="C11" s="20">
+        <v>0.2</v>
+      </c>
+      <c r="D11" s="20">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="C12" s="20">
+        <v>0.01</v>
+      </c>
+      <c r="D12" s="20">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="C13" s="20">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="D13" s="20">
+        <v>4.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="C14" s="20">
+        <v>0.26</v>
+      </c>
+      <c r="D14" s="20">
+        <v>0.75</v>
+      </c>
+      <c r="E14" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="C15" s="20">
+        <v>0.15</v>
+      </c>
+      <c r="D15" s="20">
+        <v>3.75</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="30">
+      <c r="A16" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="C16" s="20">
+        <v>0.3</v>
+      </c>
+      <c r="D16" s="20">
+        <v>0.7</v>
+      </c>
+      <c r="E16" s="18" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="C17" s="19">
+        <v>30</v>
+      </c>
+      <c r="D17" s="19">
+        <v>90</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>
--- a/param-model/_all_param_value_source.xlsx
+++ b/param-model/_all_param_value_source.xlsx
@@ -2,15 +2,18 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27629"/>
-  <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <workbookPr showInkAnnotation="0" hidePivotFieldList="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="16860" yWindow="2160" windowWidth="24840" windowHeight="21940" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="6060" yWindow="3660" windowWidth="37600" windowHeight="23180" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="SUMMARY" sheetId="1" r:id="rId1"/>
     <sheet name="other-papers" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
+  <pivotCaches>
+    <pivotCache cacheId="7" r:id="rId3"/>
+  </pivotCaches>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -20,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="147">
   <si>
     <t>PARAMETER</t>
   </si>
@@ -451,6 +454,24 @@
   </si>
   <si>
     <t>age dependent</t>
+  </si>
+  <si>
+    <t>paper</t>
+  </si>
+  <si>
+    <t>variable</t>
+  </si>
+  <si>
+    <t>Column Labels</t>
+  </si>
+  <si>
+    <t>Row Labels</t>
+  </si>
+  <si>
+    <t>Average of Low</t>
+  </si>
+  <si>
+    <t>Average of High</t>
   </si>
 </sst>
 </file>
@@ -695,7 +716,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -746,6 +767,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -757,6 +781,8 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="127">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -911,6 +937,261 @@
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
 </styleSheet>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="David Champredon" refreshedDate="42713.482269560183" createdVersion="4" refreshedVersion="4" minRefreshableVersion="3" recordCount="17">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="A1:E1048576" sheet="other-papers"/>
+  </cacheSource>
+  <cacheFields count="5">
+    <cacheField name="paper" numFmtId="0">
+      <sharedItems containsBlank="1" count="3">
+        <s v="Biggerstaff 2015"/>
+        <s v="Greer 2015"/>
+        <m/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="variable" numFmtId="0">
+      <sharedItems containsBlank="1" count="8">
+        <s v="Final size prop"/>
+        <s v="Hospitalization prop"/>
+        <s v="Case fatality ratio"/>
+        <s v="Vax coverage"/>
+        <s v="Vax admin rate (10^6/week)"/>
+        <s v="Vax effectiveness"/>
+        <s v="Vax start (days)"/>
+        <m/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Low" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="-112" maxValue="30"/>
+    </cacheField>
+    <cacheField name="High" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="4.0000000000000001E-3" maxValue="112"/>
+    </cacheField>
+    <cacheField name="comment" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="17">
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="0.2"/>
+    <n v="0.3"/>
+    <m/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="5.0000000000000001E-3"/>
+    <n v="4.2000000000000003E-2"/>
+    <m/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="8.0000000000000004E-4"/>
+    <n v="5.3E-3"/>
+    <m/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="3"/>
+    <n v="0.8"/>
+    <n v="0.8"/>
+    <m/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+    <n v="10"/>
+    <n v="30"/>
+    <m/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="5"/>
+    <n v="0.43"/>
+    <n v="0.8"/>
+    <s v="for &gt; 60 yrs-old: 0.43 - 0.60_x000d_for &lt;60yrs: 0.62-0.80"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="6"/>
+    <n v="-112"/>
+    <n v="112"/>
+    <m/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="0.2"/>
+    <n v="0.5"/>
+    <m/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="0.01"/>
+    <n v="0.01"/>
+    <m/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="2"/>
+    <n v="4.0000000000000001E-3"/>
+    <n v="4.0000000000000001E-3"/>
+    <m/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="3"/>
+    <n v="0.26"/>
+    <n v="0.75"/>
+    <s v="age dependent"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="4"/>
+    <n v="0.15"/>
+    <n v="3.75"/>
+    <m/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="5"/>
+    <n v="0.3"/>
+    <n v="0.7"/>
+    <s v="for &gt;65 yrs-old: 0.3_x000d_for &lt;65yrs: 0.7"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="6"/>
+    <n v="30"/>
+    <n v="90"/>
+    <m/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="7"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="7"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="7"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="7" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" gridDropZones="1" multipleFieldFilters="0">
+  <location ref="H8:L17" firstHeaderRow="1" firstDataRow="3" firstDataCol="1"/>
+  <pivotFields count="5">
+    <pivotField axis="axisCol" showAll="0">
+      <items count="4">
+        <item x="0"/>
+        <item x="1"/>
+        <item h="1" x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="9">
+        <item x="2"/>
+        <item x="0"/>
+        <item x="1"/>
+        <item x="4"/>
+        <item x="3"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="1"/>
+  </rowFields>
+  <rowItems count="7">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+  </rowItems>
+  <colFields count="2">
+    <field x="0"/>
+    <field x="-2"/>
+  </colFields>
+  <colItems count="4">
+    <i>
+      <x/>
+      <x/>
+    </i>
+    <i r="1" i="1">
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="1"/>
+      <x/>
+    </i>
+    <i r="1" i="1">
+      <x v="1"/>
+    </i>
+  </colItems>
+  <dataFields count="2">
+    <dataField name="Average of Low" fld="2" subtotal="average" baseField="0" baseItem="0"/>
+    <dataField name="Average of High" fld="3" subtotal="average" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleMedium4" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2238,235 +2519,378 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:E17"/>
+  <dimension ref="A1:L17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" zoomScalePageLayoutView="205" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="160" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="14.5" style="10" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="24.33203125" style="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="10.83203125" style="19"/>
+    <col min="3" max="4" width="10.83203125" style="20"/>
     <col min="5" max="5" width="32" customWidth="1"/>
+    <col min="6" max="7" width="1.6640625" customWidth="1"/>
+    <col min="8" max="8" width="24.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.1640625" customWidth="1"/>
+    <col min="11" max="11" width="13.83203125" customWidth="1"/>
+    <col min="12" max="12" width="14.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:5" s="17" customFormat="1">
-      <c r="A3" s="19"/>
-      <c r="B3" s="19"/>
-      <c r="C3" s="19" t="s">
+    <row r="1" spans="1:12" s="18" customFormat="1">
+      <c r="A1" s="20" t="s">
+        <v>141</v>
+      </c>
+      <c r="B1" s="20" t="s">
+        <v>142</v>
+      </c>
+      <c r="C1" s="20" t="s">
         <v>131</v>
       </c>
-      <c r="D3" s="19" t="s">
+      <c r="D1" s="20" t="s">
         <v>132</v>
       </c>
-      <c r="E3" s="17" t="s">
+      <c r="E1" s="18" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="2" spans="1:12">
+      <c r="A2" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="C2" s="21">
+        <v>0.2</v>
+      </c>
+      <c r="D2" s="21">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="C3" s="21">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="D3" s="21">
+        <v>4.2000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4" s="10" t="s">
         <v>130</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>137</v>
-      </c>
-      <c r="C4" s="20">
-        <v>0.2</v>
-      </c>
-      <c r="D4" s="20">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>127</v>
+      </c>
+      <c r="C4" s="21">
+        <v>8.0000000000000004E-4</v>
+      </c>
+      <c r="D4" s="21">
+        <v>5.3E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
       <c r="A5" s="10" t="s">
         <v>130</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>126</v>
-      </c>
-      <c r="C5" s="20">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="D5" s="20">
-        <v>4.2000000000000003E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
+        <v>128</v>
+      </c>
+      <c r="C5" s="21">
+        <v>0.8</v>
+      </c>
+      <c r="D5" s="21">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
       <c r="A6" s="10" t="s">
         <v>130</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>127</v>
-      </c>
-      <c r="C6" s="20">
-        <v>8.0000000000000004E-4</v>
-      </c>
-      <c r="D6" s="20">
-        <v>5.3E-3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>135</v>
+      </c>
+      <c r="C6" s="21">
+        <v>10</v>
+      </c>
+      <c r="D6" s="21">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="30">
       <c r="A7" s="10" t="s">
         <v>130</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>128</v>
-      </c>
-      <c r="C7" s="20">
+        <v>129</v>
+      </c>
+      <c r="C7" s="21">
+        <v>0.43</v>
+      </c>
+      <c r="D7" s="21">
         <v>0.8</v>
       </c>
-      <c r="D7" s="20">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+      <c r="E7" s="19" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
       <c r="A8" s="10" t="s">
         <v>130</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C8" s="20">
-        <v>10</v>
+        <v>-112</v>
       </c>
       <c r="D8" s="20">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="30">
+        <v>112</v>
+      </c>
+      <c r="I8" s="22" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
       <c r="A9" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="C9" s="21">
+        <v>0.2</v>
+      </c>
+      <c r="D9" s="21">
+        <v>0.5</v>
+      </c>
+      <c r="I9" t="s">
         <v>130</v>
       </c>
-      <c r="B9" s="10" t="s">
-        <v>129</v>
-      </c>
-      <c r="C9" s="20">
-        <v>0.43</v>
-      </c>
-      <c r="D9" s="20">
-        <v>0.8</v>
-      </c>
-      <c r="E9" s="18" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+      <c r="K9" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
       <c r="A10" s="10" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>134</v>
-      </c>
-      <c r="C10" s="19">
-        <v>-112</v>
-      </c>
-      <c r="D10" s="19">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>126</v>
+      </c>
+      <c r="C10" s="21">
+        <v>0.01</v>
+      </c>
+      <c r="D10" s="21">
+        <v>0.01</v>
+      </c>
+      <c r="H10" s="22" t="s">
+        <v>144</v>
+      </c>
+      <c r="I10" t="s">
+        <v>145</v>
+      </c>
+      <c r="J10" t="s">
+        <v>146</v>
+      </c>
+      <c r="K10" t="s">
+        <v>145</v>
+      </c>
+      <c r="L10" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
       <c r="A11" s="10" t="s">
         <v>136</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>137</v>
-      </c>
-      <c r="C11" s="20">
-        <v>0.2</v>
-      </c>
-      <c r="D11" s="20">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>127</v>
+      </c>
+      <c r="C11" s="21">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="D11" s="21">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="H11" s="17" t="s">
+        <v>127</v>
+      </c>
+      <c r="I11" s="23">
+        <v>8.0000000000000004E-4</v>
+      </c>
+      <c r="J11" s="23">
+        <v>5.3E-3</v>
+      </c>
+      <c r="K11" s="23">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="L11" s="23">
+        <v>4.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
       <c r="A12" s="10" t="s">
         <v>136</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>126</v>
-      </c>
-      <c r="C12" s="20">
-        <v>0.01</v>
-      </c>
-      <c r="D12" s="20">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>128</v>
+      </c>
+      <c r="C12" s="21">
+        <v>0.26</v>
+      </c>
+      <c r="D12" s="21">
+        <v>0.75</v>
+      </c>
+      <c r="E12" t="s">
+        <v>140</v>
+      </c>
+      <c r="H12" s="17" t="s">
+        <v>137</v>
+      </c>
+      <c r="I12" s="23">
+        <v>0.2</v>
+      </c>
+      <c r="J12" s="23">
+        <v>0.3</v>
+      </c>
+      <c r="K12" s="23">
+        <v>0.2</v>
+      </c>
+      <c r="L12" s="23">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
       <c r="A13" s="10" t="s">
         <v>136</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>127</v>
-      </c>
-      <c r="C13" s="20">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="D13" s="20">
-        <v>4.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>135</v>
+      </c>
+      <c r="C13" s="21">
+        <v>0.15</v>
+      </c>
+      <c r="D13" s="21">
+        <v>3.75</v>
+      </c>
+      <c r="H13" s="17" t="s">
+        <v>126</v>
+      </c>
+      <c r="I13" s="23">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="J13" s="23">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="K13" s="23">
+        <v>0.01</v>
+      </c>
+      <c r="L13" s="23">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="30">
       <c r="A14" s="10" t="s">
         <v>136</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>128</v>
-      </c>
-      <c r="C14" s="20">
-        <v>0.26</v>
-      </c>
-      <c r="D14" s="20">
-        <v>0.75</v>
-      </c>
-      <c r="E14" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+        <v>129</v>
+      </c>
+      <c r="C14" s="21">
+        <v>0.3</v>
+      </c>
+      <c r="D14" s="21">
+        <v>0.7</v>
+      </c>
+      <c r="E14" s="19" t="s">
+        <v>139</v>
+      </c>
+      <c r="H14" s="17" t="s">
+        <v>135</v>
+      </c>
+      <c r="I14" s="23">
+        <v>10</v>
+      </c>
+      <c r="J14" s="23">
+        <v>30</v>
+      </c>
+      <c r="K14" s="23">
+        <v>0.15</v>
+      </c>
+      <c r="L14" s="23">
+        <v>3.75</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
       <c r="A15" s="10" t="s">
         <v>136</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C15" s="20">
-        <v>0.15</v>
+        <v>30</v>
       </c>
       <c r="D15" s="20">
-        <v>3.75</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="30">
-      <c r="A16" s="10" t="s">
-        <v>136</v>
-      </c>
-      <c r="B16" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="H15" s="17" t="s">
+        <v>128</v>
+      </c>
+      <c r="I15" s="23">
+        <v>0.8</v>
+      </c>
+      <c r="J15" s="23">
+        <v>0.8</v>
+      </c>
+      <c r="K15" s="23">
+        <v>0.26</v>
+      </c>
+      <c r="L15" s="23">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="H16" s="17" t="s">
         <v>129</v>
       </c>
-      <c r="C16" s="20">
+      <c r="I16" s="23">
+        <v>0.43</v>
+      </c>
+      <c r="J16" s="23">
+        <v>0.8</v>
+      </c>
+      <c r="K16" s="23">
         <v>0.3</v>
       </c>
-      <c r="D16" s="20">
+      <c r="L16" s="23">
         <v>0.7</v>
       </c>
-      <c r="E16" s="18" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="10" t="s">
-        <v>136</v>
-      </c>
-      <c r="B17" s="10" t="s">
+    </row>
+    <row r="17" spans="8:12">
+      <c r="H17" s="17" t="s">
         <v>134</v>
       </c>
-      <c r="C17" s="19">
+      <c r="I17" s="23">
+        <v>-112</v>
+      </c>
+      <c r="J17" s="23">
+        <v>112</v>
+      </c>
+      <c r="K17" s="23">
         <v>30</v>
       </c>
-      <c r="D17" s="19">
+      <c r="L17" s="23">
         <v>90</v>
       </c>
     </row>

--- a/param-model/_all_param_value_source.xlsx
+++ b/param-model/_all_param_value_source.xlsx
@@ -4,15 +4,16 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27629"/>
   <workbookPr showInkAnnotation="0" hidePivotFieldList="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="6060" yWindow="3660" windowWidth="37600" windowHeight="23180" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="SUMMARY" sheetId="1" r:id="rId1"/>
-    <sheet name="other-papers" sheetId="2" r:id="rId2"/>
+    <sheet name="other-models" sheetId="3" r:id="rId2"/>
+    <sheet name="other-papers-old" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <pivotCaches>
-    <pivotCache cacheId="7" r:id="rId3"/>
+    <pivotCache cacheId="0" r:id="rId4"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -22,8 +23,42 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>David Champredon</author>
+  </authors>
+  <commentList>
+    <comment ref="N1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>David Champredon:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+% of pop / day</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="187">
   <si>
     <t>PARAMETER</t>
   </si>
@@ -370,9 +405,6 @@
     <t>Cori has mean ~ 1.6 days</t>
   </si>
   <si>
-    <t>Ferguson based on mean generation interval Tg=2.6 days; Cori has mean ~ 1day</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Lau LLH, Cowling BJ, Fang VJ, et al. Viral Shedding and Clinical Illness in Naturally Acquired Influenza Virus Infections. The Journal of Infectious Diseases 2010; 201: 1509–16.
 Longini IM Jr., Halloran ME, Nizam A, Yang Y. Containing pandemic influenza with antiviral agents. American Journal of Epidemiology 2004; 159: 623–33.</t>
   </si>
@@ -472,6 +504,129 @@
   </si>
   <si>
     <t>Average of High</t>
+  </si>
+  <si>
+    <t>Ferguson based on mean generation interval Tg=2.6 days; Cori has mean ~ 1day ; te Beest 2013 has Tg~2.1-3.4 days (say that 3.4 likely inflated due to under-reporting)</t>
+  </si>
+  <si>
+    <t>Fitted to desired value for R0; Biggerstaff review</t>
+  </si>
+  <si>
+    <t>DOL</t>
+  </si>
+  <si>
+    <t>DOI</t>
+  </si>
+  <si>
+    <t>setting</t>
+  </si>
+  <si>
+    <t>modeltype</t>
+  </si>
+  <si>
+    <t>cuminc_lo</t>
+  </si>
+  <si>
+    <t>cuminc_hi</t>
+  </si>
+  <si>
+    <t>hosp_lo</t>
+  </si>
+  <si>
+    <t>hosp_hi</t>
+  </si>
+  <si>
+    <t>cfr_lo</t>
+  </si>
+  <si>
+    <t>cfr_hi</t>
+  </si>
+  <si>
+    <t>adminvaxrate_lo</t>
+  </si>
+  <si>
+    <t>adminvaxrate_hi</t>
+  </si>
+  <si>
+    <t>vaxlag_lo</t>
+  </si>
+  <si>
+    <t>vaxlag_hi</t>
+  </si>
+  <si>
+    <t>vaxprop_lo</t>
+  </si>
+  <si>
+    <t>vaxprop_hi</t>
+  </si>
+  <si>
+    <t>symptfrac_lo</t>
+  </si>
+  <si>
+    <t>symptfrac_hi</t>
+  </si>
+  <si>
+    <t>asymptreducinf_lo</t>
+  </si>
+  <si>
+    <t>asymptreducinf_hi</t>
+  </si>
+  <si>
+    <t>Medlock 2009</t>
+  </si>
+  <si>
+    <t>USA</t>
+  </si>
+  <si>
+    <t>Tuite 2010</t>
+  </si>
+  <si>
+    <t>Canada</t>
+  </si>
+  <si>
+    <t>ODE SEIR</t>
+  </si>
+  <si>
+    <t>vaxeff_lo</t>
+  </si>
+  <si>
+    <t>vaxeff_hi</t>
+  </si>
+  <si>
+    <t>Matrajt 2013</t>
+  </si>
+  <si>
+    <t>SE Asia</t>
+  </si>
+  <si>
+    <t>ODE SAIR</t>
+  </si>
+  <si>
+    <t>R0_lo</t>
+  </si>
+  <si>
+    <t>R0_hi</t>
+  </si>
+  <si>
+    <t>Ozaltin 2014</t>
+  </si>
+  <si>
+    <t>Seattle, USA</t>
+  </si>
+  <si>
+    <t>ABM</t>
+  </si>
+  <si>
+    <t>Biggerstaff</t>
+  </si>
+  <si>
+    <t>Excel</t>
+  </si>
+  <si>
+    <t>Laskowski 2015</t>
+  </si>
+  <si>
+    <t>Manitoba</t>
   </si>
 </sst>
 </file>
@@ -479,9 +634,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="0.0000"/>
+    <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -546,6 +701,27 @@
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -587,7 +763,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="127">
+  <cellStyleXfs count="131">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -715,8 +891,12 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -778,13 +958,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="127">
+  <cellStyles count="131">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -848,6 +1035,8 @@
     <cellStyle name="Followed Hyperlink" xfId="122" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="124" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="126" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="128" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="130" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -911,6 +1100,8 @@
     <cellStyle name="Hyperlink" xfId="121" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="123" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="125" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="127" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="129" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="2">
@@ -942,7 +1133,7 @@
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="David Champredon" refreshedDate="42713.482269560183" createdVersion="4" refreshedVersion="4" minRefreshableVersion="3" recordCount="17">
   <cacheSource type="worksheet">
-    <worksheetSource ref="A1:E1048576" sheet="other-papers"/>
+    <worksheetSource ref="A1:E1048576" sheet="other-papers-old"/>
   </cacheSource>
   <cacheFields count="5">
     <cacheField name="paper" numFmtId="0">
@@ -1107,7 +1298,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="7" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" gridDropZones="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" gridDropZones="1" multipleFieldFilters="0">
   <location ref="H8:L17" firstHeaderRow="1" firstDataRow="3" firstDataCol="1"/>
   <pivotFields count="5">
     <pivotField axis="axisCol" showAll="0">
@@ -1520,7 +1711,7 @@
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="145" zoomScaleNormal="145" zoomScalePageLayoutView="145" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H42" sqref="H42"/>
+      <selection pane="bottomLeft" activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1641,7 +1832,7 @@
         <v>112</v>
       </c>
       <c r="H5" s="12" t="s">
-        <v>114</v>
+        <v>146</v>
       </c>
     </row>
     <row r="6" spans="2:8" ht="66">
@@ -1790,20 +1981,20 @@
         <v>12</v>
       </c>
       <c r="C13" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="D13" s="5" t="s">
         <v>117</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>118</v>
       </c>
       <c r="E13" s="4" t="s">
         <v>26</v>
       </c>
       <c r="F13" s="4"/>
       <c r="G13" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="H13" s="13" t="s">
         <v>119</v>
-      </c>
-      <c r="H13" s="13" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="14" spans="2:8" ht="66">
@@ -1821,10 +2012,10 @@
       </c>
       <c r="F14" s="4"/>
       <c r="G14" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="H14" s="12" t="s">
         <v>115</v>
-      </c>
-      <c r="H14" s="12" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="15" spans="2:8" ht="22">
@@ -1942,7 +2133,7 @@
         <v>46</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E20" s="4">
         <v>0.43</v>
@@ -1989,7 +2180,7 @@
       </c>
       <c r="F22" s="4"/>
       <c r="G22" s="6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H22" s="13"/>
     </row>
@@ -2048,7 +2239,7 @@
       </c>
       <c r="F25" s="4"/>
       <c r="G25" s="6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H25" s="13"/>
     </row>
@@ -2110,7 +2301,7 @@
       </c>
       <c r="G28" s="6"/>
       <c r="H28" s="13" t="s">
-        <v>67</v>
+        <v>147</v>
       </c>
     </row>
     <row r="29" spans="2:8">
@@ -2149,7 +2340,7 @@
       </c>
       <c r="F30" s="4"/>
       <c r="G30" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H30" s="13"/>
     </row>
@@ -2168,7 +2359,7 @@
       </c>
       <c r="F31" s="4"/>
       <c r="G31" s="6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H31" s="13"/>
     </row>
@@ -2363,7 +2554,7 @@
         <v>23</v>
       </c>
       <c r="H41" s="13" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="42" spans="2:8" ht="30">
@@ -2518,11 +2709,537 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Y8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="C7" sqref="C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="15.33203125" customWidth="1"/>
+    <col min="2" max="2" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10" style="18" bestFit="1" customWidth="1"/>
+    <col min="4" max="7" width="6.83203125" style="18" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11" style="18" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.6640625" style="18" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="7.83203125" style="18" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6.83203125" style="18" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6.83203125" style="18" customWidth="1"/>
+    <col min="14" max="15" width="15" style="18" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.5" style="18" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9" style="18" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="10.5" style="18" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="12" style="18" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="16.6640625" style="18" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="11" style="18" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:25" s="24" customFormat="1">
+      <c r="A1" s="25" t="s">
+        <v>140</v>
+      </c>
+      <c r="B1" s="25" t="s">
+        <v>150</v>
+      </c>
+      <c r="C1" s="25" t="s">
+        <v>151</v>
+      </c>
+      <c r="D1" s="25" t="s">
+        <v>148</v>
+      </c>
+      <c r="E1" s="25" t="s">
+        <v>149</v>
+      </c>
+      <c r="F1" s="25" t="s">
+        <v>178</v>
+      </c>
+      <c r="G1" s="25" t="s">
+        <v>179</v>
+      </c>
+      <c r="H1" s="25" t="s">
+        <v>152</v>
+      </c>
+      <c r="I1" s="25" t="s">
+        <v>153</v>
+      </c>
+      <c r="J1" s="25" t="s">
+        <v>154</v>
+      </c>
+      <c r="K1" s="25" t="s">
+        <v>155</v>
+      </c>
+      <c r="L1" s="25" t="s">
+        <v>156</v>
+      </c>
+      <c r="M1" s="25" t="s">
+        <v>157</v>
+      </c>
+      <c r="N1" s="25" t="s">
+        <v>158</v>
+      </c>
+      <c r="O1" s="25" t="s">
+        <v>159</v>
+      </c>
+      <c r="P1" s="25" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q1" s="25" t="s">
+        <v>161</v>
+      </c>
+      <c r="R1" s="25" t="s">
+        <v>162</v>
+      </c>
+      <c r="S1" s="25" t="s">
+        <v>163</v>
+      </c>
+      <c r="T1" s="25" t="s">
+        <v>164</v>
+      </c>
+      <c r="U1" s="25" t="s">
+        <v>165</v>
+      </c>
+      <c r="V1" s="25" t="s">
+        <v>166</v>
+      </c>
+      <c r="W1" s="25" t="s">
+        <v>167</v>
+      </c>
+      <c r="X1" s="25" t="s">
+        <v>173</v>
+      </c>
+      <c r="Y1" s="25" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25">
+      <c r="A2" t="s">
+        <v>168</v>
+      </c>
+      <c r="B2" t="s">
+        <v>169</v>
+      </c>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="26"/>
+      <c r="I2" s="26"/>
+      <c r="J2" s="26"/>
+      <c r="K2" s="26"/>
+      <c r="L2" s="26"/>
+      <c r="M2" s="26"/>
+      <c r="N2" s="26"/>
+      <c r="O2" s="26"/>
+      <c r="P2" s="26"/>
+      <c r="Q2" s="26"/>
+      <c r="R2" s="26"/>
+      <c r="S2" s="26"/>
+      <c r="T2" s="26"/>
+      <c r="U2" s="26"/>
+      <c r="V2" s="26"/>
+      <c r="W2" s="26"/>
+      <c r="X2" s="26"/>
+      <c r="Y2" s="26"/>
+    </row>
+    <row r="3" spans="1:25">
+      <c r="A3" t="s">
+        <v>170</v>
+      </c>
+      <c r="B3" t="s">
+        <v>171</v>
+      </c>
+      <c r="C3" s="18" t="s">
+        <v>172</v>
+      </c>
+      <c r="D3" s="26">
+        <v>3.5</v>
+      </c>
+      <c r="E3" s="26">
+        <v>2.5</v>
+      </c>
+      <c r="F3" s="26">
+        <v>1.3</v>
+      </c>
+      <c r="G3" s="26">
+        <v>1.3</v>
+      </c>
+      <c r="H3" s="26">
+        <v>0.15</v>
+      </c>
+      <c r="I3" s="26">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="J3" s="26">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="K3" s="26">
+        <v>1.2999999999999999E-3</v>
+      </c>
+      <c r="L3" s="26">
+        <v>0</v>
+      </c>
+      <c r="M3" s="26">
+        <v>4.0000000000000002E-4</v>
+      </c>
+      <c r="N3" s="26"/>
+      <c r="O3" s="26"/>
+      <c r="P3" s="26">
+        <v>225</v>
+      </c>
+      <c r="Q3" s="26">
+        <v>225</v>
+      </c>
+      <c r="R3" s="26">
+        <v>0.3</v>
+      </c>
+      <c r="S3" s="26">
+        <v>0.75</v>
+      </c>
+      <c r="T3" s="26">
+        <v>0.6</v>
+      </c>
+      <c r="U3" s="26">
+        <v>0.6</v>
+      </c>
+      <c r="V3" s="26">
+        <v>1</v>
+      </c>
+      <c r="W3" s="26">
+        <v>1</v>
+      </c>
+      <c r="X3" s="26">
+        <v>0.7</v>
+      </c>
+      <c r="Y3" s="26">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25">
+      <c r="A4" t="s">
+        <v>175</v>
+      </c>
+      <c r="B4" t="s">
+        <v>176</v>
+      </c>
+      <c r="C4" s="18" t="s">
+        <v>177</v>
+      </c>
+      <c r="D4" s="26"/>
+      <c r="E4" s="26">
+        <v>4</v>
+      </c>
+      <c r="F4" s="26">
+        <v>1.2</v>
+      </c>
+      <c r="G4" s="26">
+        <v>1.8</v>
+      </c>
+      <c r="H4" s="26"/>
+      <c r="I4" s="26"/>
+      <c r="J4" s="26"/>
+      <c r="K4" s="26"/>
+      <c r="L4" s="26"/>
+      <c r="M4" s="26"/>
+      <c r="N4" s="26"/>
+      <c r="O4" s="26"/>
+      <c r="P4" s="26">
+        <v>5</v>
+      </c>
+      <c r="Q4" s="26">
+        <v>90</v>
+      </c>
+      <c r="R4" s="26"/>
+      <c r="S4" s="26"/>
+      <c r="T4" s="26">
+        <v>0.67</v>
+      </c>
+      <c r="U4" s="26">
+        <v>0.67</v>
+      </c>
+      <c r="V4" s="26">
+        <v>0.5</v>
+      </c>
+      <c r="W4" s="26">
+        <v>0.5</v>
+      </c>
+      <c r="X4" s="26">
+        <v>0.1</v>
+      </c>
+      <c r="Y4" s="26">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25">
+      <c r="A5" t="s">
+        <v>180</v>
+      </c>
+      <c r="B5" t="s">
+        <v>181</v>
+      </c>
+      <c r="C5" s="18" t="s">
+        <v>182</v>
+      </c>
+      <c r="D5" s="26">
+        <v>1.9</v>
+      </c>
+      <c r="E5" s="26">
+        <v>6</v>
+      </c>
+      <c r="F5" s="26">
+        <v>1.4</v>
+      </c>
+      <c r="G5" s="26">
+        <v>2.4</v>
+      </c>
+      <c r="H5" s="26"/>
+      <c r="I5" s="26"/>
+      <c r="J5" s="26"/>
+      <c r="K5" s="26"/>
+      <c r="L5" s="26"/>
+      <c r="M5" s="26"/>
+      <c r="N5" s="26"/>
+      <c r="O5" s="26"/>
+      <c r="P5" s="26">
+        <v>-1</v>
+      </c>
+      <c r="Q5" s="26">
+        <v>10</v>
+      </c>
+      <c r="R5" s="26"/>
+      <c r="S5" s="26"/>
+      <c r="T5" s="26">
+        <v>0.67</v>
+      </c>
+      <c r="U5" s="26">
+        <v>0.67</v>
+      </c>
+      <c r="V5" s="26"/>
+      <c r="W5" s="26"/>
+      <c r="X5" s="26"/>
+      <c r="Y5" s="26"/>
+    </row>
+    <row r="6" spans="1:25">
+      <c r="A6" t="s">
+        <v>135</v>
+      </c>
+      <c r="B6" t="s">
+        <v>171</v>
+      </c>
+      <c r="C6" s="18" t="s">
+        <v>182</v>
+      </c>
+      <c r="D6" s="26">
+        <v>2.7</v>
+      </c>
+      <c r="E6" s="26">
+        <v>3.25</v>
+      </c>
+      <c r="F6" s="26">
+        <v>1.3</v>
+      </c>
+      <c r="G6" s="26">
+        <v>2</v>
+      </c>
+      <c r="H6" s="26">
+        <v>0.2</v>
+      </c>
+      <c r="I6" s="26">
+        <v>0.5</v>
+      </c>
+      <c r="J6" s="26"/>
+      <c r="K6" s="26"/>
+      <c r="L6" s="26">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="M6" s="26">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="N6" s="26">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="O6" s="26">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="P6" s="26">
+        <v>28</v>
+      </c>
+      <c r="Q6" s="26">
+        <v>84</v>
+      </c>
+      <c r="R6" s="26">
+        <v>0.25</v>
+      </c>
+      <c r="S6" s="26">
+        <v>0.75</v>
+      </c>
+      <c r="T6" s="26">
+        <v>0.6</v>
+      </c>
+      <c r="U6" s="26">
+        <v>0.6</v>
+      </c>
+      <c r="V6" s="26">
+        <v>1</v>
+      </c>
+      <c r="W6" s="26">
+        <v>1</v>
+      </c>
+      <c r="X6" s="26">
+        <v>0.3</v>
+      </c>
+      <c r="Y6" s="26">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25">
+      <c r="A7" t="s">
+        <v>183</v>
+      </c>
+      <c r="B7" t="s">
+        <v>169</v>
+      </c>
+      <c r="C7" s="18" t="s">
+        <v>184</v>
+      </c>
+      <c r="D7" s="26"/>
+      <c r="E7" s="26"/>
+      <c r="F7" s="26"/>
+      <c r="G7" s="26"/>
+      <c r="H7" s="26">
+        <v>0.2</v>
+      </c>
+      <c r="I7" s="26">
+        <v>0.3</v>
+      </c>
+      <c r="J7" s="26">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="K7" s="26">
+        <v>0.04</v>
+      </c>
+      <c r="L7" s="26">
+        <v>8.0000000000000004E-4</v>
+      </c>
+      <c r="M7" s="26">
+        <v>5.3E-3</v>
+      </c>
+      <c r="N7" s="26">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="O7" s="26">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="P7" s="26">
+        <v>-112</v>
+      </c>
+      <c r="Q7" s="26">
+        <v>112</v>
+      </c>
+      <c r="R7" s="26">
+        <v>0.8</v>
+      </c>
+      <c r="S7" s="26">
+        <v>0.8</v>
+      </c>
+      <c r="T7" s="26"/>
+      <c r="U7" s="26"/>
+      <c r="V7" s="26"/>
+      <c r="W7" s="26"/>
+      <c r="X7" s="26">
+        <v>0.4</v>
+      </c>
+      <c r="Y7" s="26">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25">
+      <c r="A8" t="s">
+        <v>185</v>
+      </c>
+      <c r="B8" t="s">
+        <v>186</v>
+      </c>
+      <c r="C8" s="18" t="s">
+        <v>182</v>
+      </c>
+      <c r="D8" s="26">
+        <v>1.5</v>
+      </c>
+      <c r="E8" s="26">
+        <v>3.38</v>
+      </c>
+      <c r="F8" s="26">
+        <v>1.3</v>
+      </c>
+      <c r="G8" s="26">
+        <v>2</v>
+      </c>
+      <c r="H8" s="26"/>
+      <c r="I8" s="26"/>
+      <c r="J8" s="26"/>
+      <c r="K8" s="26"/>
+      <c r="L8" s="26"/>
+      <c r="M8" s="26"/>
+      <c r="N8" s="26">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="O8" s="26">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="P8" s="26">
+        <v>-14</v>
+      </c>
+      <c r="Q8" s="26">
+        <v>28</v>
+      </c>
+      <c r="R8" s="26">
+        <v>0</v>
+      </c>
+      <c r="S8" s="26">
+        <v>0.5</v>
+      </c>
+      <c r="T8" s="26">
+        <v>0.6</v>
+      </c>
+      <c r="U8" s="26">
+        <v>0.6</v>
+      </c>
+      <c r="V8" s="26">
+        <v>0.5</v>
+      </c>
+      <c r="W8" s="26">
+        <v>0.5</v>
+      </c>
+      <c r="X8" s="26">
+        <v>0.3</v>
+      </c>
+      <c r="Y8" s="26">
+        <v>0.8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <legacyDrawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="160" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="160" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2541,27 +3258,27 @@
   <sheetData>
     <row r="1" spans="1:12" s="18" customFormat="1">
       <c r="A1" s="20" t="s">
+        <v>140</v>
+      </c>
+      <c r="B1" s="20" t="s">
         <v>141</v>
       </c>
-      <c r="B1" s="20" t="s">
-        <v>142</v>
-      </c>
       <c r="C1" s="20" t="s">
+        <v>130</v>
+      </c>
+      <c r="D1" s="20" t="s">
         <v>131</v>
       </c>
-      <c r="D1" s="20" t="s">
+      <c r="E1" s="18" t="s">
         <v>132</v>
-      </c>
-      <c r="E1" s="18" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="10" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C2" s="21">
         <v>0.2</v>
@@ -2572,10 +3289,10 @@
     </row>
     <row r="3" spans="1:12">
       <c r="A3" s="10" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C3" s="21">
         <v>5.0000000000000001E-3</v>
@@ -2586,10 +3303,10 @@
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="10" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C4" s="21">
         <v>8.0000000000000004E-4</v>
@@ -2600,10 +3317,10 @@
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="10" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C5" s="21">
         <v>0.8</v>
@@ -2614,10 +3331,10 @@
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="10" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C6" s="21">
         <v>10</v>
@@ -2628,10 +3345,10 @@
     </row>
     <row r="7" spans="1:12" ht="30">
       <c r="A7" s="10" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C7" s="21">
         <v>0.43</v>
@@ -2640,15 +3357,15 @@
         <v>0.8</v>
       </c>
       <c r="E7" s="19" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="10" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C8" s="20">
         <v>-112</v>
@@ -2657,15 +3374,15 @@
         <v>112</v>
       </c>
       <c r="I8" s="22" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="B9" s="10" t="s">
         <v>136</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>137</v>
       </c>
       <c r="C9" s="21">
         <v>0.2</v>
@@ -2674,18 +3391,18 @@
         <v>0.5</v>
       </c>
       <c r="I9" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K9" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="10" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C10" s="21">
         <v>0.01</v>
@@ -2694,27 +3411,27 @@
         <v>0.01</v>
       </c>
       <c r="H10" s="22" t="s">
+        <v>143</v>
+      </c>
+      <c r="I10" t="s">
         <v>144</v>
       </c>
-      <c r="I10" t="s">
+      <c r="J10" t="s">
         <v>145</v>
       </c>
-      <c r="J10" t="s">
-        <v>146</v>
-      </c>
       <c r="K10" t="s">
+        <v>144</v>
+      </c>
+      <c r="L10" t="s">
         <v>145</v>
-      </c>
-      <c r="L10" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="10" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C11" s="21">
         <v>4.0000000000000001E-3</v>
@@ -2723,7 +3440,7 @@
         <v>4.0000000000000001E-3</v>
       </c>
       <c r="H11" s="17" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="I11" s="23">
         <v>8.0000000000000004E-4</v>
@@ -2740,10 +3457,10 @@
     </row>
     <row r="12" spans="1:12">
       <c r="A12" s="10" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C12" s="21">
         <v>0.26</v>
@@ -2752,10 +3469,10 @@
         <v>0.75</v>
       </c>
       <c r="E12" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H12" s="17" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="I12" s="23">
         <v>0.2</v>
@@ -2772,10 +3489,10 @@
     </row>
     <row r="13" spans="1:12">
       <c r="A13" s="10" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C13" s="21">
         <v>0.15</v>
@@ -2784,7 +3501,7 @@
         <v>3.75</v>
       </c>
       <c r="H13" s="17" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I13" s="23">
         <v>5.0000000000000001E-3</v>
@@ -2801,10 +3518,10 @@
     </row>
     <row r="14" spans="1:12" ht="30">
       <c r="A14" s="10" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C14" s="21">
         <v>0.3</v>
@@ -2813,10 +3530,10 @@
         <v>0.7</v>
       </c>
       <c r="E14" s="19" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H14" s="17" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="I14" s="23">
         <v>10</v>
@@ -2833,10 +3550,10 @@
     </row>
     <row r="15" spans="1:12">
       <c r="A15" s="10" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C15" s="20">
         <v>30</v>
@@ -2845,7 +3562,7 @@
         <v>90</v>
       </c>
       <c r="H15" s="17" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I15" s="23">
         <v>0.8</v>
@@ -2862,7 +3579,7 @@
     </row>
     <row r="16" spans="1:12">
       <c r="H16" s="17" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="I16" s="23">
         <v>0.43</v>
@@ -2879,7 +3596,7 @@
     </row>
     <row r="17" spans="8:12">
       <c r="H17" s="17" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I17" s="23">
         <v>-112</v>

--- a/param-model/_all_param_value_source.xlsx
+++ b/param-model/_all_param_value_source.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27629"/>
   <workbookPr showInkAnnotation="0" hidePivotFieldList="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="15600" yWindow="3500" windowWidth="25600" windowHeight="16060" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="SUMMARY" sheetId="1" r:id="rId1"/>
@@ -13,7 +13,7 @@
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId4"/>
+    <pivotCache cacheId="1" r:id="rId4"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="196">
   <si>
     <t>PARAMETER</t>
   </si>
@@ -627,6 +627,33 @@
   </si>
   <si>
     <t>Manitoba</t>
+  </si>
+  <si>
+    <t>Araz 2012</t>
+  </si>
+  <si>
+    <t>Arizona, USA</t>
+  </si>
+  <si>
+    <t>ODE</t>
+  </si>
+  <si>
+    <t>Lee 2010</t>
+  </si>
+  <si>
+    <t>Washington DC, USA</t>
+  </si>
+  <si>
+    <t>Wood 2009</t>
+  </si>
+  <si>
+    <t>theoretical</t>
+  </si>
+  <si>
+    <t>Mylius 2008</t>
+  </si>
+  <si>
+    <t>The Netherlands</t>
   </si>
 </sst>
 </file>
@@ -763,8 +790,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="131">
+  <cellStyleXfs count="133">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -971,7 +1000,7 @@
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="131">
+  <cellStyles count="133">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -1037,6 +1066,7 @@
     <cellStyle name="Followed Hyperlink" xfId="126" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="128" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="130" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="132" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -1102,6 +1132,7 @@
     <cellStyle name="Hyperlink" xfId="125" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="127" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="129" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="131" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="2">
@@ -1298,7 +1329,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" gridDropZones="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" gridDropZones="1" multipleFieldFilters="0">
   <location ref="H8:L17" firstHeaderRow="1" firstDataRow="3" firstDataCol="1"/>
   <pivotFields count="5">
     <pivotField axis="axisCol" showAll="0">
@@ -2710,13 +2741,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y8"/>
+  <dimension ref="A1:Y12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C7" sqref="C7"/>
+      <selection pane="bottomRight" activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2728,7 +2759,7 @@
     <col min="8" max="8" width="11" style="18" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9.6640625" style="18" bestFit="1" customWidth="1"/>
     <col min="10" max="11" width="7.83203125" style="18" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="6.83203125" style="18" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.1640625" style="18" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="6.83203125" style="18" customWidth="1"/>
     <col min="14" max="15" width="15" style="18" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="9.5" style="18" bestFit="1" customWidth="1"/>
@@ -3219,6 +3250,155 @@
         <v>0.3</v>
       </c>
       <c r="Y8" s="26">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25">
+      <c r="A9" t="s">
+        <v>187</v>
+      </c>
+      <c r="B9" t="s">
+        <v>188</v>
+      </c>
+      <c r="C9" s="18" t="s">
+        <v>189</v>
+      </c>
+      <c r="D9" s="18">
+        <v>4</v>
+      </c>
+      <c r="E9" s="18">
+        <v>6</v>
+      </c>
+      <c r="F9" s="18">
+        <v>1.4</v>
+      </c>
+      <c r="G9" s="18">
+        <v>1.4</v>
+      </c>
+      <c r="H9" s="18">
+        <v>0.3</v>
+      </c>
+      <c r="L9" s="18">
+        <v>1E-4</v>
+      </c>
+      <c r="M9" s="18">
+        <v>4.0000000000000002E-4</v>
+      </c>
+      <c r="P9" s="18">
+        <v>100</v>
+      </c>
+      <c r="Q9" s="18">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25">
+      <c r="A10" t="s">
+        <v>190</v>
+      </c>
+      <c r="B10" t="s">
+        <v>191</v>
+      </c>
+      <c r="C10" s="18" t="s">
+        <v>182</v>
+      </c>
+      <c r="H10" s="18">
+        <v>0.33500000000000002</v>
+      </c>
+      <c r="I10" s="18">
+        <v>0.33500000000000002</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25">
+      <c r="A11" t="s">
+        <v>192</v>
+      </c>
+      <c r="B11" t="s">
+        <v>193</v>
+      </c>
+      <c r="C11" t="s">
+        <v>172</v>
+      </c>
+      <c r="D11" s="18">
+        <v>1</v>
+      </c>
+      <c r="E11" s="18">
+        <v>2</v>
+      </c>
+      <c r="F11" s="18">
+        <v>1.5</v>
+      </c>
+      <c r="G11" s="18">
+        <v>2.5</v>
+      </c>
+      <c r="H11" s="18">
+        <v>0</v>
+      </c>
+      <c r="I11" s="18">
+        <v>0.7</v>
+      </c>
+      <c r="P11" s="18">
+        <v>60</v>
+      </c>
+      <c r="Q11" s="18">
+        <v>180</v>
+      </c>
+      <c r="R11" s="18">
+        <v>0.5</v>
+      </c>
+      <c r="S11" s="18">
+        <v>1</v>
+      </c>
+      <c r="X11" s="18">
+        <v>0</v>
+      </c>
+      <c r="Y11" s="18">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25">
+      <c r="A12" t="s">
+        <v>194</v>
+      </c>
+      <c r="B12" t="s">
+        <v>195</v>
+      </c>
+      <c r="C12" s="18" t="s">
+        <v>172</v>
+      </c>
+      <c r="D12" s="18">
+        <v>1.95</v>
+      </c>
+      <c r="E12" s="18">
+        <v>1.6</v>
+      </c>
+      <c r="F12" s="18">
+        <v>1.73</v>
+      </c>
+      <c r="G12" s="18">
+        <v>1.73</v>
+      </c>
+      <c r="H12" s="18">
+        <v>0.6</v>
+      </c>
+      <c r="I12" s="18">
+        <v>0.8</v>
+      </c>
+      <c r="P12" s="18">
+        <v>36</v>
+      </c>
+      <c r="Q12" s="18">
+        <v>86</v>
+      </c>
+      <c r="R12" s="18">
+        <v>0.35</v>
+      </c>
+      <c r="S12" s="18">
+        <v>0.35</v>
+      </c>
+      <c r="X12" s="18">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="Y12" s="18">
         <v>0.8</v>
       </c>
     </row>

--- a/param-model/_all_param_value_source.xlsx
+++ b/param-model/_all_param_value_source.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27629"/>
   <workbookPr showInkAnnotation="0" hidePivotFieldList="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="15600" yWindow="3500" windowWidth="25600" windowHeight="16060" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="2900" yWindow="0" windowWidth="32800" windowHeight="27980" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="SUMMARY" sheetId="1" r:id="rId1"/>
@@ -13,7 +13,7 @@
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <pivotCaches>
-    <pivotCache cacheId="1" r:id="rId4"/>
+    <pivotCache cacheId="0" r:id="rId4"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="196">
   <si>
     <t>PARAMETER</t>
   </si>
@@ -250,9 +250,6 @@
   </si>
   <si>
     <t>Mean of contact rate distribution</t>
-  </si>
-  <si>
-    <t>?</t>
   </si>
   <si>
     <t>contact_rate_stddev</t>
@@ -654,6 +651,9 @@
   </si>
   <si>
     <t>The Netherlands</t>
+  </si>
+  <si>
+    <t>number of contacts per capita per day</t>
   </si>
 </sst>
 </file>
@@ -750,7 +750,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -760,12 +760,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.499984740745262"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -790,7 +784,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="133">
+  <cellStyleXfs count="137">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -924,8 +918,12 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -972,9 +970,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1000,7 +995,7 @@
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="133">
+  <cellStyles count="137">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -1067,6 +1062,8 @@
     <cellStyle name="Followed Hyperlink" xfId="128" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="130" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="132" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="134" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="136" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -1133,6 +1130,8 @@
     <cellStyle name="Hyperlink" xfId="127" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="129" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="131" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="133" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="135" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="2">
@@ -1329,7 +1328,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" gridDropZones="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" gridDropZones="1" multipleFieldFilters="0">
   <location ref="H8:L17" firstHeaderRow="1" firstDataRow="3" firstDataCol="1"/>
   <pivotFields count="5">
     <pivotField axis="axisCol" showAll="0">
@@ -1740,9 +1739,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:H63"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="145" zoomScaleNormal="145" zoomScalePageLayoutView="145" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H29" sqref="H29"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="145" zoomScaleNormal="145" zoomScalePageLayoutView="145" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1752,7 +1751,7 @@
     <col min="3" max="3" width="27.6640625" style="1" customWidth="1"/>
     <col min="4" max="4" width="33" style="3" customWidth="1"/>
     <col min="5" max="5" width="13.1640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="10.83203125" style="1"/>
+    <col min="6" max="6" width="14" style="1" customWidth="1"/>
     <col min="7" max="7" width="36.33203125" style="2" customWidth="1"/>
     <col min="8" max="8" width="31.1640625" style="10" customWidth="1"/>
   </cols>
@@ -1816,10 +1815,10 @@
         <v>9</v>
       </c>
       <c r="G3" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="H3" s="12" t="s">
         <v>112</v>
-      </c>
-      <c r="H3" s="12" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="4" spans="2:8" ht="66">
@@ -1839,7 +1838,7 @@
         <v>10</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H4" s="12"/>
     </row>
@@ -1860,10 +1859,10 @@
         <v>9</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H5" s="12" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="6" spans="2:8" ht="66">
@@ -1883,7 +1882,7 @@
         <v>10</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H6" s="12"/>
     </row>
@@ -1961,10 +1960,10 @@
         <v>9</v>
       </c>
       <c r="G10" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="H10" s="13" t="s">
         <v>109</v>
-      </c>
-      <c r="H10" s="13" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="11" spans="2:8" ht="22">
@@ -1984,7 +1983,7 @@
         <v>10</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H11" s="13"/>
     </row>
@@ -1993,17 +1992,17 @@
         <v>12</v>
       </c>
       <c r="C12" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="D12" s="5" t="s">
         <v>107</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>108</v>
       </c>
       <c r="E12" s="4" t="s">
         <v>20</v>
       </c>
       <c r="F12" s="4"/>
       <c r="G12" s="6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H12" s="13"/>
     </row>
@@ -2012,20 +2011,20 @@
         <v>12</v>
       </c>
       <c r="C13" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="D13" s="5" t="s">
         <v>116</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>117</v>
       </c>
       <c r="E13" s="4" t="s">
         <v>26</v>
       </c>
       <c r="F13" s="4"/>
       <c r="G13" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="H13" s="13" t="s">
         <v>118</v>
-      </c>
-      <c r="H13" s="13" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="14" spans="2:8" ht="66">
@@ -2033,20 +2032,20 @@
         <v>12</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E14" s="4">
         <v>0.1</v>
       </c>
       <c r="F14" s="4"/>
       <c r="G14" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="H14" s="12" t="s">
         <v>114</v>
-      </c>
-      <c r="H14" s="12" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="15" spans="2:8" ht="22">
@@ -2164,7 +2163,7 @@
         <v>46</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E20" s="4">
         <v>0.43</v>
@@ -2211,7 +2210,7 @@
       </c>
       <c r="F22" s="4"/>
       <c r="G22" s="6" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H22" s="13"/>
     </row>
@@ -2270,7 +2269,7 @@
       </c>
       <c r="F25" s="4"/>
       <c r="G25" s="6" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H25" s="13"/>
     </row>
@@ -2314,9 +2313,9 @@
       </c>
       <c r="H27" s="13"/>
     </row>
-    <row r="28" spans="2:8">
+    <row r="28" spans="2:8" ht="45">
       <c r="B28" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>62</v>
@@ -2327,82 +2326,80 @@
       <c r="E28" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="F28" s="16" t="s">
-        <v>64</v>
+      <c r="F28" s="4" t="s">
+        <v>195</v>
       </c>
       <c r="G28" s="6"/>
       <c r="H28" s="13" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="29" spans="2:8">
       <c r="B29" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C29" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="D29" s="5" t="s">
         <v>65</v>
-      </c>
-      <c r="D29" s="5" t="s">
-        <v>66</v>
       </c>
       <c r="E29" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="F29" s="16" t="s">
-        <v>64</v>
-      </c>
+      <c r="F29" s="4"/>
       <c r="G29" s="6"/>
       <c r="H29" s="13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="30" spans="2:8" ht="77">
       <c r="B30" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C30" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D30" s="5" t="s">
         <v>68</v>
-      </c>
-      <c r="D30" s="5" t="s">
-        <v>69</v>
       </c>
       <c r="E30" s="4">
         <v>15</v>
       </c>
       <c r="F30" s="4"/>
       <c r="G30" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H30" s="13"/>
     </row>
     <row r="31" spans="2:8" ht="66">
       <c r="B31" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C31" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="D31" s="5" t="s">
         <v>70</v>
-      </c>
-      <c r="D31" s="5" t="s">
-        <v>71</v>
       </c>
       <c r="E31" s="4">
         <v>3</v>
       </c>
       <c r="F31" s="4"/>
       <c r="G31" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H31" s="13"/>
     </row>
     <row r="32" spans="2:8" ht="30">
       <c r="B32" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C32" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D32" s="5" t="s">
         <v>72</v>
-      </c>
-      <c r="D32" s="5" t="s">
-        <v>73</v>
       </c>
       <c r="E32" s="4">
         <v>1</v>
@@ -2415,13 +2412,13 @@
     </row>
     <row r="33" spans="2:8" ht="30">
       <c r="B33" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C33" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D33" s="5" t="s">
         <v>74</v>
-      </c>
-      <c r="D33" s="5" t="s">
-        <v>75</v>
       </c>
       <c r="E33" s="4">
         <v>1</v>
@@ -2434,13 +2431,13 @@
     </row>
     <row r="34" spans="2:8" ht="30">
       <c r="B34" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C34" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D34" s="5" t="s">
         <v>76</v>
-      </c>
-      <c r="D34" s="5" t="s">
-        <v>77</v>
       </c>
       <c r="E34" s="4">
         <v>1</v>
@@ -2453,13 +2450,13 @@
     </row>
     <row r="35" spans="2:8">
       <c r="B35" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C35" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D35" s="5" t="s">
         <v>78</v>
-      </c>
-      <c r="D35" s="5" t="s">
-        <v>79</v>
       </c>
       <c r="E35" s="4">
         <v>1</v>
@@ -2472,13 +2469,13 @@
     </row>
     <row r="36" spans="2:8" ht="45">
       <c r="B36" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C36" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="D36" s="5" t="s">
         <v>80</v>
-      </c>
-      <c r="D36" s="5" t="s">
-        <v>81</v>
       </c>
       <c r="E36" s="4">
         <v>0.1</v>
@@ -2491,13 +2488,13 @@
     </row>
     <row r="37" spans="2:8" ht="30">
       <c r="B37" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="C37" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="C37" s="4" t="s">
+      <c r="D37" s="5" t="s">
         <v>83</v>
-      </c>
-      <c r="D37" s="5" t="s">
-        <v>84</v>
       </c>
       <c r="E37" s="4">
         <v>0.98</v>
@@ -2510,13 +2507,13 @@
     </row>
     <row r="38" spans="2:8" ht="30">
       <c r="B38" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C38" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="D38" s="5" t="s">
         <v>85</v>
-      </c>
-      <c r="D38" s="5" t="s">
-        <v>86</v>
       </c>
       <c r="E38" s="4">
         <v>0.4</v>
@@ -2529,13 +2526,13 @@
     </row>
     <row r="39" spans="2:8" ht="30">
       <c r="B39" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C39" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="D39" s="5" t="s">
         <v>87</v>
-      </c>
-      <c r="D39" s="5" t="s">
-        <v>88</v>
       </c>
       <c r="E39" s="4">
         <v>0.2</v>
@@ -2548,13 +2545,13 @@
     </row>
     <row r="40" spans="2:8" ht="45">
       <c r="B40" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="C40" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="C40" s="4" t="s">
+      <c r="D40" s="5" t="s">
         <v>93</v>
-      </c>
-      <c r="D40" s="5" t="s">
-        <v>94</v>
       </c>
       <c r="E40" s="4">
         <v>1</v>
@@ -2563,19 +2560,19 @@
         <v>9</v>
       </c>
       <c r="G40" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H40" s="13"/>
     </row>
     <row r="41" spans="2:8" ht="45">
       <c r="B41" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C41" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="D41" s="5" t="s">
         <v>96</v>
-      </c>
-      <c r="D41" s="5" t="s">
-        <v>97</v>
       </c>
       <c r="E41" s="4">
         <v>0.1</v>
@@ -2585,82 +2582,82 @@
         <v>23</v>
       </c>
       <c r="H41" s="13" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="42" spans="2:8" ht="30">
       <c r="B42" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C42" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="D42" s="5" t="s">
         <v>98</v>
-      </c>
-      <c r="D42" s="5" t="s">
-        <v>99</v>
       </c>
       <c r="E42" s="4">
         <v>0.1</v>
       </c>
       <c r="F42" s="4"/>
       <c r="G42" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H42" s="13"/>
     </row>
     <row r="43" spans="2:8" ht="30">
       <c r="B43" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E43" s="4">
         <v>0.1</v>
       </c>
       <c r="F43" s="4"/>
       <c r="G43" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H43" s="13"/>
     </row>
     <row r="44" spans="2:8" ht="30">
       <c r="B44" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E44" s="4">
         <v>12</v>
       </c>
       <c r="F44" s="4"/>
       <c r="G44" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H44" s="13"/>
     </row>
     <row r="45" spans="2:8" ht="30">
       <c r="B45" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E45" s="4">
         <v>0</v>
       </c>
       <c r="F45" s="4"/>
       <c r="G45" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H45" s="13"/>
     </row>
@@ -2743,7 +2740,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -2754,651 +2751,651 @@
   <cols>
     <col min="1" max="1" width="15.33203125" customWidth="1"/>
     <col min="2" max="2" width="11.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10" style="18" bestFit="1" customWidth="1"/>
-    <col min="4" max="7" width="6.83203125" style="18" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11" style="18" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.6640625" style="18" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="7.83203125" style="18" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7.1640625" style="18" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="6.83203125" style="18" customWidth="1"/>
-    <col min="14" max="15" width="15" style="18" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9.5" style="18" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="9" style="18" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="10.5" style="18" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="12" style="18" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="16.6640625" style="18" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="11" style="18" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10" style="17" bestFit="1" customWidth="1"/>
+    <col min="4" max="7" width="6.83203125" style="17" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11" style="17" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.6640625" style="17" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="7.83203125" style="17" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.1640625" style="17" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6.83203125" style="17" customWidth="1"/>
+    <col min="14" max="15" width="15" style="17" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.5" style="17" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9" style="17" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="10.5" style="17" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="12" style="17" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="16.6640625" style="17" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="11" style="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" s="24" customFormat="1">
-      <c r="A1" s="25" t="s">
-        <v>140</v>
-      </c>
-      <c r="B1" s="25" t="s">
+    <row r="1" spans="1:25" s="23" customFormat="1">
+      <c r="A1" s="24" t="s">
+        <v>139</v>
+      </c>
+      <c r="B1" s="24" t="s">
+        <v>149</v>
+      </c>
+      <c r="C1" s="24" t="s">
         <v>150</v>
       </c>
-      <c r="C1" s="25" t="s">
+      <c r="D1" s="24" t="s">
+        <v>147</v>
+      </c>
+      <c r="E1" s="24" t="s">
+        <v>148</v>
+      </c>
+      <c r="F1" s="24" t="s">
+        <v>177</v>
+      </c>
+      <c r="G1" s="24" t="s">
+        <v>178</v>
+      </c>
+      <c r="H1" s="24" t="s">
         <v>151</v>
       </c>
-      <c r="D1" s="25" t="s">
-        <v>148</v>
-      </c>
-      <c r="E1" s="25" t="s">
-        <v>149</v>
-      </c>
-      <c r="F1" s="25" t="s">
-        <v>178</v>
-      </c>
-      <c r="G1" s="25" t="s">
-        <v>179</v>
-      </c>
-      <c r="H1" s="25" t="s">
+      <c r="I1" s="24" t="s">
         <v>152</v>
       </c>
-      <c r="I1" s="25" t="s">
+      <c r="J1" s="24" t="s">
         <v>153</v>
       </c>
-      <c r="J1" s="25" t="s">
+      <c r="K1" s="24" t="s">
         <v>154</v>
       </c>
-      <c r="K1" s="25" t="s">
+      <c r="L1" s="24" t="s">
         <v>155</v>
       </c>
-      <c r="L1" s="25" t="s">
+      <c r="M1" s="24" t="s">
         <v>156</v>
       </c>
-      <c r="M1" s="25" t="s">
+      <c r="N1" s="24" t="s">
         <v>157</v>
       </c>
-      <c r="N1" s="25" t="s">
+      <c r="O1" s="24" t="s">
         <v>158</v>
       </c>
-      <c r="O1" s="25" t="s">
+      <c r="P1" s="24" t="s">
         <v>159</v>
       </c>
-      <c r="P1" s="25" t="s">
+      <c r="Q1" s="24" t="s">
         <v>160</v>
       </c>
-      <c r="Q1" s="25" t="s">
+      <c r="R1" s="24" t="s">
         <v>161</v>
       </c>
-      <c r="R1" s="25" t="s">
+      <c r="S1" s="24" t="s">
         <v>162</v>
       </c>
-      <c r="S1" s="25" t="s">
+      <c r="T1" s="24" t="s">
         <v>163</v>
       </c>
-      <c r="T1" s="25" t="s">
+      <c r="U1" s="24" t="s">
         <v>164</v>
       </c>
-      <c r="U1" s="25" t="s">
+      <c r="V1" s="24" t="s">
         <v>165</v>
       </c>
-      <c r="V1" s="25" t="s">
+      <c r="W1" s="24" t="s">
         <v>166</v>
       </c>
-      <c r="W1" s="25" t="s">
-        <v>167</v>
-      </c>
-      <c r="X1" s="25" t="s">
+      <c r="X1" s="24" t="s">
+        <v>172</v>
+      </c>
+      <c r="Y1" s="24" t="s">
         <v>173</v>
-      </c>
-      <c r="Y1" s="25" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="2" spans="1:25">
       <c r="A2" t="s">
+        <v>167</v>
+      </c>
+      <c r="B2" t="s">
         <v>168</v>
       </c>
-      <c r="B2" t="s">
-        <v>169</v>
-      </c>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
-      <c r="H2" s="26"/>
-      <c r="I2" s="26"/>
-      <c r="J2" s="26"/>
-      <c r="K2" s="26"/>
-      <c r="L2" s="26"/>
-      <c r="M2" s="26"/>
-      <c r="N2" s="26"/>
-      <c r="O2" s="26"/>
-      <c r="P2" s="26"/>
-      <c r="Q2" s="26"/>
-      <c r="R2" s="26"/>
-      <c r="S2" s="26"/>
-      <c r="T2" s="26"/>
-      <c r="U2" s="26"/>
-      <c r="V2" s="26"/>
-      <c r="W2" s="26"/>
-      <c r="X2" s="26"/>
-      <c r="Y2" s="26"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="25"/>
+      <c r="J2" s="25"/>
+      <c r="K2" s="25"/>
+      <c r="L2" s="25"/>
+      <c r="M2" s="25"/>
+      <c r="N2" s="25"/>
+      <c r="O2" s="25"/>
+      <c r="P2" s="25"/>
+      <c r="Q2" s="25"/>
+      <c r="R2" s="25"/>
+      <c r="S2" s="25"/>
+      <c r="T2" s="25"/>
+      <c r="U2" s="25"/>
+      <c r="V2" s="25"/>
+      <c r="W2" s="25"/>
+      <c r="X2" s="25"/>
+      <c r="Y2" s="25"/>
     </row>
     <row r="3" spans="1:25">
       <c r="A3" t="s">
+        <v>169</v>
+      </c>
+      <c r="B3" t="s">
         <v>170</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" s="17" t="s">
         <v>171</v>
       </c>
-      <c r="C3" s="18" t="s">
-        <v>172</v>
-      </c>
-      <c r="D3" s="26">
+      <c r="D3" s="25">
         <v>3.5</v>
       </c>
-      <c r="E3" s="26">
+      <c r="E3" s="25">
         <v>2.5</v>
       </c>
-      <c r="F3" s="26">
+      <c r="F3" s="25">
         <v>1.3</v>
       </c>
-      <c r="G3" s="26">
+      <c r="G3" s="25">
         <v>1.3</v>
       </c>
-      <c r="H3" s="26">
+      <c r="H3" s="25">
         <v>0.15</v>
       </c>
-      <c r="I3" s="26">
+      <c r="I3" s="25">
         <v>0.55000000000000004</v>
       </c>
-      <c r="J3" s="26">
+      <c r="J3" s="25">
         <v>2.0000000000000001E-4</v>
       </c>
-      <c r="K3" s="26">
+      <c r="K3" s="25">
         <v>1.2999999999999999E-3</v>
       </c>
-      <c r="L3" s="26">
+      <c r="L3" s="25">
         <v>0</v>
       </c>
-      <c r="M3" s="26">
+      <c r="M3" s="25">
         <v>4.0000000000000002E-4</v>
       </c>
-      <c r="N3" s="26"/>
-      <c r="O3" s="26"/>
-      <c r="P3" s="26">
+      <c r="N3" s="25"/>
+      <c r="O3" s="25"/>
+      <c r="P3" s="25">
         <v>225</v>
       </c>
-      <c r="Q3" s="26">
+      <c r="Q3" s="25">
         <v>225</v>
       </c>
-      <c r="R3" s="26">
+      <c r="R3" s="25">
         <v>0.3</v>
       </c>
-      <c r="S3" s="26">
+      <c r="S3" s="25">
         <v>0.75</v>
       </c>
-      <c r="T3" s="26">
+      <c r="T3" s="25">
         <v>0.6</v>
       </c>
-      <c r="U3" s="26">
+      <c r="U3" s="25">
         <v>0.6</v>
       </c>
-      <c r="V3" s="26">
+      <c r="V3" s="25">
         <v>1</v>
       </c>
-      <c r="W3" s="26">
+      <c r="W3" s="25">
         <v>1</v>
       </c>
-      <c r="X3" s="26">
+      <c r="X3" s="25">
         <v>0.7</v>
       </c>
-      <c r="Y3" s="26">
+      <c r="Y3" s="25">
         <v>0.7</v>
       </c>
     </row>
     <row r="4" spans="1:25">
       <c r="A4" t="s">
+        <v>174</v>
+      </c>
+      <c r="B4" t="s">
         <v>175</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" s="17" t="s">
         <v>176</v>
       </c>
-      <c r="C4" s="18" t="s">
-        <v>177</v>
-      </c>
-      <c r="D4" s="26"/>
-      <c r="E4" s="26">
+      <c r="D4" s="25"/>
+      <c r="E4" s="25">
         <v>4</v>
       </c>
-      <c r="F4" s="26">
+      <c r="F4" s="25">
         <v>1.2</v>
       </c>
-      <c r="G4" s="26">
+      <c r="G4" s="25">
         <v>1.8</v>
       </c>
-      <c r="H4" s="26"/>
-      <c r="I4" s="26"/>
-      <c r="J4" s="26"/>
-      <c r="K4" s="26"/>
-      <c r="L4" s="26"/>
-      <c r="M4" s="26"/>
-      <c r="N4" s="26"/>
-      <c r="O4" s="26"/>
-      <c r="P4" s="26">
+      <c r="H4" s="25"/>
+      <c r="I4" s="25"/>
+      <c r="J4" s="25"/>
+      <c r="K4" s="25"/>
+      <c r="L4" s="25"/>
+      <c r="M4" s="25"/>
+      <c r="N4" s="25"/>
+      <c r="O4" s="25"/>
+      <c r="P4" s="25">
         <v>5</v>
       </c>
-      <c r="Q4" s="26">
+      <c r="Q4" s="25">
         <v>90</v>
       </c>
-      <c r="R4" s="26"/>
-      <c r="S4" s="26"/>
-      <c r="T4" s="26">
+      <c r="R4" s="25"/>
+      <c r="S4" s="25"/>
+      <c r="T4" s="25">
         <v>0.67</v>
       </c>
-      <c r="U4" s="26">
+      <c r="U4" s="25">
         <v>0.67</v>
       </c>
-      <c r="V4" s="26">
+      <c r="V4" s="25">
         <v>0.5</v>
       </c>
-      <c r="W4" s="26">
+      <c r="W4" s="25">
         <v>0.5</v>
       </c>
-      <c r="X4" s="26">
+      <c r="X4" s="25">
         <v>0.1</v>
       </c>
-      <c r="Y4" s="26">
+      <c r="Y4" s="25">
         <v>0.4</v>
       </c>
     </row>
     <row r="5" spans="1:25">
       <c r="A5" t="s">
+        <v>179</v>
+      </c>
+      <c r="B5" t="s">
         <v>180</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" s="17" t="s">
         <v>181</v>
       </c>
-      <c r="C5" s="18" t="s">
-        <v>182</v>
-      </c>
-      <c r="D5" s="26">
+      <c r="D5" s="25">
         <v>1.9</v>
       </c>
-      <c r="E5" s="26">
+      <c r="E5" s="25">
         <v>6</v>
       </c>
-      <c r="F5" s="26">
+      <c r="F5" s="25">
         <v>1.4</v>
       </c>
-      <c r="G5" s="26">
+      <c r="G5" s="25">
         <v>2.4</v>
       </c>
-      <c r="H5" s="26"/>
-      <c r="I5" s="26"/>
-      <c r="J5" s="26"/>
-      <c r="K5" s="26"/>
-      <c r="L5" s="26"/>
-      <c r="M5" s="26"/>
-      <c r="N5" s="26"/>
-      <c r="O5" s="26"/>
-      <c r="P5" s="26">
+      <c r="H5" s="25"/>
+      <c r="I5" s="25"/>
+      <c r="J5" s="25"/>
+      <c r="K5" s="25"/>
+      <c r="L5" s="25"/>
+      <c r="M5" s="25"/>
+      <c r="N5" s="25"/>
+      <c r="O5" s="25"/>
+      <c r="P5" s="25">
         <v>-1</v>
       </c>
-      <c r="Q5" s="26">
+      <c r="Q5" s="25">
         <v>10</v>
       </c>
-      <c r="R5" s="26"/>
-      <c r="S5" s="26"/>
-      <c r="T5" s="26">
+      <c r="R5" s="25"/>
+      <c r="S5" s="25"/>
+      <c r="T5" s="25">
         <v>0.67</v>
       </c>
-      <c r="U5" s="26">
+      <c r="U5" s="25">
         <v>0.67</v>
       </c>
-      <c r="V5" s="26"/>
-      <c r="W5" s="26"/>
-      <c r="X5" s="26"/>
-      <c r="Y5" s="26"/>
+      <c r="V5" s="25"/>
+      <c r="W5" s="25"/>
+      <c r="X5" s="25"/>
+      <c r="Y5" s="25"/>
     </row>
     <row r="6" spans="1:25">
       <c r="A6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B6" t="s">
-        <v>171</v>
-      </c>
-      <c r="C6" s="18" t="s">
-        <v>182</v>
-      </c>
-      <c r="D6" s="26">
+        <v>170</v>
+      </c>
+      <c r="C6" s="17" t="s">
+        <v>181</v>
+      </c>
+      <c r="D6" s="25">
         <v>2.7</v>
       </c>
-      <c r="E6" s="26">
+      <c r="E6" s="25">
         <v>3.25</v>
       </c>
-      <c r="F6" s="26">
+      <c r="F6" s="25">
         <v>1.3</v>
       </c>
-      <c r="G6" s="26">
+      <c r="G6" s="25">
         <v>2</v>
       </c>
-      <c r="H6" s="26">
+      <c r="H6" s="25">
         <v>0.2</v>
       </c>
-      <c r="I6" s="26">
+      <c r="I6" s="25">
         <v>0.5</v>
       </c>
-      <c r="J6" s="26"/>
-      <c r="K6" s="26"/>
-      <c r="L6" s="26">
+      <c r="J6" s="25"/>
+      <c r="K6" s="25"/>
+      <c r="L6" s="25">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="M6" s="26">
+      <c r="M6" s="25">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="N6" s="26">
+      <c r="N6" s="25">
         <v>5.0000000000000001E-4</v>
       </c>
-      <c r="O6" s="26">
+      <c r="O6" s="25">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="P6" s="26">
+      <c r="P6" s="25">
         <v>28</v>
       </c>
-      <c r="Q6" s="26">
+      <c r="Q6" s="25">
         <v>84</v>
       </c>
-      <c r="R6" s="26">
+      <c r="R6" s="25">
         <v>0.25</v>
       </c>
-      <c r="S6" s="26">
+      <c r="S6" s="25">
         <v>0.75</v>
       </c>
-      <c r="T6" s="26">
+      <c r="T6" s="25">
         <v>0.6</v>
       </c>
-      <c r="U6" s="26">
+      <c r="U6" s="25">
         <v>0.6</v>
       </c>
-      <c r="V6" s="26">
+      <c r="V6" s="25">
         <v>1</v>
       </c>
-      <c r="W6" s="26">
+      <c r="W6" s="25">
         <v>1</v>
       </c>
-      <c r="X6" s="26">
+      <c r="X6" s="25">
         <v>0.3</v>
       </c>
-      <c r="Y6" s="26">
+      <c r="Y6" s="25">
         <v>0.7</v>
       </c>
     </row>
     <row r="7" spans="1:25">
       <c r="A7" t="s">
+        <v>182</v>
+      </c>
+      <c r="B7" t="s">
+        <v>168</v>
+      </c>
+      <c r="C7" s="17" t="s">
         <v>183</v>
       </c>
-      <c r="B7" t="s">
-        <v>169</v>
-      </c>
-      <c r="C7" s="18" t="s">
-        <v>184</v>
-      </c>
-      <c r="D7" s="26"/>
-      <c r="E7" s="26"/>
-      <c r="F7" s="26"/>
-      <c r="G7" s="26"/>
-      <c r="H7" s="26">
+      <c r="D7" s="25"/>
+      <c r="E7" s="25"/>
+      <c r="F7" s="25"/>
+      <c r="G7" s="25"/>
+      <c r="H7" s="25">
         <v>0.2</v>
       </c>
-      <c r="I7" s="26">
+      <c r="I7" s="25">
         <v>0.3</v>
       </c>
-      <c r="J7" s="26">
+      <c r="J7" s="25">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="K7" s="26">
+      <c r="K7" s="25">
         <v>0.04</v>
       </c>
-      <c r="L7" s="26">
+      <c r="L7" s="25">
         <v>8.0000000000000004E-4</v>
       </c>
-      <c r="M7" s="26">
+      <c r="M7" s="25">
         <v>5.3E-3</v>
       </c>
-      <c r="N7" s="26">
+      <c r="N7" s="25">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="O7" s="26">
+      <c r="O7" s="25">
         <v>1.2999999999999999E-2</v>
       </c>
-      <c r="P7" s="26">
+      <c r="P7" s="25">
         <v>-112</v>
       </c>
-      <c r="Q7" s="26">
+      <c r="Q7" s="25">
         <v>112</v>
       </c>
-      <c r="R7" s="26">
+      <c r="R7" s="25">
         <v>0.8</v>
       </c>
-      <c r="S7" s="26">
+      <c r="S7" s="25">
         <v>0.8</v>
       </c>
-      <c r="T7" s="26"/>
-      <c r="U7" s="26"/>
-      <c r="V7" s="26"/>
-      <c r="W7" s="26"/>
-      <c r="X7" s="26">
+      <c r="T7" s="25"/>
+      <c r="U7" s="25"/>
+      <c r="V7" s="25"/>
+      <c r="W7" s="25"/>
+      <c r="X7" s="25">
         <v>0.4</v>
       </c>
-      <c r="Y7" s="26">
+      <c r="Y7" s="25">
         <v>0.8</v>
       </c>
     </row>
     <row r="8" spans="1:25">
       <c r="A8" t="s">
+        <v>184</v>
+      </c>
+      <c r="B8" t="s">
         <v>185</v>
       </c>
-      <c r="B8" t="s">
-        <v>186</v>
-      </c>
-      <c r="C8" s="18" t="s">
-        <v>182</v>
-      </c>
-      <c r="D8" s="26">
+      <c r="C8" s="17" t="s">
+        <v>181</v>
+      </c>
+      <c r="D8" s="25">
         <v>1.5</v>
       </c>
-      <c r="E8" s="26">
+      <c r="E8" s="25">
         <v>3.38</v>
       </c>
-      <c r="F8" s="26">
+      <c r="F8" s="25">
         <v>1.3</v>
       </c>
-      <c r="G8" s="26">
+      <c r="G8" s="25">
         <v>2</v>
       </c>
-      <c r="H8" s="26"/>
-      <c r="I8" s="26"/>
-      <c r="J8" s="26"/>
-      <c r="K8" s="26"/>
-      <c r="L8" s="26"/>
-      <c r="M8" s="26"/>
-      <c r="N8" s="26">
+      <c r="H8" s="25"/>
+      <c r="I8" s="25"/>
+      <c r="J8" s="25"/>
+      <c r="K8" s="25"/>
+      <c r="L8" s="25"/>
+      <c r="M8" s="25"/>
+      <c r="N8" s="25">
         <v>1.7000000000000001E-2</v>
       </c>
-      <c r="O8" s="26">
+      <c r="O8" s="25">
         <v>1.7000000000000001E-2</v>
       </c>
-      <c r="P8" s="26">
+      <c r="P8" s="25">
         <v>-14</v>
       </c>
-      <c r="Q8" s="26">
+      <c r="Q8" s="25">
         <v>28</v>
       </c>
-      <c r="R8" s="26">
+      <c r="R8" s="25">
         <v>0</v>
       </c>
-      <c r="S8" s="26">
+      <c r="S8" s="25">
         <v>0.5</v>
       </c>
-      <c r="T8" s="26">
+      <c r="T8" s="25">
         <v>0.6</v>
       </c>
-      <c r="U8" s="26">
+      <c r="U8" s="25">
         <v>0.6</v>
       </c>
-      <c r="V8" s="26">
+      <c r="V8" s="25">
         <v>0.5</v>
       </c>
-      <c r="W8" s="26">
+      <c r="W8" s="25">
         <v>0.5</v>
       </c>
-      <c r="X8" s="26">
+      <c r="X8" s="25">
         <v>0.3</v>
       </c>
-      <c r="Y8" s="26">
+      <c r="Y8" s="25">
         <v>0.8</v>
       </c>
     </row>
     <row r="9" spans="1:25">
       <c r="A9" t="s">
+        <v>186</v>
+      </c>
+      <c r="B9" t="s">
         <v>187</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" s="17" t="s">
         <v>188</v>
       </c>
-      <c r="C9" s="18" t="s">
-        <v>189</v>
-      </c>
-      <c r="D9" s="18">
+      <c r="D9" s="17">
         <v>4</v>
       </c>
-      <c r="E9" s="18">
+      <c r="E9" s="17">
         <v>6</v>
       </c>
-      <c r="F9" s="18">
+      <c r="F9" s="17">
         <v>1.4</v>
       </c>
-      <c r="G9" s="18">
+      <c r="G9" s="17">
         <v>1.4</v>
       </c>
-      <c r="H9" s="18">
+      <c r="H9" s="17">
         <v>0.3</v>
       </c>
-      <c r="L9" s="18">
+      <c r="L9" s="17">
         <v>1E-4</v>
       </c>
-      <c r="M9" s="18">
+      <c r="M9" s="17">
         <v>4.0000000000000002E-4</v>
       </c>
-      <c r="P9" s="18">
+      <c r="P9" s="17">
         <v>100</v>
       </c>
-      <c r="Q9" s="18">
+      <c r="Q9" s="17">
         <v>210</v>
       </c>
     </row>
     <row r="10" spans="1:25">
       <c r="A10" t="s">
+        <v>189</v>
+      </c>
+      <c r="B10" t="s">
         <v>190</v>
       </c>
-      <c r="B10" t="s">
-        <v>191</v>
-      </c>
-      <c r="C10" s="18" t="s">
-        <v>182</v>
-      </c>
-      <c r="H10" s="18">
+      <c r="C10" s="17" t="s">
+        <v>181</v>
+      </c>
+      <c r="H10" s="17">
         <v>0.33500000000000002</v>
       </c>
-      <c r="I10" s="18">
+      <c r="I10" s="17">
         <v>0.33500000000000002</v>
       </c>
     </row>
     <row r="11" spans="1:25">
       <c r="A11" t="s">
+        <v>191</v>
+      </c>
+      <c r="B11" t="s">
         <v>192</v>
       </c>
-      <c r="B11" t="s">
-        <v>193</v>
-      </c>
       <c r="C11" t="s">
-        <v>172</v>
-      </c>
-      <c r="D11" s="18">
+        <v>171</v>
+      </c>
+      <c r="D11" s="17">
         <v>1</v>
       </c>
-      <c r="E11" s="18">
+      <c r="E11" s="17">
         <v>2</v>
       </c>
-      <c r="F11" s="18">
+      <c r="F11" s="17">
         <v>1.5</v>
       </c>
-      <c r="G11" s="18">
+      <c r="G11" s="17">
         <v>2.5</v>
       </c>
-      <c r="H11" s="18">
+      <c r="H11" s="17">
         <v>0</v>
       </c>
-      <c r="I11" s="18">
+      <c r="I11" s="17">
         <v>0.7</v>
       </c>
-      <c r="P11" s="18">
+      <c r="P11" s="17">
         <v>60</v>
       </c>
-      <c r="Q11" s="18">
+      <c r="Q11" s="17">
         <v>180</v>
       </c>
-      <c r="R11" s="18">
+      <c r="R11" s="17">
         <v>0.5</v>
       </c>
-      <c r="S11" s="18">
+      <c r="S11" s="17">
         <v>1</v>
       </c>
-      <c r="X11" s="18">
+      <c r="X11" s="17">
         <v>0</v>
       </c>
-      <c r="Y11" s="18">
+      <c r="Y11" s="17">
         <v>0.1</v>
       </c>
     </row>
     <row r="12" spans="1:25">
       <c r="A12" t="s">
+        <v>193</v>
+      </c>
+      <c r="B12" t="s">
         <v>194</v>
       </c>
-      <c r="B12" t="s">
-        <v>195</v>
-      </c>
-      <c r="C12" s="18" t="s">
-        <v>172</v>
-      </c>
-      <c r="D12" s="18">
+      <c r="C12" s="17" t="s">
+        <v>171</v>
+      </c>
+      <c r="D12" s="17">
         <v>1.95</v>
       </c>
-      <c r="E12" s="18">
+      <c r="E12" s="17">
         <v>1.6</v>
       </c>
-      <c r="F12" s="18">
+      <c r="F12" s="17">
         <v>1.73</v>
       </c>
-      <c r="G12" s="18">
+      <c r="G12" s="17">
         <v>1.73</v>
       </c>
-      <c r="H12" s="18">
+      <c r="H12" s="17">
         <v>0.6</v>
       </c>
-      <c r="I12" s="18">
+      <c r="I12" s="17">
         <v>0.8</v>
       </c>
-      <c r="P12" s="18">
+      <c r="P12" s="17">
         <v>36</v>
       </c>
-      <c r="Q12" s="18">
+      <c r="Q12" s="17">
         <v>86</v>
       </c>
-      <c r="R12" s="18">
+      <c r="R12" s="17">
         <v>0.35</v>
       </c>
-      <c r="S12" s="18">
+      <c r="S12" s="17">
         <v>0.35</v>
       </c>
-      <c r="X12" s="18">
+      <c r="X12" s="17">
         <v>0.56000000000000005</v>
       </c>
-      <c r="Y12" s="18">
+      <c r="Y12" s="17">
         <v>0.8</v>
       </c>
     </row>
@@ -3426,7 +3423,7 @@
   <cols>
     <col min="1" max="1" width="14.5" style="10" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="24.33203125" style="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="10.83203125" style="20"/>
+    <col min="3" max="4" width="10.83203125" style="19"/>
     <col min="5" max="5" width="32" customWidth="1"/>
     <col min="6" max="7" width="1.6640625" customWidth="1"/>
     <col min="8" max="8" width="24.33203125" bestFit="1" customWidth="1"/>
@@ -3436,358 +3433,358 @@
     <col min="12" max="12" width="14.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="18" customFormat="1">
-      <c r="A1" s="20" t="s">
+    <row r="1" spans="1:12" s="17" customFormat="1">
+      <c r="A1" s="19" t="s">
+        <v>139</v>
+      </c>
+      <c r="B1" s="19" t="s">
         <v>140</v>
       </c>
-      <c r="B1" s="20" t="s">
-        <v>141</v>
-      </c>
-      <c r="C1" s="20" t="s">
+      <c r="C1" s="19" t="s">
+        <v>129</v>
+      </c>
+      <c r="D1" s="19" t="s">
         <v>130</v>
       </c>
-      <c r="D1" s="20" t="s">
+      <c r="E1" s="17" t="s">
         <v>131</v>
-      </c>
-      <c r="E1" s="18" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="10" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>136</v>
-      </c>
-      <c r="C2" s="21">
+        <v>135</v>
+      </c>
+      <c r="C2" s="20">
         <v>0.2</v>
       </c>
-      <c r="D2" s="21">
+      <c r="D2" s="20">
         <v>0.3</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" s="10" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>125</v>
-      </c>
-      <c r="C3" s="21">
+        <v>124</v>
+      </c>
+      <c r="C3" s="20">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="D3" s="21">
+      <c r="D3" s="20">
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="10" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>126</v>
-      </c>
-      <c r="C4" s="21">
+        <v>125</v>
+      </c>
+      <c r="C4" s="20">
         <v>8.0000000000000004E-4</v>
       </c>
-      <c r="D4" s="21">
+      <c r="D4" s="20">
         <v>5.3E-3</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="10" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>127</v>
-      </c>
-      <c r="C5" s="21">
+        <v>126</v>
+      </c>
+      <c r="C5" s="20">
         <v>0.8</v>
       </c>
-      <c r="D5" s="21">
+      <c r="D5" s="20">
         <v>0.8</v>
       </c>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="10" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>134</v>
-      </c>
-      <c r="C6" s="21">
+        <v>133</v>
+      </c>
+      <c r="C6" s="20">
         <v>10</v>
       </c>
-      <c r="D6" s="21">
+      <c r="D6" s="20">
         <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="30">
       <c r="A7" s="10" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>128</v>
-      </c>
-      <c r="C7" s="21">
+        <v>127</v>
+      </c>
+      <c r="C7" s="20">
         <v>0.43</v>
       </c>
-      <c r="D7" s="21">
+      <c r="D7" s="20">
         <v>0.8</v>
       </c>
-      <c r="E7" s="19" t="s">
-        <v>137</v>
+      <c r="E7" s="18" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="10" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>133</v>
-      </c>
-      <c r="C8" s="20">
+        <v>132</v>
+      </c>
+      <c r="C8" s="19">
         <v>-112</v>
       </c>
-      <c r="D8" s="20">
+      <c r="D8" s="19">
         <v>112</v>
       </c>
-      <c r="I8" s="22" t="s">
-        <v>142</v>
+      <c r="I8" s="21" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="B9" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="B9" s="10" t="s">
-        <v>136</v>
-      </c>
-      <c r="C9" s="21">
+      <c r="C9" s="20">
         <v>0.2</v>
       </c>
-      <c r="D9" s="21">
+      <c r="D9" s="20">
         <v>0.5</v>
       </c>
       <c r="I9" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="K9" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>125</v>
-      </c>
-      <c r="C10" s="21">
+        <v>124</v>
+      </c>
+      <c r="C10" s="20">
         <v>0.01</v>
       </c>
-      <c r="D10" s="21">
+      <c r="D10" s="20">
         <v>0.01</v>
       </c>
-      <c r="H10" s="22" t="s">
+      <c r="H10" s="21" t="s">
+        <v>142</v>
+      </c>
+      <c r="I10" t="s">
         <v>143</v>
       </c>
-      <c r="I10" t="s">
+      <c r="J10" t="s">
         <v>144</v>
       </c>
-      <c r="J10" t="s">
-        <v>145</v>
-      </c>
       <c r="K10" t="s">
+        <v>143</v>
+      </c>
+      <c r="L10" t="s">
         <v>144</v>
-      </c>
-      <c r="L10" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>126</v>
-      </c>
-      <c r="C11" s="21">
+        <v>125</v>
+      </c>
+      <c r="C11" s="20">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="D11" s="21">
+      <c r="D11" s="20">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="H11" s="17" t="s">
-        <v>126</v>
-      </c>
-      <c r="I11" s="23">
+      <c r="H11" s="16" t="s">
+        <v>125</v>
+      </c>
+      <c r="I11" s="22">
         <v>8.0000000000000004E-4</v>
       </c>
-      <c r="J11" s="23">
+      <c r="J11" s="22">
         <v>5.3E-3</v>
       </c>
-      <c r="K11" s="23">
+      <c r="K11" s="22">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="L11" s="23">
+      <c r="L11" s="22">
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
     <row r="12" spans="1:12">
       <c r="A12" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="C12" s="20">
+        <v>0.26</v>
+      </c>
+      <c r="D12" s="20">
+        <v>0.75</v>
+      </c>
+      <c r="E12" t="s">
+        <v>138</v>
+      </c>
+      <c r="H12" s="16" t="s">
         <v>135</v>
       </c>
-      <c r="B12" s="10" t="s">
-        <v>127</v>
-      </c>
-      <c r="C12" s="21">
-        <v>0.26</v>
-      </c>
-      <c r="D12" s="21">
-        <v>0.75</v>
-      </c>
-      <c r="E12" t="s">
-        <v>139</v>
-      </c>
-      <c r="H12" s="17" t="s">
-        <v>136</v>
-      </c>
-      <c r="I12" s="23">
+      <c r="I12" s="22">
         <v>0.2</v>
       </c>
-      <c r="J12" s="23">
+      <c r="J12" s="22">
         <v>0.3</v>
       </c>
-      <c r="K12" s="23">
+      <c r="K12" s="22">
         <v>0.2</v>
       </c>
-      <c r="L12" s="23">
+      <c r="L12" s="22">
         <v>0.5</v>
       </c>
     </row>
     <row r="13" spans="1:12">
       <c r="A13" s="10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>134</v>
-      </c>
-      <c r="C13" s="21">
+        <v>133</v>
+      </c>
+      <c r="C13" s="20">
         <v>0.15</v>
       </c>
-      <c r="D13" s="21">
+      <c r="D13" s="20">
         <v>3.75</v>
       </c>
-      <c r="H13" s="17" t="s">
-        <v>125</v>
-      </c>
-      <c r="I13" s="23">
+      <c r="H13" s="16" t="s">
+        <v>124</v>
+      </c>
+      <c r="I13" s="22">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="J13" s="23">
+      <c r="J13" s="22">
         <v>4.2000000000000003E-2</v>
       </c>
-      <c r="K13" s="23">
+      <c r="K13" s="22">
         <v>0.01</v>
       </c>
-      <c r="L13" s="23">
+      <c r="L13" s="22">
         <v>0.01</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="30">
       <c r="A14" s="10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>128</v>
-      </c>
-      <c r="C14" s="21">
+        <v>127</v>
+      </c>
+      <c r="C14" s="20">
         <v>0.3</v>
       </c>
-      <c r="D14" s="21">
+      <c r="D14" s="20">
         <v>0.7</v>
       </c>
-      <c r="E14" s="19" t="s">
-        <v>138</v>
-      </c>
-      <c r="H14" s="17" t="s">
-        <v>134</v>
-      </c>
-      <c r="I14" s="23">
+      <c r="E14" s="18" t="s">
+        <v>137</v>
+      </c>
+      <c r="H14" s="16" t="s">
+        <v>133</v>
+      </c>
+      <c r="I14" s="22">
         <v>10</v>
       </c>
-      <c r="J14" s="23">
+      <c r="J14" s="22">
         <v>30</v>
       </c>
-      <c r="K14" s="23">
+      <c r="K14" s="22">
         <v>0.15</v>
       </c>
-      <c r="L14" s="23">
+      <c r="L14" s="22">
         <v>3.75</v>
       </c>
     </row>
     <row r="15" spans="1:12">
       <c r="A15" s="10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>133</v>
-      </c>
-      <c r="C15" s="20">
+        <v>132</v>
+      </c>
+      <c r="C15" s="19">
         <v>30</v>
       </c>
-      <c r="D15" s="20">
+      <c r="D15" s="19">
         <v>90</v>
       </c>
-      <c r="H15" s="17" t="s">
+      <c r="H15" s="16" t="s">
+        <v>126</v>
+      </c>
+      <c r="I15" s="22">
+        <v>0.8</v>
+      </c>
+      <c r="J15" s="22">
+        <v>0.8</v>
+      </c>
+      <c r="K15" s="22">
+        <v>0.26</v>
+      </c>
+      <c r="L15" s="22">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="H16" s="16" t="s">
         <v>127</v>
       </c>
-      <c r="I15" s="23">
+      <c r="I16" s="22">
+        <v>0.43</v>
+      </c>
+      <c r="J16" s="22">
         <v>0.8</v>
       </c>
-      <c r="J15" s="23">
-        <v>0.8</v>
-      </c>
-      <c r="K15" s="23">
-        <v>0.26</v>
-      </c>
-      <c r="L15" s="23">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
-      <c r="H16" s="17" t="s">
-        <v>128</v>
-      </c>
-      <c r="I16" s="23">
-        <v>0.43</v>
-      </c>
-      <c r="J16" s="23">
-        <v>0.8</v>
-      </c>
-      <c r="K16" s="23">
+      <c r="K16" s="22">
         <v>0.3</v>
       </c>
-      <c r="L16" s="23">
+      <c r="L16" s="22">
         <v>0.7</v>
       </c>
     </row>
     <row r="17" spans="8:12">
-      <c r="H17" s="17" t="s">
-        <v>133</v>
-      </c>
-      <c r="I17" s="23">
+      <c r="H17" s="16" t="s">
+        <v>132</v>
+      </c>
+      <c r="I17" s="22">
         <v>-112</v>
       </c>
-      <c r="J17" s="23">
+      <c r="J17" s="22">
         <v>112</v>
       </c>
-      <c r="K17" s="23">
+      <c r="K17" s="22">
         <v>30</v>
       </c>
-      <c r="L17" s="23">
+      <c r="L17" s="22">
         <v>90</v>
       </c>
     </row>

--- a/param-model/_all_param_value_source.xlsx
+++ b/param-model/_all_param_value_source.xlsx
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="202">
   <si>
     <t>PARAMETER</t>
   </si>
@@ -654,6 +654,24 @@
   </si>
   <si>
     <t>number of contacts per capita per day</t>
+  </si>
+  <si>
+    <t>unemployed_prop</t>
+  </si>
+  <si>
+    <t>Proportion of unemployed indiv age bw 18 and 65</t>
+  </si>
+  <si>
+    <t>Statistics Canada</t>
+  </si>
+  <si>
+    <t>pubT_prop</t>
+  </si>
+  <si>
+    <t>Proportion of working individuals using public transports</t>
+  </si>
+  <si>
+    <t>TTC</t>
   </si>
 </sst>
 </file>
@@ -784,8 +802,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="137">
+  <cellStyleXfs count="143">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -995,7 +1019,7 @@
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="137">
+  <cellStyles count="143">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -1064,6 +1088,9 @@
     <cellStyle name="Followed Hyperlink" xfId="132" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="134" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="136" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="138" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="140" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="142" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -1132,9 +1159,32 @@
     <cellStyle name="Hyperlink" xfId="131" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="133" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="135" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="137" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="139" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="141" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="4">
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C6500"/>
@@ -1740,8 +1790,8 @@
   <dimension ref="B1:H63"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="145" zoomScaleNormal="145" zoomScalePageLayoutView="145" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F29" sqref="F29"/>
+      <pane ySplit="1" topLeftCell="A31" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C48" sqref="C48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2661,11 +2711,43 @@
       </c>
       <c r="H45" s="13"/>
     </row>
-    <row r="46" spans="2:8">
-      <c r="H46" s="15"/>
-    </row>
-    <row r="47" spans="2:8">
-      <c r="H47" s="15"/>
+    <row r="46" spans="2:8" ht="30">
+      <c r="B46" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="D46" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="E46" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="F46" s="4"/>
+      <c r="G46" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="H46" s="13"/>
+    </row>
+    <row r="47" spans="2:8" ht="30">
+      <c r="B47" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="D47" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="E47" s="4">
+        <v>0.12</v>
+      </c>
+      <c r="F47" s="4"/>
+      <c r="G47" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="H47" s="13"/>
     </row>
     <row r="48" spans="2:8">
       <c r="H48" s="15"/>
@@ -2716,14 +2798,19 @@
       <c r="H63" s="9"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="G2:G57">
-    <cfRule type="expression" dxfId="1" priority="2">
+  <conditionalFormatting sqref="G2:G45 G48:G57">
+    <cfRule type="expression" dxfId="3" priority="3">
       <formula>G2="Arbitrary"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G12:G13">
-    <cfRule type="expression" dxfId="0" priority="1">
+    <cfRule type="expression" dxfId="2" priority="2">
       <formula>G12="Arbitrary"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G46:G47">
+    <cfRule type="expression" dxfId="1" priority="1">
+      <formula>G46="Arbitrary"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/param-model/_all_param_value_source.xlsx
+++ b/param-model/_all_param_value_source.xlsx
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="203">
   <si>
     <t>PARAMETER</t>
   </si>
@@ -184,9 +184,6 @@
   </si>
   <si>
     <t>based on influenza hospitalization rates for age group "&lt;1yr old"</t>
-  </si>
-  <si>
-    <t>based on influenza hospitalization rates for all age groups and proportion population with pre-existing cardio/respiratory conditions</t>
   </si>
   <si>
     <t>frailty_agemin</t>
@@ -672,6 +669,12 @@
   </si>
   <si>
     <t>TTC</t>
+  </si>
+  <si>
+    <t>Fitted on influenza hospitalization rates for all age groups and proportion population with pre-existing cardio/respiratory conditions</t>
+  </si>
+  <si>
+    <t>based on influenza hospitalization rates by age groups</t>
   </si>
 </sst>
 </file>
@@ -802,8 +805,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="143">
+  <cellStyleXfs count="151">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1019,7 +1030,7 @@
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="143">
+  <cellStyles count="151">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -1091,6 +1102,10 @@
     <cellStyle name="Followed Hyperlink" xfId="138" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="140" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="142" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="144" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="146" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="148" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="150" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -1162,6 +1177,10 @@
     <cellStyle name="Hyperlink" xfId="137" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="139" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="141" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="143" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="145" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="147" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="149" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="4">
@@ -1790,8 +1809,8 @@
   <dimension ref="B1:H63"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="145" zoomScaleNormal="145" zoomScalePageLayoutView="145" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A31" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C48" sqref="C48"/>
+      <pane ySplit="1" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1865,10 +1884,10 @@
         <v>9</v>
       </c>
       <c r="G3" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="H3" s="12" t="s">
         <v>111</v>
-      </c>
-      <c r="H3" s="12" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="4" spans="2:8" ht="66">
@@ -1888,7 +1907,7 @@
         <v>10</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H4" s="12"/>
     </row>
@@ -1909,10 +1928,10 @@
         <v>9</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H5" s="12" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="6" spans="2:8" ht="66">
@@ -1932,7 +1951,7 @@
         <v>10</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H6" s="12"/>
     </row>
@@ -2010,10 +2029,10 @@
         <v>9</v>
       </c>
       <c r="G10" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="H10" s="13" t="s">
         <v>108</v>
-      </c>
-      <c r="H10" s="13" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="11" spans="2:8" ht="22">
@@ -2033,7 +2052,7 @@
         <v>10</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H11" s="13"/>
     </row>
@@ -2042,17 +2061,17 @@
         <v>12</v>
       </c>
       <c r="C12" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="D12" s="5" t="s">
         <v>106</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>107</v>
       </c>
       <c r="E12" s="4" t="s">
         <v>20</v>
       </c>
       <c r="F12" s="4"/>
       <c r="G12" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H12" s="13"/>
     </row>
@@ -2061,20 +2080,20 @@
         <v>12</v>
       </c>
       <c r="C13" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="D13" s="5" t="s">
         <v>115</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>116</v>
       </c>
       <c r="E13" s="4" t="s">
         <v>26</v>
       </c>
       <c r="F13" s="4"/>
       <c r="G13" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="H13" s="13" t="s">
         <v>117</v>
-      </c>
-      <c r="H13" s="13" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="14" spans="2:8" ht="66">
@@ -2082,23 +2101,23 @@
         <v>12</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E14" s="4">
         <v>0.1</v>
       </c>
       <c r="F14" s="4"/>
       <c r="G14" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="H14" s="12" t="s">
         <v>113</v>
       </c>
-      <c r="H14" s="12" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="15" spans="2:8" ht="22">
+    </row>
+    <row r="15" spans="2:8">
       <c r="B15" s="4" t="s">
         <v>34</v>
       </c>
@@ -2112,14 +2131,12 @@
         <v>0.6</v>
       </c>
       <c r="F15" s="4"/>
-      <c r="G15" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="H15" s="12" t="s">
+      <c r="G15" s="12" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="16" spans="2:8" ht="30">
+      <c r="H15" s="12"/>
+    </row>
+    <row r="16" spans="2:8" ht="33">
       <c r="B16" s="4" t="s">
         <v>34</v>
       </c>
@@ -2133,8 +2150,8 @@
         <v>1</v>
       </c>
       <c r="F16" s="4"/>
-      <c r="G16" s="6" t="s">
-        <v>23</v>
+      <c r="G16" s="12" t="s">
+        <v>201</v>
       </c>
       <c r="H16" s="13"/>
     </row>
@@ -2152,96 +2169,88 @@
         <v>0.12</v>
       </c>
       <c r="F17" s="4"/>
-      <c r="G17" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="H17" s="12" t="s">
-        <v>42</v>
-      </c>
+      <c r="G17" s="12" t="s">
+        <v>201</v>
+      </c>
+      <c r="H17" s="13"/>
     </row>
     <row r="18" spans="2:8" ht="33">
       <c r="B18" s="4" t="s">
         <v>34</v>
       </c>
       <c r="C18" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D18" s="5" t="s">
         <v>43</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>44</v>
       </c>
       <c r="E18" s="4">
         <v>30</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="G18" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="H18" s="12" t="s">
-        <v>42</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="G18" s="12" t="s">
+        <v>201</v>
+      </c>
+      <c r="H18" s="13"/>
     </row>
     <row r="19" spans="2:8" ht="33">
       <c r="B19" s="4" t="s">
         <v>34</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E19" s="4">
         <v>60</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="G19" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="H19" s="12" t="s">
-        <v>42</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="G19" s="12" t="s">
+        <v>201</v>
+      </c>
+      <c r="H19" s="13"/>
     </row>
     <row r="20" spans="2:8" ht="33">
       <c r="B20" s="4" t="s">
         <v>34</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E20" s="4">
         <v>0.43</v>
       </c>
       <c r="F20" s="4"/>
-      <c r="G20" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="H20" s="12" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="21" spans="2:8" ht="30">
+      <c r="G20" s="12" t="s">
+        <v>201</v>
+      </c>
+      <c r="H20" s="13"/>
+    </row>
+    <row r="21" spans="2:8" ht="33">
       <c r="B21" s="4" t="s">
         <v>34</v>
       </c>
       <c r="C21" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D21" s="5" t="s">
         <v>48</v>
-      </c>
-      <c r="D21" s="5" t="s">
-        <v>49</v>
       </c>
       <c r="E21" s="4">
         <v>0.1</v>
       </c>
       <c r="F21" s="4"/>
-      <c r="G21" s="6" t="s">
-        <v>23</v>
+      <c r="G21" s="12" t="s">
+        <v>201</v>
       </c>
       <c r="H21" s="12"/>
     </row>
@@ -2250,17 +2259,17 @@
         <v>34</v>
       </c>
       <c r="C22" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D22" s="5" t="s">
         <v>50</v>
-      </c>
-      <c r="D22" s="5" t="s">
-        <v>51</v>
       </c>
       <c r="E22" s="4">
         <v>0.2</v>
       </c>
       <c r="F22" s="4"/>
       <c r="G22" s="6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H22" s="13"/>
     </row>
@@ -2269,19 +2278,19 @@
         <v>34</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E23" s="4">
         <v>120</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G23" s="6" t="s">
-        <v>23</v>
+        <v>202</v>
       </c>
       <c r="H23" s="13"/>
     </row>
@@ -2290,10 +2299,10 @@
         <v>34</v>
       </c>
       <c r="C24" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D24" s="5" t="s">
         <v>54</v>
-      </c>
-      <c r="D24" s="5" t="s">
-        <v>55</v>
       </c>
       <c r="E24" s="4">
         <v>2</v>
@@ -2309,17 +2318,17 @@
         <v>34</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E25" s="4">
         <v>0.4</v>
       </c>
       <c r="F25" s="4"/>
       <c r="G25" s="6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H25" s="13"/>
     </row>
@@ -2328,10 +2337,10 @@
         <v>34</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E26" s="4">
         <v>2</v>
@@ -2347,16 +2356,16 @@
         <v>34</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E27" s="4">
         <v>20</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G27" s="6" t="s">
         <v>23</v>
@@ -2365,34 +2374,34 @@
     </row>
     <row r="28" spans="2:8" ht="45">
       <c r="B28" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C28" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D28" s="5" t="s">
         <v>62</v>
-      </c>
-      <c r="D28" s="5" t="s">
-        <v>63</v>
       </c>
       <c r="E28" s="4" t="s">
         <v>26</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="G28" s="6"/>
       <c r="H28" s="13" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="29" spans="2:8">
       <c r="B29" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C29" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="D29" s="5" t="s">
         <v>64</v>
-      </c>
-      <c r="D29" s="5" t="s">
-        <v>65</v>
       </c>
       <c r="E29" s="4" t="s">
         <v>26</v>
@@ -2400,56 +2409,56 @@
       <c r="F29" s="4"/>
       <c r="G29" s="6"/>
       <c r="H29" s="13" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="30" spans="2:8" ht="77">
       <c r="B30" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C30" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="D30" s="5" t="s">
         <v>67</v>
-      </c>
-      <c r="D30" s="5" t="s">
-        <v>68</v>
       </c>
       <c r="E30" s="4">
         <v>15</v>
       </c>
       <c r="F30" s="4"/>
       <c r="G30" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H30" s="13"/>
     </row>
     <row r="31" spans="2:8" ht="66">
       <c r="B31" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C31" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D31" s="5" t="s">
         <v>69</v>
-      </c>
-      <c r="D31" s="5" t="s">
-        <v>70</v>
       </c>
       <c r="E31" s="4">
         <v>3</v>
       </c>
       <c r="F31" s="4"/>
       <c r="G31" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H31" s="13"/>
     </row>
     <row r="32" spans="2:8" ht="30">
       <c r="B32" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C32" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="D32" s="5" t="s">
         <v>71</v>
-      </c>
-      <c r="D32" s="5" t="s">
-        <v>72</v>
       </c>
       <c r="E32" s="4">
         <v>1</v>
@@ -2462,13 +2471,13 @@
     </row>
     <row r="33" spans="2:8" ht="30">
       <c r="B33" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C33" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="D33" s="5" t="s">
         <v>73</v>
-      </c>
-      <c r="D33" s="5" t="s">
-        <v>74</v>
       </c>
       <c r="E33" s="4">
         <v>1</v>
@@ -2481,13 +2490,13 @@
     </row>
     <row r="34" spans="2:8" ht="30">
       <c r="B34" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C34" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="D34" s="5" t="s">
         <v>75</v>
-      </c>
-      <c r="D34" s="5" t="s">
-        <v>76</v>
       </c>
       <c r="E34" s="4">
         <v>1</v>
@@ -2500,13 +2509,13 @@
     </row>
     <row r="35" spans="2:8">
       <c r="B35" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C35" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="D35" s="5" t="s">
         <v>77</v>
-      </c>
-      <c r="D35" s="5" t="s">
-        <v>78</v>
       </c>
       <c r="E35" s="4">
         <v>1</v>
@@ -2519,13 +2528,13 @@
     </row>
     <row r="36" spans="2:8" ht="45">
       <c r="B36" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C36" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="D36" s="5" t="s">
         <v>79</v>
-      </c>
-      <c r="D36" s="5" t="s">
-        <v>80</v>
       </c>
       <c r="E36" s="4">
         <v>0.1</v>
@@ -2538,13 +2547,13 @@
     </row>
     <row r="37" spans="2:8" ht="30">
       <c r="B37" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C37" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="C37" s="4" t="s">
+      <c r="D37" s="5" t="s">
         <v>82</v>
-      </c>
-      <c r="D37" s="5" t="s">
-        <v>83</v>
       </c>
       <c r="E37" s="4">
         <v>0.98</v>
@@ -2557,13 +2566,13 @@
     </row>
     <row r="38" spans="2:8" ht="30">
       <c r="B38" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C38" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="D38" s="5" t="s">
         <v>84</v>
-      </c>
-      <c r="D38" s="5" t="s">
-        <v>85</v>
       </c>
       <c r="E38" s="4">
         <v>0.4</v>
@@ -2576,13 +2585,13 @@
     </row>
     <row r="39" spans="2:8" ht="30">
       <c r="B39" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C39" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="D39" s="5" t="s">
         <v>86</v>
-      </c>
-      <c r="D39" s="5" t="s">
-        <v>87</v>
       </c>
       <c r="E39" s="4">
         <v>0.2</v>
@@ -2595,13 +2604,13 @@
     </row>
     <row r="40" spans="2:8" ht="45">
       <c r="B40" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="C40" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="C40" s="4" t="s">
+      <c r="D40" s="5" t="s">
         <v>92</v>
-      </c>
-      <c r="D40" s="5" t="s">
-        <v>93</v>
       </c>
       <c r="E40" s="4">
         <v>1</v>
@@ -2610,19 +2619,19 @@
         <v>9</v>
       </c>
       <c r="G40" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H40" s="13"/>
     </row>
     <row r="41" spans="2:8" ht="45">
       <c r="B41" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C41" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="D41" s="5" t="s">
         <v>95</v>
-      </c>
-      <c r="D41" s="5" t="s">
-        <v>96</v>
       </c>
       <c r="E41" s="4">
         <v>0.1</v>
@@ -2632,120 +2641,120 @@
         <v>23</v>
       </c>
       <c r="H41" s="13" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="42" spans="2:8" ht="30">
       <c r="B42" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C42" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="D42" s="5" t="s">
         <v>97</v>
-      </c>
-      <c r="D42" s="5" t="s">
-        <v>98</v>
       </c>
       <c r="E42" s="4">
         <v>0.1</v>
       </c>
       <c r="F42" s="4"/>
       <c r="G42" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H42" s="13"/>
     </row>
     <row r="43" spans="2:8" ht="30">
       <c r="B43" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E43" s="4">
         <v>0.1</v>
       </c>
       <c r="F43" s="4"/>
       <c r="G43" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H43" s="13"/>
     </row>
     <row r="44" spans="2:8" ht="30">
       <c r="B44" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E44" s="4">
         <v>12</v>
       </c>
       <c r="F44" s="4"/>
       <c r="G44" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H44" s="13"/>
     </row>
     <row r="45" spans="2:8" ht="30">
       <c r="B45" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E45" s="4">
         <v>0</v>
       </c>
       <c r="F45" s="4"/>
       <c r="G45" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H45" s="13"/>
     </row>
     <row r="46" spans="2:8" ht="30">
       <c r="B46" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C46" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="D46" s="5" t="s">
         <v>196</v>
-      </c>
-      <c r="D46" s="5" t="s">
-        <v>197</v>
       </c>
       <c r="E46" s="4">
         <v>0.1</v>
       </c>
       <c r="F46" s="4"/>
       <c r="G46" s="6" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H46" s="13"/>
     </row>
     <row r="47" spans="2:8" ht="30">
       <c r="B47" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C47" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="D47" s="5" t="s">
         <v>199</v>
-      </c>
-      <c r="D47" s="5" t="s">
-        <v>200</v>
       </c>
       <c r="E47" s="4">
         <v>0.12</v>
       </c>
       <c r="F47" s="4"/>
       <c r="G47" s="6" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="H47" s="13"/>
     </row>
@@ -2798,7 +2807,7 @@
       <c r="H63" s="9"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="G2:G45 G48:G57">
+  <conditionalFormatting sqref="G2:G14 G48:G57 G22:G45">
     <cfRule type="expression" dxfId="3" priority="3">
       <formula>G2="Arbitrary"</formula>
     </cfRule>
@@ -2856,87 +2865,87 @@
   <sheetData>
     <row r="1" spans="1:25" s="23" customFormat="1">
       <c r="A1" s="24" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B1" s="24" t="s">
+        <v>148</v>
+      </c>
+      <c r="C1" s="24" t="s">
         <v>149</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="D1" s="24" t="s">
+        <v>146</v>
+      </c>
+      <c r="E1" s="24" t="s">
+        <v>147</v>
+      </c>
+      <c r="F1" s="24" t="s">
+        <v>176</v>
+      </c>
+      <c r="G1" s="24" t="s">
+        <v>177</v>
+      </c>
+      <c r="H1" s="24" t="s">
         <v>150</v>
       </c>
-      <c r="D1" s="24" t="s">
-        <v>147</v>
-      </c>
-      <c r="E1" s="24" t="s">
-        <v>148</v>
-      </c>
-      <c r="F1" s="24" t="s">
-        <v>177</v>
-      </c>
-      <c r="G1" s="24" t="s">
-        <v>178</v>
-      </c>
-      <c r="H1" s="24" t="s">
+      <c r="I1" s="24" t="s">
         <v>151</v>
       </c>
-      <c r="I1" s="24" t="s">
+      <c r="J1" s="24" t="s">
         <v>152</v>
       </c>
-      <c r="J1" s="24" t="s">
+      <c r="K1" s="24" t="s">
         <v>153</v>
       </c>
-      <c r="K1" s="24" t="s">
+      <c r="L1" s="24" t="s">
         <v>154</v>
       </c>
-      <c r="L1" s="24" t="s">
+      <c r="M1" s="24" t="s">
         <v>155</v>
       </c>
-      <c r="M1" s="24" t="s">
+      <c r="N1" s="24" t="s">
         <v>156</v>
       </c>
-      <c r="N1" s="24" t="s">
+      <c r="O1" s="24" t="s">
         <v>157</v>
       </c>
-      <c r="O1" s="24" t="s">
+      <c r="P1" s="24" t="s">
         <v>158</v>
       </c>
-      <c r="P1" s="24" t="s">
+      <c r="Q1" s="24" t="s">
         <v>159</v>
       </c>
-      <c r="Q1" s="24" t="s">
+      <c r="R1" s="24" t="s">
         <v>160</v>
       </c>
-      <c r="R1" s="24" t="s">
+      <c r="S1" s="24" t="s">
         <v>161</v>
       </c>
-      <c r="S1" s="24" t="s">
+      <c r="T1" s="24" t="s">
         <v>162</v>
       </c>
-      <c r="T1" s="24" t="s">
+      <c r="U1" s="24" t="s">
         <v>163</v>
       </c>
-      <c r="U1" s="24" t="s">
+      <c r="V1" s="24" t="s">
         <v>164</v>
       </c>
-      <c r="V1" s="24" t="s">
+      <c r="W1" s="24" t="s">
         <v>165</v>
       </c>
-      <c r="W1" s="24" t="s">
-        <v>166</v>
-      </c>
       <c r="X1" s="24" t="s">
+        <v>171</v>
+      </c>
+      <c r="Y1" s="24" t="s">
         <v>172</v>
-      </c>
-      <c r="Y1" s="24" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="2" spans="1:25">
       <c r="A2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B2" t="s">
         <v>167</v>
-      </c>
-      <c r="B2" t="s">
-        <v>168</v>
       </c>
       <c r="D2" s="25"/>
       <c r="E2" s="25"/>
@@ -2963,13 +2972,13 @@
     </row>
     <row r="3" spans="1:25">
       <c r="A3" t="s">
+        <v>168</v>
+      </c>
+      <c r="B3" t="s">
         <v>169</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" s="17" t="s">
         <v>170</v>
-      </c>
-      <c r="C3" s="17" t="s">
-        <v>171</v>
       </c>
       <c r="D3" s="25">
         <v>3.5</v>
@@ -3036,13 +3045,13 @@
     </row>
     <row r="4" spans="1:25">
       <c r="A4" t="s">
+        <v>173</v>
+      </c>
+      <c r="B4" t="s">
         <v>174</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" s="17" t="s">
         <v>175</v>
-      </c>
-      <c r="C4" s="17" t="s">
-        <v>176</v>
       </c>
       <c r="D4" s="25"/>
       <c r="E4" s="25">
@@ -3091,13 +3100,13 @@
     </row>
     <row r="5" spans="1:25">
       <c r="A5" t="s">
+        <v>178</v>
+      </c>
+      <c r="B5" t="s">
         <v>179</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" s="17" t="s">
         <v>180</v>
-      </c>
-      <c r="C5" s="17" t="s">
-        <v>181</v>
       </c>
       <c r="D5" s="25">
         <v>1.9</v>
@@ -3140,13 +3149,13 @@
     </row>
     <row r="6" spans="1:25">
       <c r="A6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B6" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D6" s="25">
         <v>2.7</v>
@@ -3213,13 +3222,13 @@
     </row>
     <row r="7" spans="1:25">
       <c r="A7" t="s">
+        <v>181</v>
+      </c>
+      <c r="B7" t="s">
+        <v>167</v>
+      </c>
+      <c r="C7" s="17" t="s">
         <v>182</v>
-      </c>
-      <c r="B7" t="s">
-        <v>168</v>
-      </c>
-      <c r="C7" s="17" t="s">
-        <v>183</v>
       </c>
       <c r="D7" s="25"/>
       <c r="E7" s="25"/>
@@ -3274,13 +3283,13 @@
     </row>
     <row r="8" spans="1:25">
       <c r="A8" t="s">
+        <v>183</v>
+      </c>
+      <c r="B8" t="s">
         <v>184</v>
       </c>
-      <c r="B8" t="s">
-        <v>185</v>
-      </c>
       <c r="C8" s="17" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D8" s="25">
         <v>1.5</v>
@@ -3339,13 +3348,13 @@
     </row>
     <row r="9" spans="1:25">
       <c r="A9" t="s">
+        <v>185</v>
+      </c>
+      <c r="B9" t="s">
         <v>186</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" s="17" t="s">
         <v>187</v>
-      </c>
-      <c r="C9" s="17" t="s">
-        <v>188</v>
       </c>
       <c r="D9" s="17">
         <v>4</v>
@@ -3377,13 +3386,13 @@
     </row>
     <row r="10" spans="1:25">
       <c r="A10" t="s">
+        <v>188</v>
+      </c>
+      <c r="B10" t="s">
         <v>189</v>
       </c>
-      <c r="B10" t="s">
-        <v>190</v>
-      </c>
       <c r="C10" s="17" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H10" s="17">
         <v>0.33500000000000002</v>
@@ -3394,13 +3403,13 @@
     </row>
     <row r="11" spans="1:25">
       <c r="A11" t="s">
+        <v>190</v>
+      </c>
+      <c r="B11" t="s">
         <v>191</v>
       </c>
-      <c r="B11" t="s">
-        <v>192</v>
-      </c>
       <c r="C11" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D11" s="17">
         <v>1</v>
@@ -3441,13 +3450,13 @@
     </row>
     <row r="12" spans="1:25">
       <c r="A12" t="s">
+        <v>192</v>
+      </c>
+      <c r="B12" t="s">
         <v>193</v>
       </c>
-      <c r="B12" t="s">
-        <v>194</v>
-      </c>
       <c r="C12" s="17" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D12" s="17">
         <v>1.95</v>
@@ -3522,27 +3531,27 @@
   <sheetData>
     <row r="1" spans="1:12" s="17" customFormat="1">
       <c r="A1" s="19" t="s">
+        <v>138</v>
+      </c>
+      <c r="B1" s="19" t="s">
         <v>139</v>
       </c>
-      <c r="B1" s="19" t="s">
-        <v>140</v>
-      </c>
       <c r="C1" s="19" t="s">
+        <v>128</v>
+      </c>
+      <c r="D1" s="19" t="s">
         <v>129</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="E1" s="17" t="s">
         <v>130</v>
-      </c>
-      <c r="E1" s="17" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="10" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C2" s="20">
         <v>0.2</v>
@@ -3553,10 +3562,10 @@
     </row>
     <row r="3" spans="1:12">
       <c r="A3" s="10" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C3" s="20">
         <v>5.0000000000000001E-3</v>
@@ -3567,10 +3576,10 @@
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="10" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C4" s="20">
         <v>8.0000000000000004E-4</v>
@@ -3581,10 +3590,10 @@
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="10" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C5" s="20">
         <v>0.8</v>
@@ -3595,10 +3604,10 @@
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="10" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C6" s="20">
         <v>10</v>
@@ -3609,10 +3618,10 @@
     </row>
     <row r="7" spans="1:12" ht="30">
       <c r="A7" s="10" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C7" s="20">
         <v>0.43</v>
@@ -3621,15 +3630,15 @@
         <v>0.8</v>
       </c>
       <c r="E7" s="18" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="10" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C8" s="19">
         <v>-112</v>
@@ -3638,15 +3647,15 @@
         <v>112</v>
       </c>
       <c r="I8" s="21" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="B9" s="10" t="s">
         <v>134</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>135</v>
       </c>
       <c r="C9" s="20">
         <v>0.2</v>
@@ -3655,18 +3664,18 @@
         <v>0.5</v>
       </c>
       <c r="I9" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="K9" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C10" s="20">
         <v>0.01</v>
@@ -3675,27 +3684,27 @@
         <v>0.01</v>
       </c>
       <c r="H10" s="21" t="s">
+        <v>141</v>
+      </c>
+      <c r="I10" t="s">
         <v>142</v>
       </c>
-      <c r="I10" t="s">
+      <c r="J10" t="s">
         <v>143</v>
       </c>
-      <c r="J10" t="s">
-        <v>144</v>
-      </c>
       <c r="K10" t="s">
+        <v>142</v>
+      </c>
+      <c r="L10" t="s">
         <v>143</v>
-      </c>
-      <c r="L10" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C11" s="20">
         <v>4.0000000000000001E-3</v>
@@ -3704,7 +3713,7 @@
         <v>4.0000000000000001E-3</v>
       </c>
       <c r="H11" s="16" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I11" s="22">
         <v>8.0000000000000004E-4</v>
@@ -3721,10 +3730,10 @@
     </row>
     <row r="12" spans="1:12">
       <c r="A12" s="10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C12" s="20">
         <v>0.26</v>
@@ -3733,10 +3742,10 @@
         <v>0.75</v>
       </c>
       <c r="E12" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H12" s="16" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="I12" s="22">
         <v>0.2</v>
@@ -3753,10 +3762,10 @@
     </row>
     <row r="13" spans="1:12">
       <c r="A13" s="10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C13" s="20">
         <v>0.15</v>
@@ -3765,7 +3774,7 @@
         <v>3.75</v>
       </c>
       <c r="H13" s="16" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="I13" s="22">
         <v>5.0000000000000001E-3</v>
@@ -3782,10 +3791,10 @@
     </row>
     <row r="14" spans="1:12" ht="30">
       <c r="A14" s="10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C14" s="20">
         <v>0.3</v>
@@ -3794,10 +3803,10 @@
         <v>0.7</v>
       </c>
       <c r="E14" s="18" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H14" s="16" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="I14" s="22">
         <v>10</v>
@@ -3814,10 +3823,10 @@
     </row>
     <row r="15" spans="1:12">
       <c r="A15" s="10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C15" s="19">
         <v>30</v>
@@ -3826,7 +3835,7 @@
         <v>90</v>
       </c>
       <c r="H15" s="16" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I15" s="22">
         <v>0.8</v>
@@ -3843,7 +3852,7 @@
     </row>
     <row r="16" spans="1:12">
       <c r="H16" s="16" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="I16" s="22">
         <v>0.43</v>
@@ -3860,7 +3869,7 @@
     </row>
     <row r="17" spans="8:12">
       <c r="H17" s="16" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="I17" s="22">
         <v>-112</v>

--- a/param-model/_all_param_value_source.xlsx
+++ b/param-model/_all_param_value_source.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27629"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27729"/>
   <workbookPr showInkAnnotation="0" hidePivotFieldList="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="2900" yWindow="0" windowWidth="32800" windowHeight="27980" tabRatio="500"/>
+    <workbookView xWindow="17780" yWindow="0" windowWidth="32800" windowHeight="27980" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="SUMMARY" sheetId="1" r:id="rId1"/>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="205">
   <si>
     <t>PARAMETER</t>
   </si>
@@ -196,9 +196,6 @@
   </si>
   <si>
     <t>frailty_pivot</t>
-  </si>
-  <si>
-    <t>Age when Frailty index change conexity</t>
   </si>
   <si>
     <t>frailty_sd</t>
@@ -675,6 +672,15 @@
   </si>
   <si>
     <t>based on influenza hospitalization rates by age groups</t>
+  </si>
+  <si>
+    <t>Van Kerckhove K, Hens N, Edmunds WJ, Eames KTD. The Impact of Illness on Social Networks: Implications for Transmission and Control of Influenza. American Journal of Epidemiology 2013; 178: 1655–62.</t>
+  </si>
+  <si>
+    <t>Table 1</t>
+  </si>
+  <si>
+    <t>Age when Frailty index changes convexity</t>
   </si>
 </sst>
 </file>
@@ -805,8 +811,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="151">
+  <cellStyleXfs count="155">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1030,7 +1040,7 @@
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="151">
+  <cellStyles count="155">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -1106,6 +1116,8 @@
     <cellStyle name="Followed Hyperlink" xfId="146" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="148" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="150" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="152" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="154" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -1181,19 +1193,11 @@
     <cellStyle name="Hyperlink" xfId="145" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="147" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="149" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="151" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="153" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="3">
     <dxf>
       <font>
         <color rgb="FF9C6500"/>
@@ -1809,8 +1813,8 @@
   <dimension ref="B1:H63"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="145" zoomScaleNormal="145" zoomScalePageLayoutView="145" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G24" sqref="G24"/>
+      <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1884,10 +1888,10 @@
         <v>9</v>
       </c>
       <c r="G3" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="H3" s="12" t="s">
         <v>110</v>
-      </c>
-      <c r="H3" s="12" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="4" spans="2:8" ht="66">
@@ -1907,7 +1911,7 @@
         <v>10</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H4" s="12"/>
     </row>
@@ -1928,10 +1932,10 @@
         <v>9</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H5" s="12" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="6" spans="2:8" ht="66">
@@ -1951,7 +1955,7 @@
         <v>10</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H6" s="12"/>
     </row>
@@ -2029,10 +2033,10 @@
         <v>9</v>
       </c>
       <c r="G10" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="H10" s="13" t="s">
         <v>107</v>
-      </c>
-      <c r="H10" s="13" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="11" spans="2:8" ht="22">
@@ -2052,7 +2056,7 @@
         <v>10</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H11" s="13"/>
     </row>
@@ -2061,17 +2065,17 @@
         <v>12</v>
       </c>
       <c r="C12" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="D12" s="5" t="s">
         <v>105</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>106</v>
       </c>
       <c r="E12" s="4" t="s">
         <v>20</v>
       </c>
       <c r="F12" s="4"/>
       <c r="G12" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H12" s="13"/>
     </row>
@@ -2080,20 +2084,20 @@
         <v>12</v>
       </c>
       <c r="C13" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="D13" s="5" t="s">
         <v>114</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>115</v>
       </c>
       <c r="E13" s="4" t="s">
         <v>26</v>
       </c>
       <c r="F13" s="4"/>
       <c r="G13" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="H13" s="13" t="s">
         <v>116</v>
-      </c>
-      <c r="H13" s="13" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="14" spans="2:8" ht="66">
@@ -2101,20 +2105,20 @@
         <v>12</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E14" s="4">
         <v>0.1</v>
       </c>
       <c r="F14" s="4"/>
       <c r="G14" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="H14" s="12" t="s">
         <v>112</v>
-      </c>
-      <c r="H14" s="12" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="15" spans="2:8">
@@ -2151,7 +2155,7 @@
       </c>
       <c r="F16" s="4"/>
       <c r="G16" s="12" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="H16" s="13"/>
     </row>
@@ -2170,7 +2174,7 @@
       </c>
       <c r="F17" s="4"/>
       <c r="G17" s="12" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="H17" s="13"/>
     </row>
@@ -2188,10 +2192,10 @@
         <v>30</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G18" s="12" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="H18" s="13"/>
     </row>
@@ -2203,16 +2207,16 @@
         <v>44</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>46</v>
+        <v>204</v>
       </c>
       <c r="E19" s="4">
         <v>60</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G19" s="12" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="H19" s="13"/>
     </row>
@@ -2224,14 +2228,14 @@
         <v>45</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E20" s="4">
         <v>0.43</v>
       </c>
       <c r="F20" s="4"/>
       <c r="G20" s="12" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="H20" s="13"/>
     </row>
@@ -2240,17 +2244,17 @@
         <v>34</v>
       </c>
       <c r="C21" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D21" s="5" t="s">
         <v>47</v>
-      </c>
-      <c r="D21" s="5" t="s">
-        <v>48</v>
       </c>
       <c r="E21" s="4">
         <v>0.1</v>
       </c>
       <c r="F21" s="4"/>
       <c r="G21" s="12" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="H21" s="12"/>
     </row>
@@ -2259,17 +2263,17 @@
         <v>34</v>
       </c>
       <c r="C22" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D22" s="5" t="s">
         <v>49</v>
-      </c>
-      <c r="D22" s="5" t="s">
-        <v>50</v>
       </c>
       <c r="E22" s="4">
         <v>0.2</v>
       </c>
       <c r="F22" s="4"/>
       <c r="G22" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H22" s="13"/>
     </row>
@@ -2278,19 +2282,19 @@
         <v>34</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E23" s="4">
         <v>120</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G23" s="6" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="H23" s="13"/>
     </row>
@@ -2299,10 +2303,10 @@
         <v>34</v>
       </c>
       <c r="C24" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D24" s="5" t="s">
         <v>53</v>
-      </c>
-      <c r="D24" s="5" t="s">
-        <v>54</v>
       </c>
       <c r="E24" s="4">
         <v>2</v>
@@ -2318,17 +2322,17 @@
         <v>34</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E25" s="4">
         <v>0.4</v>
       </c>
       <c r="F25" s="4"/>
       <c r="G25" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H25" s="13"/>
     </row>
@@ -2337,10 +2341,10 @@
         <v>34</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E26" s="4">
         <v>2</v>
@@ -2356,16 +2360,16 @@
         <v>34</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E27" s="4">
         <v>20</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G27" s="6" t="s">
         <v>23</v>
@@ -2374,34 +2378,34 @@
     </row>
     <row r="28" spans="2:8" ht="45">
       <c r="B28" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C28" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="D28" s="5" t="s">
         <v>61</v>
-      </c>
-      <c r="D28" s="5" t="s">
-        <v>62</v>
       </c>
       <c r="E28" s="4" t="s">
         <v>26</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="G28" s="6"/>
       <c r="H28" s="13" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="29" spans="2:8">
       <c r="B29" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C29" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D29" s="5" t="s">
         <v>63</v>
-      </c>
-      <c r="D29" s="5" t="s">
-        <v>64</v>
       </c>
       <c r="E29" s="4" t="s">
         <v>26</v>
@@ -2409,56 +2413,56 @@
       <c r="F29" s="4"/>
       <c r="G29" s="6"/>
       <c r="H29" s="13" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="30" spans="2:8" ht="77">
       <c r="B30" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C30" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="D30" s="5" t="s">
         <v>66</v>
-      </c>
-      <c r="D30" s="5" t="s">
-        <v>67</v>
       </c>
       <c r="E30" s="4">
         <v>15</v>
       </c>
       <c r="F30" s="4"/>
       <c r="G30" s="6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H30" s="13"/>
     </row>
     <row r="31" spans="2:8" ht="66">
       <c r="B31" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C31" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D31" s="5" t="s">
         <v>68</v>
-      </c>
-      <c r="D31" s="5" t="s">
-        <v>69</v>
       </c>
       <c r="E31" s="4">
         <v>3</v>
       </c>
       <c r="F31" s="4"/>
       <c r="G31" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H31" s="13"/>
     </row>
     <row r="32" spans="2:8" ht="30">
       <c r="B32" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C32" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="D32" s="5" t="s">
         <v>70</v>
-      </c>
-      <c r="D32" s="5" t="s">
-        <v>71</v>
       </c>
       <c r="E32" s="4">
         <v>1</v>
@@ -2471,13 +2475,13 @@
     </row>
     <row r="33" spans="2:8" ht="30">
       <c r="B33" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C33" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D33" s="5" t="s">
         <v>72</v>
-      </c>
-      <c r="D33" s="5" t="s">
-        <v>73</v>
       </c>
       <c r="E33" s="4">
         <v>1</v>
@@ -2490,13 +2494,13 @@
     </row>
     <row r="34" spans="2:8" ht="30">
       <c r="B34" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C34" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D34" s="5" t="s">
         <v>74</v>
-      </c>
-      <c r="D34" s="5" t="s">
-        <v>75</v>
       </c>
       <c r="E34" s="4">
         <v>1</v>
@@ -2509,13 +2513,13 @@
     </row>
     <row r="35" spans="2:8">
       <c r="B35" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C35" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D35" s="5" t="s">
         <v>76</v>
-      </c>
-      <c r="D35" s="5" t="s">
-        <v>77</v>
       </c>
       <c r="E35" s="4">
         <v>1</v>
@@ -2528,13 +2532,13 @@
     </row>
     <row r="36" spans="2:8" ht="45">
       <c r="B36" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C36" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D36" s="5" t="s">
         <v>78</v>
-      </c>
-      <c r="D36" s="5" t="s">
-        <v>79</v>
       </c>
       <c r="E36" s="4">
         <v>0.1</v>
@@ -2547,13 +2551,13 @@
     </row>
     <row r="37" spans="2:8" ht="30">
       <c r="B37" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C37" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="C37" s="4" t="s">
+      <c r="D37" s="5" t="s">
         <v>81</v>
-      </c>
-      <c r="D37" s="5" t="s">
-        <v>82</v>
       </c>
       <c r="E37" s="4">
         <v>0.98</v>
@@ -2564,34 +2568,36 @@
       </c>
       <c r="H37" s="13"/>
     </row>
-    <row r="38" spans="2:8" ht="30">
+    <row r="38" spans="2:8" ht="44">
       <c r="B38" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C38" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="D38" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="D38" s="5" t="s">
-        <v>84</v>
-      </c>
       <c r="E38" s="4">
-        <v>0.4</v>
+        <v>0.1</v>
       </c>
       <c r="F38" s="4"/>
       <c r="G38" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="H38" s="13"/>
+        <v>202</v>
+      </c>
+      <c r="H38" s="13" t="s">
+        <v>203</v>
+      </c>
     </row>
     <row r="39" spans="2:8" ht="30">
       <c r="B39" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C39" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="D39" s="5" t="s">
         <v>85</v>
-      </c>
-      <c r="D39" s="5" t="s">
-        <v>86</v>
       </c>
       <c r="E39" s="4">
         <v>0.2</v>
@@ -2604,13 +2610,13 @@
     </row>
     <row r="40" spans="2:8" ht="45">
       <c r="B40" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C40" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="C40" s="4" t="s">
+      <c r="D40" s="5" t="s">
         <v>91</v>
-      </c>
-      <c r="D40" s="5" t="s">
-        <v>92</v>
       </c>
       <c r="E40" s="4">
         <v>1</v>
@@ -2619,19 +2625,19 @@
         <v>9</v>
       </c>
       <c r="G40" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H40" s="13"/>
     </row>
     <row r="41" spans="2:8" ht="45">
       <c r="B41" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C41" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="D41" s="5" t="s">
         <v>94</v>
-      </c>
-      <c r="D41" s="5" t="s">
-        <v>95</v>
       </c>
       <c r="E41" s="4">
         <v>0.1</v>
@@ -2641,120 +2647,120 @@
         <v>23</v>
       </c>
       <c r="H41" s="13" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="42" spans="2:8" ht="30">
       <c r="B42" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C42" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="D42" s="5" t="s">
         <v>96</v>
-      </c>
-      <c r="D42" s="5" t="s">
-        <v>97</v>
       </c>
       <c r="E42" s="4">
         <v>0.1</v>
       </c>
       <c r="F42" s="4"/>
       <c r="G42" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H42" s="13"/>
     </row>
     <row r="43" spans="2:8" ht="30">
       <c r="B43" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E43" s="4">
         <v>0.1</v>
       </c>
       <c r="F43" s="4"/>
       <c r="G43" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H43" s="13"/>
     </row>
     <row r="44" spans="2:8" ht="30">
       <c r="B44" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E44" s="4">
         <v>12</v>
       </c>
       <c r="F44" s="4"/>
       <c r="G44" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H44" s="13"/>
     </row>
     <row r="45" spans="2:8" ht="30">
       <c r="B45" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E45" s="4">
         <v>0</v>
       </c>
       <c r="F45" s="4"/>
       <c r="G45" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H45" s="13"/>
     </row>
     <row r="46" spans="2:8" ht="30">
       <c r="B46" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C46" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="D46" s="5" t="s">
         <v>195</v>
-      </c>
-      <c r="D46" s="5" t="s">
-        <v>196</v>
       </c>
       <c r="E46" s="4">
         <v>0.1</v>
       </c>
       <c r="F46" s="4"/>
       <c r="G46" s="6" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H46" s="13"/>
     </row>
     <row r="47" spans="2:8" ht="30">
       <c r="B47" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C47" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="D47" s="5" t="s">
         <v>198</v>
-      </c>
-      <c r="D47" s="5" t="s">
-        <v>199</v>
       </c>
       <c r="E47" s="4">
         <v>0.12</v>
       </c>
       <c r="F47" s="4"/>
       <c r="G47" s="6" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="H47" s="13"/>
     </row>
@@ -2808,17 +2814,17 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="G2:G14 G48:G57 G22:G45">
-    <cfRule type="expression" dxfId="3" priority="3">
+    <cfRule type="expression" dxfId="2" priority="3">
       <formula>G2="Arbitrary"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G12:G13">
-    <cfRule type="expression" dxfId="2" priority="2">
+    <cfRule type="expression" dxfId="1" priority="2">
       <formula>G12="Arbitrary"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G46:G47">
-    <cfRule type="expression" dxfId="1" priority="1">
+    <cfRule type="expression" dxfId="0" priority="1">
       <formula>G46="Arbitrary"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2865,87 +2871,87 @@
   <sheetData>
     <row r="1" spans="1:25" s="23" customFormat="1">
       <c r="A1" s="24" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B1" s="24" t="s">
+        <v>147</v>
+      </c>
+      <c r="C1" s="24" t="s">
         <v>148</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="D1" s="24" t="s">
+        <v>145</v>
+      </c>
+      <c r="E1" s="24" t="s">
+        <v>146</v>
+      </c>
+      <c r="F1" s="24" t="s">
+        <v>175</v>
+      </c>
+      <c r="G1" s="24" t="s">
+        <v>176</v>
+      </c>
+      <c r="H1" s="24" t="s">
         <v>149</v>
       </c>
-      <c r="D1" s="24" t="s">
-        <v>146</v>
-      </c>
-      <c r="E1" s="24" t="s">
-        <v>147</v>
-      </c>
-      <c r="F1" s="24" t="s">
-        <v>176</v>
-      </c>
-      <c r="G1" s="24" t="s">
-        <v>177</v>
-      </c>
-      <c r="H1" s="24" t="s">
+      <c r="I1" s="24" t="s">
         <v>150</v>
       </c>
-      <c r="I1" s="24" t="s">
+      <c r="J1" s="24" t="s">
         <v>151</v>
       </c>
-      <c r="J1" s="24" t="s">
+      <c r="K1" s="24" t="s">
         <v>152</v>
       </c>
-      <c r="K1" s="24" t="s">
+      <c r="L1" s="24" t="s">
         <v>153</v>
       </c>
-      <c r="L1" s="24" t="s">
+      <c r="M1" s="24" t="s">
         <v>154</v>
       </c>
-      <c r="M1" s="24" t="s">
+      <c r="N1" s="24" t="s">
         <v>155</v>
       </c>
-      <c r="N1" s="24" t="s">
+      <c r="O1" s="24" t="s">
         <v>156</v>
       </c>
-      <c r="O1" s="24" t="s">
+      <c r="P1" s="24" t="s">
         <v>157</v>
       </c>
-      <c r="P1" s="24" t="s">
+      <c r="Q1" s="24" t="s">
         <v>158</v>
       </c>
-      <c r="Q1" s="24" t="s">
+      <c r="R1" s="24" t="s">
         <v>159</v>
       </c>
-      <c r="R1" s="24" t="s">
+      <c r="S1" s="24" t="s">
         <v>160</v>
       </c>
-      <c r="S1" s="24" t="s">
+      <c r="T1" s="24" t="s">
         <v>161</v>
       </c>
-      <c r="T1" s="24" t="s">
+      <c r="U1" s="24" t="s">
         <v>162</v>
       </c>
-      <c r="U1" s="24" t="s">
+      <c r="V1" s="24" t="s">
         <v>163</v>
       </c>
-      <c r="V1" s="24" t="s">
+      <c r="W1" s="24" t="s">
         <v>164</v>
       </c>
-      <c r="W1" s="24" t="s">
-        <v>165</v>
-      </c>
       <c r="X1" s="24" t="s">
+        <v>170</v>
+      </c>
+      <c r="Y1" s="24" t="s">
         <v>171</v>
-      </c>
-      <c r="Y1" s="24" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="2" spans="1:25">
       <c r="A2" t="s">
+        <v>165</v>
+      </c>
+      <c r="B2" t="s">
         <v>166</v>
-      </c>
-      <c r="B2" t="s">
-        <v>167</v>
       </c>
       <c r="D2" s="25"/>
       <c r="E2" s="25"/>
@@ -2972,13 +2978,13 @@
     </row>
     <row r="3" spans="1:25">
       <c r="A3" t="s">
+        <v>167</v>
+      </c>
+      <c r="B3" t="s">
         <v>168</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" s="17" t="s">
         <v>169</v>
-      </c>
-      <c r="C3" s="17" t="s">
-        <v>170</v>
       </c>
       <c r="D3" s="25">
         <v>3.5</v>
@@ -3045,13 +3051,13 @@
     </row>
     <row r="4" spans="1:25">
       <c r="A4" t="s">
+        <v>172</v>
+      </c>
+      <c r="B4" t="s">
         <v>173</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" s="17" t="s">
         <v>174</v>
-      </c>
-      <c r="C4" s="17" t="s">
-        <v>175</v>
       </c>
       <c r="D4" s="25"/>
       <c r="E4" s="25">
@@ -3100,13 +3106,13 @@
     </row>
     <row r="5" spans="1:25">
       <c r="A5" t="s">
+        <v>177</v>
+      </c>
+      <c r="B5" t="s">
         <v>178</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" s="17" t="s">
         <v>179</v>
-      </c>
-      <c r="C5" s="17" t="s">
-        <v>180</v>
       </c>
       <c r="D5" s="25">
         <v>1.9</v>
@@ -3149,13 +3155,13 @@
     </row>
     <row r="6" spans="1:25">
       <c r="A6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B6" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D6" s="25">
         <v>2.7</v>
@@ -3222,13 +3228,13 @@
     </row>
     <row r="7" spans="1:25">
       <c r="A7" t="s">
+        <v>180</v>
+      </c>
+      <c r="B7" t="s">
+        <v>166</v>
+      </c>
+      <c r="C7" s="17" t="s">
         <v>181</v>
-      </c>
-      <c r="B7" t="s">
-        <v>167</v>
-      </c>
-      <c r="C7" s="17" t="s">
-        <v>182</v>
       </c>
       <c r="D7" s="25"/>
       <c r="E7" s="25"/>
@@ -3283,13 +3289,13 @@
     </row>
     <row r="8" spans="1:25">
       <c r="A8" t="s">
+        <v>182</v>
+      </c>
+      <c r="B8" t="s">
         <v>183</v>
       </c>
-      <c r="B8" t="s">
-        <v>184</v>
-      </c>
       <c r="C8" s="17" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D8" s="25">
         <v>1.5</v>
@@ -3348,13 +3354,13 @@
     </row>
     <row r="9" spans="1:25">
       <c r="A9" t="s">
+        <v>184</v>
+      </c>
+      <c r="B9" t="s">
         <v>185</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" s="17" t="s">
         <v>186</v>
-      </c>
-      <c r="C9" s="17" t="s">
-        <v>187</v>
       </c>
       <c r="D9" s="17">
         <v>4</v>
@@ -3386,13 +3392,13 @@
     </row>
     <row r="10" spans="1:25">
       <c r="A10" t="s">
+        <v>187</v>
+      </c>
+      <c r="B10" t="s">
         <v>188</v>
       </c>
-      <c r="B10" t="s">
-        <v>189</v>
-      </c>
       <c r="C10" s="17" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="H10" s="17">
         <v>0.33500000000000002</v>
@@ -3403,13 +3409,13 @@
     </row>
     <row r="11" spans="1:25">
       <c r="A11" t="s">
+        <v>189</v>
+      </c>
+      <c r="B11" t="s">
         <v>190</v>
       </c>
-      <c r="B11" t="s">
-        <v>191</v>
-      </c>
       <c r="C11" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D11" s="17">
         <v>1</v>
@@ -3450,13 +3456,13 @@
     </row>
     <row r="12" spans="1:25">
       <c r="A12" t="s">
+        <v>191</v>
+      </c>
+      <c r="B12" t="s">
         <v>192</v>
       </c>
-      <c r="B12" t="s">
-        <v>193</v>
-      </c>
       <c r="C12" s="17" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D12" s="17">
         <v>1.95</v>
@@ -3531,27 +3537,27 @@
   <sheetData>
     <row r="1" spans="1:12" s="17" customFormat="1">
       <c r="A1" s="19" t="s">
+        <v>137</v>
+      </c>
+      <c r="B1" s="19" t="s">
         <v>138</v>
       </c>
-      <c r="B1" s="19" t="s">
-        <v>139</v>
-      </c>
       <c r="C1" s="19" t="s">
+        <v>127</v>
+      </c>
+      <c r="D1" s="19" t="s">
         <v>128</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="E1" s="17" t="s">
         <v>129</v>
-      </c>
-      <c r="E1" s="17" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="10" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C2" s="20">
         <v>0.2</v>
@@ -3562,10 +3568,10 @@
     </row>
     <row r="3" spans="1:12">
       <c r="A3" s="10" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C3" s="20">
         <v>5.0000000000000001E-3</v>
@@ -3576,10 +3582,10 @@
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="10" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C4" s="20">
         <v>8.0000000000000004E-4</v>
@@ -3590,10 +3596,10 @@
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="10" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C5" s="20">
         <v>0.8</v>
@@ -3604,10 +3610,10 @@
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="10" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C6" s="20">
         <v>10</v>
@@ -3618,10 +3624,10 @@
     </row>
     <row r="7" spans="1:12" ht="30">
       <c r="A7" s="10" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C7" s="20">
         <v>0.43</v>
@@ -3630,15 +3636,15 @@
         <v>0.8</v>
       </c>
       <c r="E7" s="18" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="10" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C8" s="19">
         <v>-112</v>
@@ -3647,15 +3653,15 @@
         <v>112</v>
       </c>
       <c r="I8" s="21" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="B9" s="10" t="s">
         <v>133</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>134</v>
       </c>
       <c r="C9" s="20">
         <v>0.2</v>
@@ -3664,18 +3670,18 @@
         <v>0.5</v>
       </c>
       <c r="I9" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="K9" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C10" s="20">
         <v>0.01</v>
@@ -3684,27 +3690,27 @@
         <v>0.01</v>
       </c>
       <c r="H10" s="21" t="s">
+        <v>140</v>
+      </c>
+      <c r="I10" t="s">
         <v>141</v>
       </c>
-      <c r="I10" t="s">
+      <c r="J10" t="s">
         <v>142</v>
       </c>
-      <c r="J10" t="s">
-        <v>143</v>
-      </c>
       <c r="K10" t="s">
+        <v>141</v>
+      </c>
+      <c r="L10" t="s">
         <v>142</v>
-      </c>
-      <c r="L10" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C11" s="20">
         <v>4.0000000000000001E-3</v>
@@ -3713,7 +3719,7 @@
         <v>4.0000000000000001E-3</v>
       </c>
       <c r="H11" s="16" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="I11" s="22">
         <v>8.0000000000000004E-4</v>
@@ -3730,10 +3736,10 @@
     </row>
     <row r="12" spans="1:12">
       <c r="A12" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C12" s="20">
         <v>0.26</v>
@@ -3742,10 +3748,10 @@
         <v>0.75</v>
       </c>
       <c r="E12" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H12" s="16" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I12" s="22">
         <v>0.2</v>
@@ -3762,10 +3768,10 @@
     </row>
     <row r="13" spans="1:12">
       <c r="A13" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C13" s="20">
         <v>0.15</v>
@@ -3774,7 +3780,7 @@
         <v>3.75</v>
       </c>
       <c r="H13" s="16" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="I13" s="22">
         <v>5.0000000000000001E-3</v>
@@ -3791,10 +3797,10 @@
     </row>
     <row r="14" spans="1:12" ht="30">
       <c r="A14" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C14" s="20">
         <v>0.3</v>
@@ -3803,10 +3809,10 @@
         <v>0.7</v>
       </c>
       <c r="E14" s="18" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H14" s="16" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="I14" s="22">
         <v>10</v>
@@ -3823,10 +3829,10 @@
     </row>
     <row r="15" spans="1:12">
       <c r="A15" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C15" s="19">
         <v>30</v>
@@ -3835,7 +3841,7 @@
         <v>90</v>
       </c>
       <c r="H15" s="16" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I15" s="22">
         <v>0.8</v>
@@ -3852,7 +3858,7 @@
     </row>
     <row r="16" spans="1:12">
       <c r="H16" s="16" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I16" s="22">
         <v>0.43</v>
@@ -3869,7 +3875,7 @@
     </row>
     <row r="17" spans="8:12">
       <c r="H17" s="16" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="I17" s="22">
         <v>-112</v>

--- a/param-model/_all_param_value_source.xlsx
+++ b/param-model/_all_param_value_source.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27729"/>
   <workbookPr showInkAnnotation="0" hidePivotFieldList="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="17780" yWindow="0" windowWidth="32800" windowHeight="27980" tabRatio="500"/>
+    <workbookView xWindow="9380" yWindow="0" windowWidth="32800" windowHeight="27980" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="SUMMARY" sheetId="1" r:id="rId1"/>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="206">
   <si>
     <t>PARAMETER</t>
   </si>
@@ -681,6 +681,9 @@
   </si>
   <si>
     <t>Age when Frailty index changes convexity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">changed this value to 10 (instead of 15) </t>
   </si>
 </sst>
 </file>
@@ -1813,8 +1816,8 @@
   <dimension ref="B1:H63"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="145" zoomScaleNormal="145" zoomScalePageLayoutView="145" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D15" sqref="D15"/>
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2433,7 +2436,9 @@
       <c r="G30" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="H30" s="13"/>
+      <c r="H30" s="13" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="31" spans="2:8" ht="66">
       <c r="B31" s="4" t="s">
